--- a/results/LCIA/LCIA_results.xlsx
+++ b/results/LCIA/LCIA_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -79,400 +79,334 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
+    <t>combined sc3</t>
+  </si>
+  <si>
     <t>pill sc1</t>
   </si>
   <si>
     <t>pill sc2</t>
   </si>
   <si>
-    <t>pill sc3</t>
-  </si>
-  <si>
     <t>vial sc1</t>
   </si>
   <si>
     <t>vial sc2</t>
   </si>
   <si>
-    <t>vial sc3</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1109077849279075e-06], ["'packed box of penicillin' (unit, SE, None)", 9.493069419095837e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.423827037699602e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.221815569855815e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0019177918018375424], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2847654075399203e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.333089341913489e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0011506750811025256], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.708592445239522e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.480135523086533e-06], ["'full box of vials' (unit, NO, None)", 0.0013148407189966052], ["'production of gloves' (unit, MY, None)", 0.0003996454509374388], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00010979435712596586], ["'production of IV sets' (unit, RER, None)", 0.000359964979678725], ["'medical connector' (unit, GLO, None)", 0.0007510464696395794], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.293382580857241e-06], ["'stopcock' (unit, GLO, None)", 6.587844640839222e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 7.075584102090282e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.931110731389809e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.57616262770384e-05], ["'full box of vials' (unit, NO, None)", 0.01577808862795926], ["'production of gloves' (unit, MY, None)", 0.004795745411249266], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013175322855115902], ["'production of IV sets' (unit, RER, None)", 0.0043195797561447], ["'medical connector' (unit, GLO, None)", 0.009012557635674953], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.35205909702869e-05], ["'stopcock' (unit, GLO, None)", 0.0007905413569007067], ["'market for water, ultrapure' (kilogram, RER, None)", 0.008490700922508337], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.9173893058140904e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.384108418469227e-05], ["'full box of vials' (unit, NO, None)", 0.010518725751972841], ["'production of gloves' (unit, MY, None)", 0.0031971636074995106], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008783548570077269], ["'production of IV sets' (unit, RER, None)", 0.0028797198374298], ["'medical connector' (unit, GLO, None)", 0.006008371757116635], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.234706064685793e-05], ["'stopcock' (unit, GLO, None)", 0.0005270275712671378], ["'market for water, ultrapure' (kilogram, RER, None)", 5.660467281672225e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.9448692550548036e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0007515620928198729], ["'packed box of penicillin' (unit, SE, None)", 0.042109708298984236], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.334999742258741e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.015031241856397459], ["'packed box of penicillin' (unit, SE, None)", 0.8507011777572573], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0014669999484517484]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.009018745113838473], ["'packed box of penicillin' (unit, SE, None)", 0.5104207066543544], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.000880199969071049]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.001982048484126086], ["'full box of vials' (unit, NO, None)", 0.351215725180387], ["'production of gloves' (unit, MY, None)", 0.1027050647357543], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.20637767825338243], ["'production of IV sets' (unit, RER, None)", 0.1997883413814195], ["'medical connector' (unit, GLO, None)", 0.1597931370586722], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014583920752213183], ["'stopcock' (unit, GLO, None)", 0.0322652731147338], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00022676827176284212], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0005630552586725012]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023784581809513032], ["'full box of vials' (unit, NO, None)", 4.214588702164644], ["'production of gloves' (unit, MY, None)", 1.2324607768290516], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -2.476532139040589], ["'production of IV sets' (unit, RER, None)", 2.397460096577034], ["'medical connector' (unit, GLO, None)", 1.9175176447040665], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.01750070490265582], ["'stopcock' (unit, GLO, None)", 0.38718327737680563], ["'market for water, ultrapure' (kilogram, RER, None)", 2.7212192611541055], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00675672753613462]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.01585638787300869], ["'full box of vials' (unit, NO, None)", 2.809725801443096], ["'production of gloves' (unit, MY, None)", 0.8216405178860344], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.6510214260270595], ["'production of IV sets' (unit, RER, None)", 1.598306731051356], ["'medical connector' (unit, GLO, None)", 1.2783450964693777], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011667136601770546], ["'stopcock' (unit, GLO, None)", 0.2581221849178704], ["'market for water, ultrapure' (kilogram, RER, None)", 0.001814146174102737], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.004504419997496287]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.5588780478410037e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010135380644183114], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9810898782828667e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00031177560956820074], ["'packed box of penicillin' (unit, SE, None)", 0.02047551645289518], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0005962179756565733]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00018706536574092042], ["'packed box of penicillin' (unit, SE, None)", 0.012285309871737107], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00035773078539394406]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.828442024468658e-05], ["'full box of vials' (unit, NO, None)", 0.01443032247689084], ["'production of gloves' (unit, MY, None)", 0.004286998506534842], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007026909372017767], ["'production of IV sets' (unit, RER, None)", 0.004170820667715831], ["'medical connector' (unit, GLO, None)", 0.008804676544035727], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0001795074936510204], ["'stopcock' (unit, GLO, None)", 0.0007087614353203767], ["'market for water, ultrapure' (kilogram, RER, None)", 1.7756936523115928e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00022883686319335184]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.000699413042936239], ["'full box of vials' (unit, NO, None)", 0.17316386972269007], ["'production of gloves' (unit, MY, None)", 0.051443982078418105], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0843229124642132], ["'production of IV sets' (unit, RER, None)", 0.05004984801258997], ["'medical connector' (unit, GLO, None)", 0.10565611852842872], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0021540899238122447], ["'stopcock' (unit, GLO, None)", 0.00850513722384452], ["'market for water, ultrapure' (kilogram, RER, None)", 0.21308323827739115], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.002746068544793621]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0004662753619574926], ["'full box of vials' (unit, NO, None)", 0.11544257981512672], ["'production of gloves' (unit, MY, None)", 0.034295988052278736], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.056215274976142135], ["'production of IV sets' (unit, RER, None)", 0.03336656534172665], ["'medical connector' (unit, GLO, None)", 0.07043741235228582], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014360599492081632], ["'stopcock' (unit, GLO, None)", 0.005670091482563013], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00014205549218492742], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0018306859350939895]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.147538032746757e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0012692380804368297], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.675576751546122e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004295076065493514], ["'packed box of penicillin' (unit, SE, None)", 0.025641173342158173], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007351153503092244]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0002577045639296108], ["'packed box of penicillin' (unit, SE, None)", 0.015384704005294906], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00044106921018553466]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.873824439108426e-05], ["'full box of vials' (unit, NO, None)", 0.039718023342738135], ["'production of gloves' (unit, MY, None)", 0.005842353028427591], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.009306730917037324], ["'production of IV sets' (unit, RER, None)", 0.005506141181869257], ["'medical connector' (unit, GLO, None)", 0.03175372351145726], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00023082444116359762], ["'stopcock' (unit, GLO, None)", 0.000921643731447452], ["'market for water, ultrapure' (kilogram, RER, None)", 2.2580656141759094e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00028214763344696926]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009448589326930112], ["'full box of vials' (unit, NO, None)", 0.4766162801128575], ["'production of gloves' (unit, MY, None)", 0.07010823634113109], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.11168077100444788], ["'production of IV sets' (unit, RER, None)", 0.06607369418243109], ["'medical connector' (unit, GLO, None)", 0.38104468213748716], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0027698932939631713], ["'stopcock' (unit, GLO, None)", 0.011059724777369424], ["'market for water, ultrapure' (kilogram, RER, None)", 0.2709678737011091], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0033858038883448223]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006299059551286741], ["'full box of vials' (unit, NO, None)", 0.3177441867419051], ["'production of gloves' (unit, MY, None)", 0.046738824227420726], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.07445384733629859], ["'production of IV sets' (unit, RER, None)", 0.04404912945495405], ["'medical connector' (unit, GLO, None)", 0.2540297880916581], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001846595529308781], ["'stopcock' (unit, GLO, None)", 0.007373149851579616], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00018064524913407275], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.002257170007329602]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0011072630347300134], ["'packed box of penicillin' (unit, SE, None)", 0.12845548353055966], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00015809350457164664]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.02214526069460027], ["'packed box of penicillin' (unit, SE, None)", 2.595060273344639], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.003161870091432933]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.01328715641676016], ["'packed box of penicillin' (unit, SE, None)", 1.5570361640067836], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00189712205485976]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007509582965286341], ["'full box of vials' (unit, NO, None)", 1.748812424016445], ["'production of gloves' (unit, MY, None)", 0.4655333228500338], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.09692112759999517], ["'production of IV sets' (unit, RER, None)", 0.5958702096338013], ["'medical connector' (unit, GLO, None)", 0.9702857177475029], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011144712322106705], ["'stopcock' (unit, GLO, None)", 0.1103706064363951], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0009214410666768173], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0012135703100054826]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0901149955834361], ["'full box of vials' (unit, NO, None)", 20.985749088197338], ["'production of gloves' (unit, MY, None)", 5.5863998742004055], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.1630535311999421], ["'production of IV sets' (unit, RER, None)", 7.150442515605616], ["'medical connector' (unit, GLO, None)", 11.643428612970036], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.13373654786528044], ["'stopcock' (unit, GLO, None)", 1.3244472772367413], ["'market for water, ultrapure' (kilogram, RER, None)", 11.057292800121807], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.014562982592475583]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.06007666372229073], ["'full box of vials' (unit, NO, None)", 13.99049939213156], ["'production of gloves' (unit, MY, None)", 3.7242665828002703], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.7753690207999614], ["'production of IV sets' (unit, RER, None)", 4.766961677070411], ["'medical connector' (unit, GLO, None)", 7.7622857419800235], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.08915769857685364], ["'stopcock' (unit, GLO, None)", 0.8829648514911608], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007371528533414539], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.009708514907834278]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.522163381924991e-05], ["'packed box of penicillin' (unit, SE, None)", 0.01233188193273125], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.4778935952909727e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0015044326763849983], ["'packed box of penicillin' (unit, SE, None)", 0.2491289279339646], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00029557871905819456]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0009026596058309989], ["'packed box of penicillin' (unit, SE, None)", 0.14947735676037877], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00017734723143491673]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009320823025052965], ["'full box of vials' (unit, NO, None)", 0.09955181271015734], ["'production of gloves' (unit, MY, None)", 0.05524775949446237], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0006573687736044448], ["'production of IV sets' (unit, RER, None)", 0.09700822548062599], ["'medical connector' (unit, GLO, None)", 0.04376007735804927], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0004298288587915959], ["'stopcock' (unit, GLO, None)", 0.01450721628205066], ["'market for water, ultrapure' (kilogram, RER, None)", 6.563353026139897e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.000113447278776692]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.011184987630063557], ["'full box of vials' (unit, NO, None)", 1.194621752521888], ["'production of gloves' (unit, MY, None)", 0.6629731139335484], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007888425283253337], ["'production of IV sets' (unit, RER, None)", 1.1640987057675118], ["'medical connector' (unit, GLO, None)", 0.5251209282965913], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00515794630549915], ["'stopcock' (unit, GLO, None)", 0.1740865953846079], ["'market for water, ultrapure' (kilogram, RER, None)", 0.7876023631367877], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0013613803274251381]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007456658420042372], ["'full box of vials' (unit, NO, None)", 0.7964145016812587], ["'production of gloves' (unit, MY, None)", 0.44198207595569894], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.005258950188835558], ["'production of IV sets' (unit, RER, None)", 0.7760658038450079], ["'medical connector' (unit, GLO, None)", 0.3500806188643942], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003438630870332767], ["'stopcock' (unit, GLO, None)", 0.11605773025640528], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0005250682420911918], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0009075737830565167]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.345781224587366e-07], ["'packed box of penicillin' (unit, SE, None)", 1.4148595608393962e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.013595158553956e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.691562449174734e-06], ["'packed box of penicillin' (unit, SE, None)", 0.00028583021431098914], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.027190317107913e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.014937469504839e-06], ["'packed box of penicillin' (unit, SE, None)", 0.00017149812858659348], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.816314190264748e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.884151101676317e-07], ["'full box of vials' (unit, NO, None)", 0.0001273073921544463], ["'production of gloves' (unit, MY, None)", 3.002249984663815e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.000148297296811373], ["'production of IV sets' (unit, RER, None)", 2.889963525724809e-05], ["'medical connector' (unit, GLO, None)", 4.959149637738236e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.037057338787203e-06], ["'stopcock' (unit, GLO, None)", 7.141955736496304e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 4.590460850742033e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.0809487929312313e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.066098132201158e-05], ["'full box of vials' (unit, NO, None)", 0.0015276887058533555], ["'production of gloves' (unit, MY, None)", 0.00036026999815965777], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0017795675617364763], ["'production of IV sets' (unit, RER, None)", 0.0003467956230869771], ["'medical connector' (unit, GLO, None)", 0.0005950979565285883], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.2444688065446434e-05], ["'stopcock' (unit, GLO, None)", 8.570346883795564e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.05508553020890439], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.6971738077181106e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.107320881341054e-06], ["'full box of vials' (unit, NO, None)", 0.0010184591372355703], ["'production of gloves' (unit, MY, None)", 0.0002401799987731052], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001186378374490984], ["'production of IV sets' (unit, RER, None)", 0.00023119708205798472], ["'medical connector' (unit, GLO, None)", 0.0003967319710190589], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 8.296458710297624e-06], ["'stopcock' (unit, GLO, None)", 5.713564589197043e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 3.672368680593626e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.4647469569613773e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.3162830048958527e-08], ["'packed box of penicillin' (unit, SE, None)", 6.055248346550591e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.7610807667090585e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.632566009791706e-07], ["'packed box of penicillin' (unit, SE, None)", 0.00012232824942526446], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.522161533418117e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.779539605875023e-07], ["'packed box of penicillin' (unit, SE, None)", 7.339694965515868e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.5132969200508707e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.797941090109194e-07], ["'full box of vials' (unit, NO, None)", 1.7921595439894443e-05], ["'production of gloves' (unit, MY, None)", 6.209594079221409e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -7.0203473457079235e-06], ["'production of IV sets' (unit, RER, None)", 5.329135755756759e-06], ["'medical connector' (unit, GLO, None)", 3.988288535947238e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.3113366216977746e-07], ["'stopcock' (unit, GLO, None)", 8.703218977660165e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 6.32718972668778e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8871116269942965e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3575293081310327e-06], ["'full box of vials' (unit, NO, None)", 0.00021505914527873327], ["'production of gloves' (unit, MY, None)", 7.451512895065692e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.424416814849508e-05], ["'production of IV sets' (unit, RER, None)", 6.394962906908111e-05], ["'medical connector' (unit, GLO, None)", 4.785946243136686e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.5736039460373296e-06], ["'stopcock' (unit, GLO, None)", 1.0443862773192199e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007592627672025336], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.4645669904582496e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.238352872087355e-06], ["'full box of vials' (unit, NO, None)", 0.00014337276351915554], ["'production of gloves' (unit, MY, None)", 4.9676752633771275e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.616277876566339e-05], ["'production of IV sets' (unit, RER, None)", 4.2633086046054074e-05], ["'medical connector' (unit, GLO, None)", 3.19063082875779e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0490692973582197e-06], ["'stopcock' (unit, GLO, None)", 6.962575182128132e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 5.061751781350224e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.309677984057568e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -8.140821491750863e-05], ["'packed box of penicillin' (unit, SE, None)", 0.001021410936074529], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.7271377998483834e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0016281642983501728], ["'packed box of penicillin' (unit, SE, None)", 0.020634564365142], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0009454275599696767]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0009768985790101035], ["'packed box of penicillin' (unit, SE, None)", 0.012380738619085202], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0005672565359818061]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.685017050503247e-05], ["'full box of vials' (unit, NO, None)", 0.0371441401007093], ["'production of gloves' (unit, MY, None)", 0.003457612181247474], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03617231789786983], ["'production of IV sets' (unit, RER, None)", 0.004693518630709792], ["'medical connector' (unit, GLO, None)", 0.02538863460188837], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0003211528221146149], ["'stopcock' (unit, GLO, None)", 0.0008355252759248149], ["'market for water, ultrapure' (kilogram, RER, None)", 2.5101705034004095e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00036286842402186154]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008022020460603896], ["'full box of vials' (unit, NO, None)", 0.4457296812085116], ["'production of gloves' (unit, MY, None)", 0.04149134617496969], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.43406781477443795], ["'production of IV sets' (unit, RER, None)", 0.05632222356851751], ["'medical connector' (unit, GLO, None)", 0.30466361522266044], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003853833865375378], ["'stopcock' (unit, GLO, None)", 0.01002630331109778], ["'market for water, ultrapure' (kilogram, RER, None)", 0.3012204604080491], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.004354462612360337]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005348013640402597], ["'full box of vials' (unit, NO, None)", 0.2971531208056744], ["'production of gloves' (unit, MY, None)", 0.027660897449979793], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.28937854318295864], ["'production of IV sets' (unit, RER, None)", 0.03754814904567834], ["'medical connector' (unit, GLO, None)", 0.20310907681510695], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002569222576916919], ["'stopcock' (unit, GLO, None)", 0.0066842022073985196], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00020081364027203276], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0029029331676568926]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004616551059238034], ["'packed box of penicillin' (unit, SE, None)", 0.0238269581769282], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007135963689395118]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00923310211847607], ["'packed box of penicillin' (unit, SE, None)", 0.4813526904429939], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.014271927378790236]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.005539861271085641], ["'packed box of penicillin' (unit, SE, None)", 0.2888116142657963], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.008563156427274142]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.001941495802984467], ["'full box of vials' (unit, NO, None)", 0.41908638087332206], ["'production of gloves' (unit, MY, None)", 0.1215189273327847], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.11622138550709801], ["'production of IV sets' (unit, RER, None)", 0.09388791637336358], ["'medical connector' (unit, GLO, None)", 0.2639290464417564], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002902383606379619], ["'stopcock' (unit, GLO, None)", 0.01855369281482199], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0002514161878549259], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.005477766901424127]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023297949635813605], ["'full box of vials' (unit, NO, None)", 5.029036570479864], ["'production of gloves' (unit, MY, None)", 1.4582271279934165], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.394656626085176], ["'production of IV sets' (unit, RER, None)", 1.126654996480363], ["'medical connector' (unit, GLO, None)", 3.167148557301077], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.034828603276555424], ["'stopcock' (unit, GLO, None)", 0.2226443137778639], ["'market for water, ultrapure' (kilogram, RER, None)", 3.0169942542591106], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.06573382965402153]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015531966423875736], ["'full box of vials' (unit, NO, None)", 3.3526910469865765], ["'production of gloves' (unit, MY, None)", 0.9721514186622776], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.9297710840567841], ["'production of IV sets' (unit, RER, None)", 0.7511033309869086], ["'medical connector' (unit, GLO, None)", 2.1114323715340513], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.02321906885103695], ["'stopcock' (unit, GLO, None)", 0.14842954251857593], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0020113295028394073], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.04382192048178656]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 8.33767343474945e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0009643744313462124], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -9.226850067871028e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.000166753468694989], ["'packed box of penicillin' (unit, SE, None)", 0.019482311744367924], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.8453700135742057e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.00010005208121699337], ["'packed box of penicillin' (unit, SE, None)", 0.011689387046620757], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1072220081445235e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.939295587887387e-05], ["'full box of vials' (unit, NO, None)", -0.001630800199900002], ["'production of gloves' (unit, MY, None)", 0.003552069172644529], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.004053133106414255], ["'production of IV sets' (unit, RER, None)", 0.008003541196365769], ["'medical connector' (unit, GLO, None)", 0.001890647965686953], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00044816038820471183], ["'stopcock' (unit, GLO, None)", 0.0007427594374015466], ["'market for water, ultrapure' (kilogram, RER, None)", 5.445424831370772e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.082790230743332e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008327154705464865], ["'full box of vials' (unit, NO, None)", -0.019569602398800023], ["'production of gloves' (unit, MY, None)", 0.04262483007173435], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.04863759727697105], ["'production of IV sets' (unit, RER, None)", 0.09604249435638923], ["'medical connector' (unit, GLO, None)", 0.022687775588243437], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.005377924658456541], ["'stopcock' (unit, GLO, None)", 0.00891311324881856], ["'market for water, ultrapure' (kilogram, RER, None)", 0.6534509797644926], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.499429327337884e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.000555143647030991], ["'full box of vials' (unit, NO, None)", -0.013046401599200017], ["'production of gloves' (unit, MY, None)", 0.028416553381156232], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.03242506485131404], ["'production of IV sets' (unit, RER, None)", 0.06402832957092615], ["'medical connector' (unit, GLO, None)", 0.015125183725495624], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0035852831056376946], ["'stopcock' (unit, GLO, None)", 0.005942075499212373], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00043563398650966177], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.666204419909051e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.312194488507524e-05], ["'packed box of penicillin' (unit, SE, None)", 0.008497814839739022], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.672320086008069e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0006624388977015049], ["'packed box of penicillin' (unit, SE, None)", 0.17167302706543477], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.344640172016138e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00039746333862090294], ["'packed box of penicillin' (unit, SE, None)", 0.10300381623926087], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.4067841032096834e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.001163057717487899], ["'full box of vials' (unit, NO, None)", 0.049308672381753564], ["'production of gloves' (unit, MY, None)", 0.01620458525557951], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.10016691174154746], ["'production of IV sets' (unit, RER, None)", 0.002804712208586559], ["'medical connector' (unit, GLO, None)", 0.003449361975909155], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0002736927847572817], ["'stopcock' (unit, GLO, None)", 0.0005824040941083242], ["'market for water, ultrapure' (kilogram, RER, None)", 3.042456084932227e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8189764261924316e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.013956692609854788], ["'full box of vials' (unit, NO, None)", 0.5917040685810427], ["'production of gloves' (unit, MY, None)", 0.1944550230669541], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.2020029408985695], ["'production of IV sets' (unit, RER, None)", 0.03365654650303871], ["'medical connector' (unit, GLO, None)", 0.04139234371090986], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00328431341708738], ["'stopcock' (unit, GLO, None)", 0.00698884912929989], ["'market for water, ultrapure' (kilogram, RER, None)", 0.3650947301918672], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0003382803969804926]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.009304461739903193], ["'full box of vials' (unit, NO, None)", 0.3944693790540285], ["'production of gloves' (unit, MY, None)", 0.12963668204463608], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.8013352939323797], ["'production of IV sets' (unit, RER, None)", 0.022437697668692472], ["'medical connector' (unit, GLO, None)", 0.02759489580727324], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0021895422780582536], ["'stopcock' (unit, GLO, None)", 0.004659232752866594], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00024339648679457817], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00022551700905074857]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.909609475795947e-07], ["'packed box of penicillin' (unit, SE, None)", 0.00010227298002854959], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.990056034186908e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1819218951591897e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0020661208086575674], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.1980112068373818e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.091531370955137e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0012396724851945406], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.18806724102429e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.821426469294164e-06], ["'full box of vials' (unit, NO, None)", 0.005847859023598408], ["'production of gloves' (unit, MY, None)", 0.000365627714700952], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00010834839579400667], ["'production of IV sets' (unit, RER, None)", 0.0003328266562219829], ["'medical connector' (unit, GLO, None)", 0.004737481032605836], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.5074461855447004e-06], ["'stopcock' (unit, GLO, None)", 5.222554511541267e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 1.740177609991133e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.5981358804428345e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.385711763152997e-05], ["'full box of vials' (unit, NO, None)", 0.0701743082831809], ["'production of gloves' (unit, MY, None)", 0.004387532576411424], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00130018074952808], ["'production of IV sets' (unit, RER, None)", 0.003993919874663795], ["'medical connector' (unit, GLO, None)", 0.05684977239127004], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.2089354226536405e-05], ["'stopcock' (unit, GLO, None)", 0.000626706541384952], ["'market for water, ultrapure' (kilogram, RER, None)", 0.020882131319893592], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.517815674348845e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.257141175435331e-05], ["'full box of vials' (unit, NO, None)", 0.04678287218878727], ["'production of gloves' (unit, MY, None)", 0.002925021717607616], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008667871663520534], ["'production of IV sets' (unit, RER, None)", 0.002662613249775863], ["'medical connector' (unit, GLO, None)", 0.03789984826084669], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.8059569484357603e-05], ["'stopcock' (unit, GLO, None)", 0.00041780436092330136], ["'market for water, ultrapure' (kilogram, RER, None)", 1.3921420879929064e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.678490679565594e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.429104214818197e-10], ["'packed box of penicillin' (unit, SE, None)", 4.3429178656237805e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.227067344281046e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.8582084296363946e-09], ["'packed box of penicillin' (unit, SE, None)", 8.773571445704606e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0454134688562093e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.7149250577818365e-09], ["'packed box of penicillin' (unit, SE, None)", 5.264142867422765e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.272480813137256e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.461584467301929e-10], ["'full box of vials' (unit, NO, None)", 1.2172972035404242e-07], ["'production of gloves' (unit, MY, None)", 2.882744977378576e-08], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 6.385093512434098e-08], ["'production of IV sets' (unit, RER, None)", 8.491994804099747e-08], ["'medical connector' (unit, GLO, None)", 4.314693638774051e-08], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.987001558437718e-10], ["'stopcock' (unit, GLO, None)", 1.065055853747704e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.378191632504558e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.01244425228356e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.953901360762316e-09], ["'full box of vials' (unit, NO, None)", 1.4607566442485088e-06], ["'production of gloves' (unit, MY, None)", 3.4592939728542915e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 7.662112214920917e-07], ["'production of IV sets' (unit, RER, None)", 1.0190393764919697e-06], ["'medical connector' (unit, GLO, None)", 5.177632366528861e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.584401870125261e-09], ["'stopcock' (unit, GLO, None)", 1.2780670244972447e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 1.6538299590054696e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.8149790183166405e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.9692675738415435e-09], ["'full box of vials' (unit, NO, None)", 9.738377628323393e-07], ["'production of gloves' (unit, MY, None)", 2.306195981902861e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 5.108074809947278e-07], ["'production of IV sets' (unit, RER, None)", 6.793595843279798e-07], ["'medical connector' (unit, GLO, None)", 3.451754911019241e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.389601246750174e-09], ["'stopcock' (unit, GLO, None)", 8.520446829981631e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.1025533060036464e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.209939672961587e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.478555455423644e-07], ["'packed box of penicillin' (unit, SE, None)", 4.8663399389175254e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.4480513717199165e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2957110910847289e-05], ["'packed box of penicillin' (unit, SE, None)", 0.000983098977559096], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.896102743439833e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.774266546508371e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0005898593865354576], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9376616460639e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.579815020608363e-06], ["'full box of vials' (unit, NO, None)", 0.0006547867251403115], ["'production of gloves' (unit, MY, None)", 0.0002007348357605953], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00016888395999814493], ["'production of IV sets' (unit, RER, None)", 0.000195698340595669], ["'medical connector' (unit, GLO, None)", 0.0003387897205554762], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3627909641683394e-06], ["'stopcock' (unit, GLO, None)", 3.710223395009618e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.239919795326116e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.8791932471464106e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.295778024730036e-05], ["'full box of vials' (unit, NO, None)", 0.007857440701683737], ["'production of gloves' (unit, MY, None)", 0.0024088180291271435], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.002026607519977739], ["'production of IV sets' (unit, RER, None)", 0.002348380087148028], ["'medical connector' (unit, GLO, None)", 0.004065476646665714], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.035349157002007e-05], ["'stopcock' (unit, GLO, None)", 0.00044522680740115414], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005087903754391339], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.2550534007351585e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.8638520164866905e-05], ["'full box of vials' (unit, NO, None)", 0.005238293801122492], ["'production of gloves' (unit, MY, None)", 0.0016058786860847624], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013510716799851595], ["'production of IV sets' (unit, RER, None)", 0.001565586724765352], ["'medical connector' (unit, GLO, None)", 0.0027103177644438098], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.6902327713346715e-05], ["'stopcock' (unit, GLO, None)", 0.0002968178716007694], ["'market for water, ultrapure' (kilogram, RER, None)", 3.391935836260893e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.5033472312403565e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.739297007233924e-07], ["'packed box of penicillin' (unit, SE, None)", 8.662595961829483e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3233684560608286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1478594014467849e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0017500193862281781], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6467369121216576e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.887156408680709e-06], ["'packed box of penicillin' (unit, SE, None)", 0.001050011631736907], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5880421472729947e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.860290956456082e-06], ["'full box of vials' (unit, NO, None)", 0.001084992330197981], ["'production of gloves' (unit, MY, None)", 0.0003817409167320839], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0002618329209518608], ["'production of IV sets' (unit, RER, None)", 0.000368327706038954], ["'medical connector' (unit, GLO, None)", 0.0005243994410548646], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.161878737031694e-06], ["'stopcock' (unit, GLO, None)", 5.67537221355579e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.706501404679293e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0158549346000428e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.832349147747298e-05], ["'full box of vials' (unit, NO, None)", 0.013019907962375772], ["'production of gloves' (unit, MY, None)", 0.004580891000785007], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.00314199505142233], ["'production of IV sets' (unit, RER, None)", 0.0044199324724674485], ["'medical connector' (unit, GLO, None)", 0.006292793292658375], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.794254484438032e-05], ["'stopcock' (unit, GLO, None)", 0.0006810446656266948], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0056478016856151515], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012190375462460029]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.8882327651648656e-05], ["'full box of vials' (unit, NO, None)", 0.008679938641583848], ["'production of gloves' (unit, MY, None)", 0.003053927333856671], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0020946633676148865], ["'production of IV sets' (unit, RER, None)", 0.002946621648311632], ["'medical connector' (unit, GLO, None)", 0.004195195528438916], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.529502989625355e-05], ["'stopcock' (unit, GLO, None)", 0.0004540297770844632], ["'market for water, ultrapure' (kilogram, RER, None)", 3.7652011237434344e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -8.126799655074765e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.127843018417409e-07], ["'packed box of penicillin' (unit, SE, None)", 9.185732211490082e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3493471882591097e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2255686036834819e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0018557034770687033], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6986943765182197e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.35341162210089e-06], ["'packed box of penicillin' (unit, SE, None)", 0.001113422086241222], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.6192166259109317e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.207479527170968e-06], ["'full box of vials' (unit, NO, None)", 0.0011230600938844332], ["'production of gloves' (unit, MY, None)", 0.0004114893082109503], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0002905081706244783], ["'production of IV sets' (unit, RER, None)", 0.0003925118786428566], ["'medical connector' (unit, GLO, None)", 0.0005393667919867776], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3198456071630038e-06], ["'stopcock' (unit, GLO, None)", 5.978609597473088e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.981966387175466e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0357969418145958e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.248975432605162e-05], ["'full box of vials' (unit, NO, None)", 0.013476721126613196], ["'production of gloves' (unit, MY, None)", 0.004937871698531404], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0034860980474937394], ["'production of IV sets' (unit, RER, None)", 0.004710142543714279], ["'medical connector' (unit, GLO, None)", 0.006472401503841331], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.983814728595604e-05], ["'stopcock' (unit, GLO, None)", 0.0007174331516967706], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005978359664610559], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012429681831057035]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.1659836217367745e-05], ["'full box of vials' (unit, NO, None)", 0.008984480751075465], ["'production of gloves' (unit, MY, None)", 0.0032919144656876026], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0023240653649958263], ["'production of IV sets' (unit, RER, None)", 0.003140095029142853], ["'medical connector' (unit, GLO, None)", 0.004314934335894221], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.655876485730403e-05], ["'stopcock' (unit, GLO, None)", 0.00047828876779784706], ["'market for water, ultrapure' (kilogram, RER, None)", 3.985573109740373e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -8.286334931060341e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.630515975037257e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0008592406151231215], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5132899739025042e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -9.261031950074514e-05], ["'packed box of penicillin' (unit, SE, None)", 0.017358396265113565], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.026579947805009e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.556619170044707e-05], ["'packed box of penicillin' (unit, SE, None)", 0.01041503775906814], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.8159479686830052e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.943871035125767e-05], ["'full box of vials' (unit, NO, None)", 0.0027395060157500233], ["'production of gloves' (unit, MY, None)", 0.001442428841327885], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.004554004687354556], ["'production of IV sets' (unit, RER, None)", 0.001821106834595419], ["'medical connector' (unit, GLO, None)", 0.001085099704741334], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.474644814760171e-05], ["'stopcock' (unit, GLO, None)", 0.0003471087098672529], ["'market for water, ultrapure' (kilogram, RER, None)", 9.127238826037093e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1616440458657628e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.000353264524215092], ["'full box of vials' (unit, NO, None)", 0.03287407218900028], ["'production of gloves' (unit, MY, None)", 0.01730914609593462], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05464805624825466], ["'production of IV sets' (unit, RER, None)", 0.02185328201514503], ["'medical connector' (unit, GLO, None)", 0.01302119645689601], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0011369573777712204], ["'stopcock' (unit, GLO, None)", 0.004165304518407035], ["'market for water, ultrapure' (kilogram, RER, None)", 0.1095268659124451], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00013939861480724247]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.00023550968281006135], ["'full box of vials' (unit, NO, None)", 0.021916048126000186], ["'production of gloves' (unit, MY, None)", 0.01153943073062308], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.036432037498836445], ["'production of IV sets' (unit, RER, None)", 0.014568854676763353], ["'medical connector' (unit, GLO, None)", 0.008680797637930672], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0007579715851808137], ["'stopcock' (unit, GLO, None)", 0.0027768696789380234], ["'market for water, ultrapure' (kilogram, RER, None)", 7.301791060829674e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -9.293106830236918e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.9627307235888136e-12], ["'packed box of penicillin' (unit, SE, None)", 2.3707236575003747e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.014704187889662e-13]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.925461447177627e-11], ["'packed box of penicillin' (unit, SE, None)", 4.789340722222979e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2029408375779325e-11]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.555276868306576e-11], ["'packed box of penicillin' (unit, SE, None)", 2.873604433333788e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.217645025467595e-12]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.842795370733105e-11], ["'full box of vials' (unit, NO, None)", 1.964003169777229e-09], ["'production of gloves' (unit, MY, None)", 5.981825498148378e-10], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.1826382047036027e-10], ["'production of IV sets' (unit, RER, None)", 7.410506998827498e-10], ["'medical connector' (unit, GLO, None)", 7.607061706780574e-10], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.032228064435979e-12], ["'stopcock' (unit, GLO, None)", 1.238456148816148e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 4.219606353886265e-12], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.617056498093231e-12]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.211354444879726e-10], ["'full box of vials' (unit, NO, None)", 2.356803803732675e-08], ["'production of gloves' (unit, MY, None)", 7.178190597778053e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.619165845644323e-09], ["'production of IV sets' (unit, RER, None)", 8.892608398592997e-09], ["'medical connector' (unit, GLO, None)", 9.128474048136688e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0838673677323175e-10], ["'stopcock' (unit, GLO, None)", 1.4861473785793775e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 5.063527624663518e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.540520632043498e-11]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.474236296586484e-10], ["'full box of vials' (unit, NO, None)", 1.5712025358217834e-08], ["'production of gloves' (unit, MY, None)", 4.785460398518702e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.7461105637628821e-09], ["'production of IV sets' (unit, RER, None)", 5.928405599061998e-09], ["'medical connector' (unit, GLO, None)", 6.085649365424459e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.225782451548783e-11], ["'stopcock' (unit, GLO, None)", 9.907649190529183e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 3.375685083109012e-11], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.693627099516695e-11]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4910678033854542e-09], ["'packed box of penicillin' (unit, SE, None)", 8.051013345759959e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.463654343413352e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.982135606770909e-08], ["'packed box of penicillin' (unit, SE, None)", 1.6264673425777691e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0927308686826704e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.789281364062545e-08], ["'packed box of penicillin' (unit, SE, None)", 9.758804055466615e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.556385212096023e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.824979565245302e-09], ["'full box of vials' (unit, NO, None)", 9.63423676309643e-07], ["'production of gloves' (unit, MY, None)", 2.642459026638748e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -4.540667275863605e-07], ["'production of IV sets' (unit, RER, None)", 3.498555566593687e-07], ["'medical connector' (unit, GLO, None)", 5.085436316527514e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.412414505289084e-09], ["'stopcock' (unit, GLO, None)", 6.109780343503858e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 6.388066626690991e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.194055102557387e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.7899754782943625e-08], ["'full box of vials' (unit, NO, None)", 1.1561084115715715e-05], ["'production of gloves' (unit, MY, None)", 3.1709508319664975e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.4488007310363255e-06], ["'production of IV sets' (unit, RER, None)", 4.198266679912424e-06], ["'medical connector' (unit, GLO, None)", 6.102523579833017e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.4948974063469e-08], ["'stopcock' (unit, GLO, None)", 7.33173641220463e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 7.665679952029189e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.032914116871456e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.859983652196242e-08], ["'full box of vials' (unit, NO, None)", 7.707389410477143e-06], ["'production of gloves' (unit, MY, None)", 2.1139672213109983e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -3.632533820690884e-06], ["'production of IV sets' (unit, RER, None)", 2.7988444532749494e-06], ["'medical connector' (unit, GLO, None)", 4.068349053222011e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.3299316042312675e-08], ["'stopcock' (unit, GLO, None)", 4.887824274803086e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 5.110453301352793e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.3552276412623236e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.473305811238597e-05], ["'packed box of penicillin' (unit, SE, None)", 0.004132330928585004], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.394075634319281e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004946611622477195], ["'packed box of penicillin' (unit, SE, None)", 0.08348143290070714], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.788151268638564e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00029679669734863163], ["'packed box of penicillin' (unit, SE, None)", 0.05008885974042429], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.272890761183138e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003328839579376022], ["'full box of vials' (unit, NO, None)", 0.030578062896309863], ["'production of gloves' (unit, MY, None)", 0.02151824085544223], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.003788454089212211], ["'production of IV sets' (unit, RER, None)", 0.03610801708076116], ["'medical connector' (unit, GLO, None)", 0.01215879520133186], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00011911576315568653], ["'stopcock' (unit, GLO, None)", 0.005244974622928276], ["'market for water, ultrapure' (kilogram, RER, None)", 1.9139996797916412e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.37301633243998e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.003994607495251226], ["'full box of vials' (unit, NO, None)", 0.3669367547557183], ["'production of gloves' (unit, MY, None)", 0.25821889026530676], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.045461449070546535], ["'production of IV sets' (unit, RER, None)", 0.4332962049691339], ["'medical connector' (unit, GLO, None)", 0.1459055424159823], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014293891578682383], ["'stopcock' (unit, GLO, None)", 0.0629396954751393], ["'market for water, ultrapure' (kilogram, RER, None)", 0.22967996157499693], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00040476581973431224]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0026630716635008176], ["'full box of vials' (unit, NO, None)", 0.2446245031704789], ["'production of gloves' (unit, MY, None)", 0.17214592684353783], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.03030763271369769], ["'production of IV sets' (unit, RER, None)", 0.2888641366460893], ["'medical connector' (unit, GLO, None)", 0.09727036161065487], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0009529261052454922], ["'stopcock' (unit, GLO, None)", 0.04195979698342621], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0001531199743833313], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0002698399843657522]]</t>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.384108381561186e-05], ["'full box of vials' (unit, NO, None)", 0.01051872585570729], ["'production of gloves' (unit, MY, None)", 0.003197163361257031], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008783548693593617], ["'production of IV sets' (unit, RER, None)", 0.0028797198012275845], ["'medical connector' (unit, GLO, None)", 0.006008371776376498], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.234705824232427e-05], ["'stopcock' (unit, GLO, None)", 0.0005270275711529875], ["'market for water, ultrapure' (kilogram, RER, None)", 5.660466935585723e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.70859243400833e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.3330893592905991e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0011506751230785839]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1109077994088326e-06], ["'packed box of penicillin' (unit, SE, None)", 9.493069765398317e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.423827028340273e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.2218155988176657e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0019177918717976396], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2847654056680548e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.480135476951483e-06], ["'full box of vials' (unit, NO, None)", 0.0013148407319634112], ["'production of gloves' (unit, MY, None)", 0.0003996454201571289], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0001097943586699202], ["'production of IV sets' (unit, RER, None)", 0.00035996497515344806], ["'medical connector' (unit, GLO, None)", 0.0007510464720470623], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.293382280290534e-06], ["'stopcock' (unit, GLO, None)", 6.587844639412344e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 7.075583669482153e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.931110724205325e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.576162572341779e-05], ["'full box of vials' (unit, NO, None)", 0.01577808878356093], ["'production of gloves' (unit, MY, None)", 0.004795745041885547], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013175323040390424], ["'production of IV sets' (unit, RER, None)", 0.004319579701841377], ["'medical connector' (unit, GLO, None)", 0.009012557664564748], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.352058736348641e-05], ["'stopcock' (unit, GLO, None)", 0.0007905413567294813], ["'market for water, ultrapure' (kilogram, RER, None)", 0.008490700403378583], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.9173892971926266e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015856387794748118], ["'full box of vials' (unit, NO, None)", 2.8097258176914455], ["'production of gloves' (unit, MY, None)", 0.8216404763739555], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.6510214191157633], ["'production of IV sets' (unit, RER, None)", 1.5983067254884042], ["'medical connector' (unit, GLO, None)", 1.2783450989218443], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011667136120025304], ["'stopcock' (unit, GLO, None)", 0.2581221845583294], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0018141461110547372], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0008801999655088112], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.009018745119940772], ["'packed box of penicillin' (unit, SE, None)", 0.5104207102503721]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0007515620933283977], ["'packed box of penicillin' (unit, SE, None)", 0.0421097085956557], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.334999712573425e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.015031241866567957], ["'packed box of penicillin' (unit, SE, None)", 0.8507011837506201], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.001466999942514685]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0019820484743435147], ["'full box of vials' (unit, NO, None)", 0.3512157272114307], ["'production of gloves' (unit, MY, None)", 0.10270505954674444], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.2063776773894704], ["'production of IV sets' (unit, RER, None)", 0.19978834068605053], ["'medical connector' (unit, GLO, None)", 0.15979313736523054], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001458392015003163], ["'stopcock' (unit, GLO, None)", 0.03226527306979118], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00022676826388184215], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0005630552563937727]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023784581692122178], ["'full box of vials' (unit, NO, None)", 4.214588726537168], ["'production of gloves' (unit, MY, None)", 1.2324607145609332], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -2.476532128673645], ["'production of IV sets' (unit, RER, None)", 2.3974600882326063], ["'medical connector' (unit, GLO, None)", 1.9175176483827665], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.017500704180037956], ["'stopcock' (unit, GLO, None)", 0.3871832768374941], ["'market for water, ultrapure' (kilogram, RER, None)", 2.7212191665821055], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.006756727508789616]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.00046627536311458635], ["'full box of vials' (unit, NO, None)", 0.11544258320473631], ["'production of gloves' (unit, MY, None)", 0.034295985537088784], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05621527828276029], ["'production of IV sets' (unit, RER, None)", 0.03336656382784251], ["'medical connector' (unit, GLO, None)", 0.0704374129533852], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014360599213977935], ["'stopcock' (unit, GLO, None)", 0.0056700915640517], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00014205548806691073], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0003577307868073302], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00018706538144172967], ["'packed box of penicillin' (unit, SE, None)", 0.012285311087763798]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.5588781786810806e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010135381647405134], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9810898900610848e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00031177563573621614], ["'packed box of penicillin' (unit, SE, None)", 0.02047551847960633], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.000596217978012217]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.8284420389323294e-05], ["'full box of vials' (unit, NO, None)", 0.014430322900592039], ["'production of gloves' (unit, MY, None)", 0.004286998192136098], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007026909785345036], ["'production of IV sets' (unit, RER, None)", 0.004170820478480314], ["'medical connector' (unit, GLO, None)", 0.00880467661917315], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0001795074901747242], ["'stopcock' (unit, GLO, None)", 0.0007087614455064625], ["'market for water, ultrapure' (kilogram, RER, None)", 1.775693600836384e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00022883686409748107]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006994130446718796], ["'full box of vials' (unit, NO, None)", 0.17316387480710446], ["'production of gloves' (unit, MY, None)", 0.05144397830563317], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.08432291742414043], ["'production of IV sets' (unit, RER, None)", 0.05004984574176377], ["'medical connector' (unit, GLO, None)", 0.1056561194300778], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00215408988209669], ["'stopcock' (unit, GLO, None)", 0.00850513734607755], ["'market for water, ultrapure' (kilogram, RER, None)", 0.2130832321003661], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0027460685556432753]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006299059569205519], ["'full box of vials' (unit, NO, None)", 0.31774419137321747], ["'production of gloves' (unit, MY, None)", 0.04673882086468028], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.07445385186885806], ["'production of IV sets' (unit, RER, None)", 0.04404912740200799], ["'medical connector' (unit, GLO, None)", 0.2540297889227065], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0018465954933511125], ["'stopcock' (unit, GLO, None)", 0.007373149965493437], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00018064524359823306], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00044106921216393403], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0002577045851748312], ["'packed box of penicillin' (unit, SE, None)", 0.015384705668429153]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.1475382097902604e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0012692382176454052], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.675576768032783e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004295076419580521], ["'packed box of penicillin' (unit, SE, None)", 0.025641176114048585], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007351153536065567]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.873824461506898e-05], ["'full box of vials' (unit, NO, None)", 0.03971802392165218], ["'production of gloves' (unit, MY, None)", 0.005842352608085035], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.009306731483607257], ["'production of IV sets' (unit, RER, None)", 0.005506140925250999], ["'medical connector' (unit, GLO, None)", 0.03175372361533831], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00023082443666888906], ["'stopcock' (unit, GLO, None)", 0.0009216437456866796], ["'market for water, ultrapure' (kilogram, RER, None)", 2.2580655449779132e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0002821476347125319]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009448589353808277], ["'full box of vials' (unit, NO, None)", 0.4766162870598261], ["'production of gloves' (unit, MY, None)", 0.07010823129702042], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.11168077780328707], ["'production of IV sets' (unit, RER, None)", 0.06607369110301198], ["'medical connector' (unit, GLO, None)", 0.3810446833840597], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0027698932400266685], ["'stopcock' (unit, GLO, None)", 0.011059724948240155], ["'market for water, ultrapure' (kilogram, RER, None)", 0.27096786539734957], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.003385803903531719]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.06007666505239478], ["'full box of vials' (unit, NO, None)", 13.990500284144094], ["'production of gloves' (unit, MY, None)", 3.72426622676011], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.7753700980847825], ["'production of IV sets' (unit, RER, None)", 4.766961356118672], ["'medical connector' (unit, GLO, None)", 7.762285875339966], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.08915769884321618], ["'stopcock' (unit, GLO, None)", 0.8829648863594669], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007371528155478812], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0018971225938269568], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.013287160535906119], ["'packed box of penicillin' (unit, SE, None)", 1.5570365275346656]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0011072633779921767], ["'packed box of penicillin' (unit, SE, None)", 0.12845551352160992], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00015809354948557972]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.022145267559843536], ["'packed box of penicillin' (unit, SE, None)", 2.5950608792244423], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0031618709897115946]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007509583131549347], ["'full box of vials' (unit, NO, None)", 1.7488125355180117], ["'production of gloves' (unit, MY, None)", 0.46553327834501373], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.09692126226059782], ["'production of IV sets' (unit, RER, None)", 0.595870169514834], ["'medical connector' (unit, GLO, None)", 0.9702857344174958], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011144712355402023], ["'stopcock' (unit, GLO, None)", 0.11037061079493336], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0009214410194348515], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0012135706547774948]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.09011499757859216], ["'full box of vials' (unit, NO, None)", 20.98575042621614], ["'production of gloves' (unit, MY, None)", 5.586399340140165], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.1630551471271737], ["'production of IV sets' (unit, RER, None)", 7.150442034178008], ["'medical connector' (unit, GLO, None)", 11.64342881300995], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.13373654826482428], ["'stopcock' (unit, GLO, None)", 1.3244473295392003], ["'market for water, ultrapure' (kilogram, RER, None)", 11.057292233218217], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.014562986729779182]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0074566583971249715], ["'full box of vials' (unit, NO, None)", 0.7964145053865685], ["'production of gloves' (unit, MY, None)", 0.4419820642238384], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.005258948095400521], ["'production of IV sets' (unit, RER, None)", 0.7760658024320177], ["'medical connector' (unit, GLO, None)", 0.35008061936226176], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0034386307399323327], ["'stopcock' (unit, GLO, None)", 0.11605773015654564], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0005250682251057695], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00017734723045881832], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0009026596059621964], ["'packed box of penicillin' (unit, SE, None)", 0.1494773576457679]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.522163383018304e-05], ["'packed box of penicillin' (unit, SE, None)", 0.012331882005775851], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.477893587156819e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0015044326766036611], ["'packed box of penicillin' (unit, SE, None)", 0.24912892940961312], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00029557871743136384]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009320822996406214], ["'full box of vials' (unit, NO, None)", 0.09955181317332107], ["'production of gloves' (unit, MY, None)", 0.0552477580279798], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0006573685119250651], ["'production of IV sets' (unit, RER, None)", 0.09700822530400222], ["'medical connector' (unit, GLO, None)", 0.04376007742028272], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0004298288424915416], ["'stopcock' (unit, GLO, None)", 0.014507216269568204], ["'market for water, ultrapure' (kilogram, RER, None)", 6.563352813822119e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00011344727815229144]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.011184987595687458], ["'full box of vials' (unit, NO, None)", 1.1946217580798526], ["'production of gloves' (unit, MY, None)", 0.6629730963357576], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007888422143100782], ["'production of IV sets' (unit, RER, None)", 1.1640987036480266], ["'medical connector' (unit, GLO, None)", 0.5251209290433927], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.005157946109898498], ["'stopcock' (unit, GLO, None)", 0.17408659523481845], ["'market for water, ultrapure' (kilogram, RER, None)", 0.7876023376586542], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0013613803199322599]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.107320874613747e-06], ["'full box of vials' (unit, NO, None)", 0.001018459149559586], ["'production of gloves' (unit, MY, None)", 0.00024017999320846673], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0011863783778526661], ["'production of IV sets' (unit, RER, None)", 0.00023119707765011593], ["'medical connector' (unit, GLO, None)", 0.0003967319734916721], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 8.296458544382813e-06], ["'stopcock' (unit, GLO, None)", 5.713564588024439e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 3.672368678650032e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.816314212085183e-07], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.014937502908344e-06], ["'packed box of penicillin' (unit, SE, None)", 0.00017149813126947285]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.3457812524236206e-07], ["'packed box of penicillin' (unit, SE, None)", 1.414859582973151e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.013595176737652e-08]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.691562504847241e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0002858302187824547], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.027190353475304e-07]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.884151093267184e-07], ["'full box of vials' (unit, NO, None)", 0.00012730739369494826], ["'production of gloves' (unit, MY, None)", 3.002249915105834e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00014829729723158327], ["'production of IV sets' (unit, RER, None)", 2.889963470626449e-05], ["'medical connector' (unit, GLO, None)", 4.959149668645901e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0370573180478516e-06], ["'stopcock' (unit, GLO, None)", 7.141955735030549e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 4.59046084831254e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.0809488068895486e-07]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.0660981311920621e-05], ["'full box of vials' (unit, NO, None)", 0.0015276887243393788], ["'production of gloves' (unit, MY, None)", 0.0003602699898127001], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001779567566778999], ["'production of IV sets' (unit, RER, None)", 0.00034679561647517386], ["'medical connector' (unit, GLO, None)", 0.0005950979602375082], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.244468781657422e-05], ["'stopcock' (unit, GLO, None)", 8.570346882036658e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.05508553017975048], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.697173824468251e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.238352869319857e-06], ["'full box of vials' (unit, NO, None)", 0.00014337276377373456], ["'production of gloves' (unit, MY, None)", 4.9676751494268754e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.616277805151544e-05], ["'production of IV sets' (unit, RER, None)", 4.2633085920499776e-05], ["'medical connector' (unit, GLO, None)", 3.1906308376073784e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.049069281675984e-06], ["'stopcock' (unit, GLO, None)", 6.9625751595357605e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 5.06175177881337e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.513296916577534e-07], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.7795395939442543e-07], ["'packed box of penicillin' (unit, SE, None)", 7.339694962897848e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.3162829949535454e-08], ["'packed box of penicillin' (unit, SE, None)", 6.0552483443907245e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.761080763814611e-08]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.632565989907091e-07], ["'packed box of penicillin' (unit, SE, None)", 0.0001223282493816308], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.522161527629224e-07]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.7979410866498213e-07], ["'full box of vials' (unit, NO, None)", 1.792159547171682e-05], ["'production of gloves' (unit, MY, None)", 6.209593936783594e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -7.02034725643943e-06], ["'production of IV sets' (unit, RER, None)", 5.329135740062472e-06], ["'medical connector' (unit, GLO, None)", 3.988288547009223e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.31133660209498e-07], ["'stopcock' (unit, GLO, None)", 8.703218949419701e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 6.327189723516712e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8871116247724375e-07]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3575293039797856e-06], ["'full box of vials' (unit, NO, None)", 0.0002150591456606018], ["'production of gloves' (unit, MY, None)", 7.451512724140314e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.424416707727316e-05], ["'production of IV sets' (unit, RER, None)", 6.394962888074966e-05], ["'medical connector' (unit, GLO, None)", 4.7859462564110676e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.573603922513976e-06], ["'stopcock' (unit, GLO, None)", 1.044386273930364e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007592627668220055], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.464566987791993e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005348013664526453], ["'full box of vials' (unit, NO, None)", 0.29715312322075027], ["'production of gloves' (unit, MY, None)", 0.027660894319082828], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.2893785451596567], ["'production of IV sets' (unit, RER, None)", 0.03754814813233365], ["'medical connector' (unit, GLO, None)", 0.2031090767578283], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00256922258611881], ["'stopcock' (unit, GLO, None)", 0.00668420231992173], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00020081363955863879], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0005672565378511718], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.000976898589847641], ["'packed box of penicillin' (unit, SE, None)", 0.012380739626346003]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -8.140821582063674e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010214110191735452], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.727137815426432e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.001628164316412735], ["'packed box of penicillin' (unit, SE, None)", 0.02063456604391], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0009454275630852864]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.685017080658066e-05], ["'full box of vials' (unit, NO, None)", 0.037144140402593784], ["'production of gloves' (unit, MY, None)", 0.0034576117898853535], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03617231814495709], ["'production of IV sets' (unit, RER, None)", 0.004693518516541706], ["'medical connector' (unit, GLO, None)", 0.025388634594728537], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00032115282326485126], ["'stopcock' (unit, GLO, None)", 0.0008355252899902162], ["'market for water, ultrapure' (kilogram, RER, None)", 2.5101704944829848e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0003628684252176764]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008022020496789679], ["'full box of vials' (unit, NO, None)", 0.4457296848311254], ["'production of gloves' (unit, MY, None)", 0.04149134147862424], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.4340678177394851], ["'production of IV sets' (unit, RER, None)", 0.05632222219850047], ["'medical connector' (unit, GLO, None)", 0.30466361513674245], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003853833879178215], ["'stopcock' (unit, GLO, None)", 0.010026303479882596], ["'market for water, ultrapure' (kilogram, RER, None)", 0.30122045933795816], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.004354462626710252]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015531966499988867], ["'full box of vials' (unit, NO, None)", 3.352691132610959], ["'production of gloves' (unit, MY, None)", 0.9721513688735409], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.929771172516528], ["'production of IV sets' (unit, RER, None)", 0.7511032970750456], ["'medical connector' (unit, GLO, None)", 2.111432387259558], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.02321906846553605], ["'stopcock' (unit, GLO, None)", 0.14842954509479103], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0020113294191369977], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00856315646967041], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.005539861640102077], ["'packed box of penicillin' (unit, SE, None)", 0.2888116448580612]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004616551366751732], ["'packed box of penicillin' (unit, SE, None)", 0.02382696070079005], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007135963724725342]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.009233102733503465], ["'packed box of penicillin' (unit, SE, None)", 0.481352741430102], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.014271927449450683]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0019414958124986084], ["'full box of vials' (unit, NO, None)", 0.4190863915763699], ["'production of gloves' (unit, MY, None)", 0.12151892110919262], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.116221396564566], ["'production of IV sets' (unit, RER, None)", 0.0938879121343807], ["'medical connector' (unit, GLO, None)", 0.26392904840744474], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002902383558192006], ["'stopcock' (unit, GLO, None)", 0.01855369313684888], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0002514161773921247], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.005477766928544603]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023297949749983303], ["'full box of vials' (unit, NO, None)", 5.029036698916438], ["'production of gloves' (unit, MY, None)", 1.4582270533103114], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.394656758774792], ["'production of IV sets' (unit, RER, None)", 1.1266549456125685], ["'medical connector' (unit, GLO, None)", 3.1671485808893367], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.034828602698304074], ["'stopcock' (unit, GLO, None)", 0.22264431764218656], ["'market for water, ultrapure' (kilogram, RER, None)", 3.0169941287054964], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.06573382997947033]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005551436473190816], ["'full box of vials' (unit, NO, None)", -0.013046401515440707], ["'production of gloves' (unit, MY, None)", 0.02841655367302413], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.03242506477312759], ["'production of IV sets' (unit, RER, None)", 0.06402832946756712], ["'medical connector' (unit, GLO, None)", 0.01512518363707054], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00358528310684167], ["'stopcock' (unit, GLO, None)", 0.005942075513126332], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00043563398806303996], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1072219893237218e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.00010005208006631807], ["'packed box of penicillin' (unit, SE, None)", 0.01168938715387065]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 8.337673338859841e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0009643744401943286], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -9.226849911031014e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.00016675346677719682], ["'packed box of penicillin' (unit, SE, None)", 0.019482311923117748], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.845369982206203e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.93929559148852e-05], ["'full box of vials' (unit, NO, None)", -0.0016308001894300883], ["'production of gloves' (unit, MY, None)", 0.0035520692091280163], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.004053133096640949], ["'production of IV sets' (unit, RER, None)", 0.00800354118344589], ["'medical connector' (unit, GLO, None)", 0.0018906479546338176], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00044816038835520874], ["'stopcock' (unit, GLO, None)", 0.0007427594391407915], ["'market for water, ultrapure' (kilogram, RER, None)", 5.4454248507879995e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.082790110348516e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008327154709786224], ["'full box of vials' (unit, NO, None)", -0.019569602273161058], ["'production of gloves' (unit, MY, None)", 0.04262483050953619], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.04863759715969138], ["'production of IV sets' (unit, RER, None)", 0.09604249420135068], ["'medical connector' (unit, GLO, None)", 0.02268777545560581], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0053779246602625045], ["'stopcock' (unit, GLO, None)", 0.008913113269689498], ["'market for water, ultrapure' (kilogram, RER, None)", 0.6534509820945599], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.499429182862726e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.009304461740147074], ["'full box of vials' (unit, NO, None)", 0.39446937847231656], ["'production of gloves' (unit, MY, None)", 0.12963668088742136], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.8013352826828545], ["'production of IV sets' (unit, RER, None)", 0.022437698664482267], ["'medical connector' (unit, GLO, None)", 0.027594897844245122], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002189542180924148], ["'stopcock' (unit, GLO, None)", 0.004659233375942381], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00024339648305092326], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.406784215708508e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0003974633267935467], ["'packed box of penicillin' (unit, SE, None)", 0.10300381356298044]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.312194389946222e-05], ["'packed box of penicillin' (unit, SE, None)", 0.008497814618945885], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.672320179757089e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0006624388779892446], ["'packed box of penicillin' (unit, SE, None)", 0.17167302260496736], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.344640359514179e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0011630577175183842], ["'full box of vials' (unit, NO, None)", 0.04930867230903957], ["'production of gloves' (unit, MY, None)", 0.01620458511092767], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.10016691033535681], ["'production of IV sets' (unit, RER, None)", 0.0028047123330602833], ["'medical connector' (unit, GLO, None)", 0.0034493622305306402], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0002736927726155185], ["'stopcock' (unit, GLO, None)", 0.0005824041719927976], ["'market for water, ultrapure' (kilogram, RER, None)", 3.0424560381365408e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8189764981568224e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.01395669261022061], ["'full box of vials' (unit, NO, None)", 0.5917040677084748], ["'production of gloves' (unit, MY, None)", 0.19445502133113204], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.2020029240242815], ["'production of IV sets' (unit, RER, None)", 0.0336565479967234], ["'medical connector' (unit, GLO, None)", 0.04139234676636768], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003284313271386222], ["'stopcock' (unit, GLO, None)", 0.006988850063913572], ["'market for water, ultrapure' (kilogram, RER, None)", 0.36509472457638487], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0003382804056163018]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.2571410316521e-05], ["'full box of vials' (unit, NO, None)", 0.04678287219873159], ["'production of gloves' (unit, MY, None)", 0.0029250210763809366], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008667861723458495], ["'production of IV sets' (unit, RER, None)", 0.0026626133652718617], ["'medical connector' (unit, GLO, None)", 0.03789984830182015], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.8059558961286447e-05], ["'stopcock' (unit, GLO, None)", 0.00041780434300849793], ["'market for water, ultrapure' (kilogram, RER, None)", 1.3921419900887148e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.188066689054835e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.091528765050557e-06], ["'packed box of penicillin' (unit, SE, None)", 0.001239672369213219]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.909607304208798e-07], ["'packed box of penicillin' (unit, SE, None)", 0.00010227297046009057], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.990055574212362e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1819214608417596e-05], ["'packed box of penicillin' (unit, SE, None)", 0.002066120615355365], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.1980111148424724e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.821426289565125e-06], ["'full box of vials' (unit, NO, None)", 0.005847859024841449], ["'production of gloves' (unit, MY, None)", 0.0003656276345476171], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00010834827154323119], ["'production of IV sets' (unit, RER, None)", 0.0003328266706589827], ["'medical connector' (unit, GLO, None)", 0.004737481037727519], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.507444870160806e-06], ["'stopcock' (unit, GLO, None)", 5.222554287606224e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 1.7401774876108936e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.598135527353406e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3857115474781495e-05], ["'full box of vials' (unit, NO, None)", 0.07017430829809737], ["'production of gloves' (unit, MY, None)", 0.004387531614571405], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013001792585187744], ["'production of IV sets' (unit, RER, None)", 0.003993920047907792], ["'medical connector' (unit, GLO, None)", 0.05684977245273023], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.208933844192966e-05], ["'stopcock' (unit, GLO, None)", 0.000626706514512747], ["'market for water, ultrapure' (kilogram, RER, None)", 0.02088212985133072], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.517815250637489e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.969267530237154e-09], ["'full box of vials' (unit, NO, None)", 9.73837768141697e-07], ["'production of gloves' (unit, MY, None)", 2.3061957368089783e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 5.108074850208962e-07], ["'production of IV sets' (unit, RER, None)", 6.793595834610356e-07], ["'medical connector' (unit, GLO, None)", 3.451754912923749e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.389601062074863e-09], ["'stopcock' (unit, GLO, None)", 8.520446831553617e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.1025532827225806e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.2724808110423385e-09], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.7149250503111254e-09], ["'packed box of penicillin' (unit, SE, None)", 5.264142887284906e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4291042085926045e-10], ["'packed box of penicillin' (unit, SE, None)", 4.342917882010048e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.227067342535281e-10]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.8582084171852096e-09], ["'packed box of penicillin' (unit, SE, None)", 8.773571478808176e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0454134685070563e-08]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.461584412796443e-10], ["'full box of vials' (unit, NO, None)", 1.2172972101771213e-07], ["'production of gloves' (unit, MY, None)", 2.882744671011223e-08], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 6.385093562761202e-08], ["'production of IV sets' (unit, RER, None)", 8.491994793262945e-08], ["'medical connector' (unit, GLO, None)", 4.314693641154686e-08], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.987001327593579e-10], ["'stopcock' (unit, GLO, None)", 1.0650558539442022e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.3781916034032258e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.012444250943462e-09]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.953901295355732e-09], ["'full box of vials' (unit, NO, None)", 1.4607566522125453e-06], ["'production of gloves' (unit, MY, None)", 3.4592936052134675e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 7.662112275313441e-07], ["'production of IV sets' (unit, RER, None)", 1.0190393751915534e-06], ["'medical connector' (unit, GLO, None)", 5.177632369385624e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.584401593112294e-09], ["'stopcock' (unit, GLO, None)", 1.2780670247330425e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 1.6538299240838707e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.8149790167085074e-08]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.863851991057277e-05], ["'full box of vials' (unit, NO, None)", 0.005238293851688471], ["'production of gloves' (unit, MY, None)", 0.001605878551310761], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001351071661493251], ["'production of IV sets' (unit, RER, None)", 0.001565586710311578], ["'medical connector' (unit, GLO, None)", 0.0027103177703767774], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.6902326387916478e-05], ["'stopcock' (unit, GLO, None)", 0.0002968178712300465], ["'market for water, ultrapure' (kilogram, RER, None)", 3.3919356573920294e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9376616343082842e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.77426657435945e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0005898594032448282]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.478555478632876e-07], ["'packed box of penicillin' (unit, SE, None)", 4.866340076769833e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.44805136192357e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2957110957265753e-05], ["'packed box of penicillin' (unit, SE, None)", 0.000983099005408047], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.896102723847141e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.5798149888215963e-06], ["'full box of vials' (unit, NO, None)", 0.0006547867314610589], ["'production of gloves' (unit, MY, None)", 0.00020073481891384512], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00016888395768665637], ["'production of IV sets' (unit, RER, None)", 0.00019569833878894726], ["'medical connector' (unit, GLO, None)", 0.0003387897212970972], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3627907984895597e-06], ["'stopcock' (unit, GLO, None)", 3.710223390375581e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.239919571740037e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.879193239626459e-06]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.2957779865859156e-05], ["'full box of vials' (unit, NO, None)", 0.007857440777532705], ["'production of gloves' (unit, MY, None)", 0.0024088178269661416], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.002026607492239876], ["'production of IV sets' (unit, RER, None)", 0.0023483800654673674], ["'medical connector' (unit, GLO, None)", 0.0040654766555651665], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.035348958187471e-05], ["'stopcock' (unit, GLO, None)", 0.00044522680684506977], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0050879034860880435], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.2550533917111307e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.888232663516786e-05], ["'full box of vials' (unit, NO, None)", 0.008679938688769671], ["'production of gloves' (unit, MY, None)", 0.003053926850860307], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.002094663492693032], ["'production of IV sets' (unit, RER, None)", 0.0029466216442613465], ["'medical connector' (unit, GLO, None)", 0.004195195523337269], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.5295025916302935e-05], ["'stopcock' (unit, GLO, None)", 0.0004540297748355294], ["'market for water, ultrapure' (kilogram, RER, None)", 3.765200586184778e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5880421396274148e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.8871560637211565e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0010500116498451029]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.739296719767631e-07], ["'packed box of penicillin' (unit, SE, None)", 8.662596111222098e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3233684496895123e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1478593439535264e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0017500194164085045], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6467368993790248e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.860290829395982e-06], ["'full box of vials' (unit, NO, None)", 0.001084992336096209], ["'production of gloves' (unit, MY, None)", 0.00038174085635753836], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.000261832936586629], ["'production of IV sets' (unit, RER, None)", 0.0003683277055326683], ["'medical connector' (unit, GLO, None)", 0.0005243994404171586], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.161878239537867e-06], ["'stopcock' (unit, GLO, None)", 5.6753721854441175e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.7065007327309724e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0158549297092407e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.832348995275179e-05], ["'full box of vials' (unit, NO, None)", 0.013019908033154507], ["'production of gloves' (unit, MY, None)", 0.00458089027629046], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.003141995239039547], ["'production of IV sets' (unit, RER, None)", 0.00441993246639202], ["'medical connector' (unit, GLO, None)", 0.006292793285005904], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.79425388744544e-05], ["'stopcock' (unit, GLO, None)", 0.0006810446622532941], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005647800879277166], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012190375403769844]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.16598351795748e-05], ["'full box of vials' (unit, NO, None)", 0.008984480801586994], ["'production of gloves' (unit, MY, None)", 0.0032919139742218005], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0023240654903818937], ["'production of IV sets' (unit, RER, None)", 0.003140095024755643], ["'medical connector' (unit, GLO, None)", 0.004314934331607473], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.6558760773930834e-05], ["'stopcock' (unit, GLO, None)", 0.0004782887656126304], ["'market for water, ultrapure' (kilogram, RER, None)", 3.985572530052274e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.619216618396025e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.353411281245251e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0011134221054544138]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.127842734371043e-07], ["'packed box of penicillin' (unit, SE, None)", 9.185732369998915e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3493471819966872e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2255685468742086e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0018557035090906895], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6986943639933746e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.20747939744685e-06], ["'full box of vials' (unit, NO, None)", 0.0011230601001983743], ["'production of gloves' (unit, MY, None)", 0.00041148924677772506], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0002905081862977367], ["'production of IV sets' (unit, RER, None)", 0.0003925118780944554], ["'medical connector' (unit, GLO, None)", 0.0005393667914509341], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3198450967413542e-06], ["'stopcock' (unit, GLO, None)", 5.97860957015788e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.981965662565343e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0357969370073836e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.24897527693622e-05], ["'full box of vials' (unit, NO, None)", 0.013476721202380491], ["'production of gloves' (unit, MY, None)", 0.0049378709613327005], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0034860982355728403], ["'production of IV sets' (unit, RER, None)", 0.004710142537133465], ["'medical connector' (unit, GLO, None)", 0.006472401497411209], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.983814116089625e-05], ["'stopcock' (unit, GLO, None)", 0.0007174331484189456], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0059783587950784116], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012429681773369942]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0002355096826843272], ["'full box of vials' (unit, NO, None)", 0.02191604821936875], ["'production of gloves' (unit, MY, None)", 0.011539430655818637], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03643203750919684], ["'production of IV sets' (unit, RER, None)", 0.014568854639111152], ["'medical connector' (unit, GLO, None)", 0.008680797654974972], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00075797158358315], ["'stopcock' (unit, GLO, None)", 0.002776869677598553], ["'market for water, ultrapure' (kilogram, RER, None)", 7.301791039037902e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.8159479695310878e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.55661919267564e-05], ["'packed box of penicillin' (unit, SE, None)", 0.010415037777206562]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.6305159938963665e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0008592406166195413], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5132899746092395e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -9.261031987792735e-05], ["'packed box of penicillin' (unit, SE, None)", 0.017358396295344268], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.0265799492184792e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.94387103355409e-05], ["'full box of vials' (unit, NO, None)", 0.0027395060274210937], ["'production of gloves' (unit, MY, None)", 0.0014424288319773296], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.004554004688649605], ["'production of IV sets' (unit, RER, None)", 0.001821106829888894], ["'medical connector' (unit, GLO, None)", 0.0010850997068718715], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.474644794789375e-05], ["'stopcock' (unit, GLO, None)", 0.00034710870969981915], ["'market for water, ultrapure' (kilogram, RER, None)", 9.127238798797377e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1616440464082727e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003532645240264908], ["'full box of vials' (unit, NO, None)", 0.03287407232905312], ["'production of gloves' (unit, MY, None)", 0.017309145983727955], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05464805626379525], ["'production of IV sets' (unit, RER, None)", 0.021853281958666728], ["'medical connector' (unit, GLO, None)", 0.013021196482462458], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0011369573753747249], ["'stopcock' (unit, GLO, None)", 0.00416530451639783], ["'market for water, ultrapure' (kilogram, RER, None)", 0.10952686558556853], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00013939861487234428]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.4742362924120766e-10], ["'full box of vials' (unit, NO, None)", 1.5712025448330373e-08], ["'production of gloves' (unit, MY, None)", 4.785460146508685e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.7461104794963274e-09], ["'production of IV sets' (unit, RER, None)", 5.928405576201929e-09], ["'medical connector' (unit, GLO, None)", 6.085649397585332e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.225782113661368e-11], ["'stopcock' (unit, GLO, None)", 9.907649237294664e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 3.375685045238994e-11], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.217645022204566e-12], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.55527686705317e-11], ["'packed box of penicillin' (unit, SE, None)", 2.8736044379876507e-09]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.9627307225443082e-12], ["'packed box of penicillin' (unit, SE, None)", 2.370723661339812e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.014704185170472e-13]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.925461445088618e-11], ["'packed box of penicillin' (unit, SE, None)", 4.789340729979418e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2029408370340944e-11]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.8427953655150958e-11], ["'full box of vials' (unit, NO, None)", 1.9640031810412967e-09], ["'production of gloves' (unit, MY, None)", 5.981825183135856e-10], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.1826380993704092e-10], ["'production of IV sets' (unit, RER, None)", 7.410506970252411e-10], ["'medical connector' (unit, GLO, None)", 7.607061746981665e-10], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.03222764207671e-12], ["'stopcock' (unit, GLO, None)", 1.238456154661833e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 4.219606306548743e-12], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.617056496005904e-12]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.211354438618115e-10], ["'full box of vials' (unit, NO, None)", 2.356803817249556e-08], ["'production of gloves' (unit, MY, None)", 7.1781902197630266e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.619165719244491e-09], ["'production of IV sets' (unit, RER, None)", 8.892608364302893e-09], ["'medical connector' (unit, GLO, None)", 9.128474096377999e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0838673170492051e-10], ["'stopcock' (unit, GLO, None)", 1.4861473855941995e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 5.063527567858491e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.5405206295386815e-11]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.8599836313478075e-08], ["'full box of vials' (unit, NO, None)", 7.70738948510662e-06], ["'production of gloves' (unit, MY, None)", 2.113967075670709e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -3.6325338292373032e-06], ["'production of IV sets' (unit, RER, None)", 2.7988444281857323e-06], ["'medical connector' (unit, GLO, None)", 4.06834906264713e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.329931469722308e-08], ["'stopcock' (unit, GLO, None)", 4.887824278684096e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 5.110453107966435e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.556385217199382e-09], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.7892813783914808e-08], ["'packed box of penicillin' (unit, SE, None)", 9.758804297508198e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4910678153262342e-09], ["'packed box of penicillin' (unit, SE, None)", 8.051013545444264e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.463654347666151e-10]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.982135630652469e-08], ["'packed box of penicillin' (unit, SE, None)", 1.626467382918033e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0927308695332302e-08]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.824979539184759e-09], ["'full box of vials' (unit, NO, None)", 9.634236856383274e-07], ["'production of gloves' (unit, MY, None)", 2.6424588445883865e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -4.540667286546629e-07], ["'production of IV sets' (unit, RER, None)", 3.4985555352321654e-07], ["'medical connector' (unit, GLO, None)", 5.085436328308912e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.412414337152885e-09], ["'stopcock' (unit, GLO, None)", 6.10978034835512e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 6.388066384958043e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.194055105821956e-09]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.789975447021711e-08], ["'full box of vials' (unit, NO, None)", 1.156108422765993e-05], ["'production of gloves' (unit, MY, None)", 3.1709506135060638e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.448800743855954e-06], ["'production of IV sets' (unit, RER, None)", 4.1982666422785985e-06], ["'medical connector' (unit, GLO, None)", 6.102523593970695e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.49489720458346e-08], ["'stopcock' (unit, GLO, None)", 7.331736418026143e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 7.665679661949651e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.0329141207889753e-08]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0026630716537459705], ["'full box of vials' (unit, NO, None)", 0.24462450389672918], ["'production of gloves' (unit, MY, None)", 0.17214592197417367], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.030307633989163446], ["'production of IV sets' (unit, RER, None)", 0.2888641364072919], ["'medical connector' (unit, GLO, None)", 0.09727036165305632], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0009529260608890093], ["'stopcock' (unit, GLO, None)", 0.04195979694724079], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00015311996868760418], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.272890692432114e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00029679669440164084], ["'packed box of penicillin' (unit, SE, None)", 0.05008885991556178]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.4733057866803402e-05], ["'packed box of penicillin' (unit, SE, None)", 0.004132330943033847], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.394075577026761e-06]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004946611573360681], ["'packed box of penicillin' (unit, SE, None)", 0.08348143319260296], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.788151154053523e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003328839567182463], ["'full box of vials' (unit, NO, None)", 0.030578062987091148], ["'production of gloves' (unit, MY, None)", 0.021518240246771708], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0037884542486454308], ["'production of IV sets' (unit, RER, None)", 0.03610801705091149], ["'medical connector' (unit, GLO, None)", 0.01215879520663204], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00011911575761112616], ["'stopcock' (unit, GLO, None)", 0.005244974618405099], ["'market for water, ultrapure' (kilogram, RER, None)", 1.9139996085950522e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.373016288460626e-05]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.003994607480618956], ["'full box of vials' (unit, NO, None)", 0.3669367558450938], ["'production of gloves' (unit, MY, None)", 0.2582188829612605], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.04546145098374517], ["'production of IV sets' (unit, RER, None)", 0.4332962046109379], ["'medical connector' (unit, GLO, None)", 0.14590554247958448], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001429389091333514], ["'stopcock' (unit, GLO, None)", 0.0629396954208612], ["'market for water, ultrapure' (kilogram, RER, None)", 0.22967995303140626], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0004047658144567395]]</t>
   </si>
 </sst>
 </file>
@@ -830,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,67 +840,67 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" t="s">
-        <v>129</v>
-      </c>
       <c r="T2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="U2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="V2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -974,67 +908,67 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
         <v>82</v>
       </c>
-      <c r="L3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>94</v>
-      </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" t="s">
-        <v>130</v>
-      </c>
       <c r="T3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="V3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1042,67 +976,67 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" t="s">
-        <v>131</v>
-      </c>
       <c r="T4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="U4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="V4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1110,67 +1044,67 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" t="s">
-        <v>132</v>
-      </c>
       <c r="T5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="U5" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="V5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1178,135 +1112,67 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" t="s">
         <v>115</v>
       </c>
-      <c r="Q6" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" t="s">
-        <v>133</v>
-      </c>
       <c r="T6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="V6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" t="s">
-        <v>128</v>
-      </c>
-      <c r="S7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T7" t="s">
-        <v>140</v>
-      </c>
-      <c r="U7" t="s">
-        <v>146</v>
-      </c>
-      <c r="V7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/results/LCIA/LCIA_results.xlsx
+++ b/results/LCIA/LCIA_results.xlsx
@@ -94,319 +94,319 @@
     <t>vial sc2</t>
   </si>
   <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.384108381561186e-05], ["'full box of vials' (unit, NO, None)", 0.01051872585570729], ["'production of gloves' (unit, MY, None)", 0.003197163361257031], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008783548693593617], ["'production of IV sets' (unit, RER, None)", 0.0028797198012275845], ["'medical connector' (unit, GLO, None)", 0.006008371776376498], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.234705824232427e-05], ["'stopcock' (unit, GLO, None)", 0.0005270275711529875], ["'market for water, ultrapure' (kilogram, RER, None)", 5.660466935585723e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.70859243400833e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.3330893592905991e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0011506751230785839]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1109077994088326e-06], ["'packed box of penicillin' (unit, SE, None)", 9.493069765398317e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.423827028340273e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.2218155988176657e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0019177918717976396], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2847654056680548e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.480135476951483e-06], ["'full box of vials' (unit, NO, None)", 0.0013148407319634112], ["'production of gloves' (unit, MY, None)", 0.0003996454201571289], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0001097943586699202], ["'production of IV sets' (unit, RER, None)", 0.00035996497515344806], ["'medical connector' (unit, GLO, None)", 0.0007510464720470623], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.293382280290534e-06], ["'stopcock' (unit, GLO, None)", 6.587844639412344e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 7.075583669482153e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.931110724205325e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.576162572341779e-05], ["'full box of vials' (unit, NO, None)", 0.01577808878356093], ["'production of gloves' (unit, MY, None)", 0.004795745041885547], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013175323040390424], ["'production of IV sets' (unit, RER, None)", 0.004319579701841377], ["'medical connector' (unit, GLO, None)", 0.009012557664564748], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.352058736348641e-05], ["'stopcock' (unit, GLO, None)", 0.0007905413567294813], ["'market for water, ultrapure' (kilogram, RER, None)", 0.008490700403378583], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.9173892971926266e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015856387794748118], ["'full box of vials' (unit, NO, None)", 2.8097258176914455], ["'production of gloves' (unit, MY, None)", 0.8216404763739555], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.6510214191157633], ["'production of IV sets' (unit, RER, None)", 1.5983067254884042], ["'medical connector' (unit, GLO, None)", 1.2783450989218443], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011667136120025304], ["'stopcock' (unit, GLO, None)", 0.2581221845583294], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0018141461110547372], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0008801999655088112], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.009018745119940772], ["'packed box of penicillin' (unit, SE, None)", 0.5104207102503721]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0007515620933283977], ["'packed box of penicillin' (unit, SE, None)", 0.0421097085956557], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.334999712573425e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.015031241866567957], ["'packed box of penicillin' (unit, SE, None)", 0.8507011837506201], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.001466999942514685]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0019820484743435147], ["'full box of vials' (unit, NO, None)", 0.3512157272114307], ["'production of gloves' (unit, MY, None)", 0.10270505954674444], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.2063776773894704], ["'production of IV sets' (unit, RER, None)", 0.19978834068605053], ["'medical connector' (unit, GLO, None)", 0.15979313736523054], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001458392015003163], ["'stopcock' (unit, GLO, None)", 0.03226527306979118], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00022676826388184215], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0005630552563937727]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023784581692122178], ["'full box of vials' (unit, NO, None)", 4.214588726537168], ["'production of gloves' (unit, MY, None)", 1.2324607145609332], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -2.476532128673645], ["'production of IV sets' (unit, RER, None)", 2.3974600882326063], ["'medical connector' (unit, GLO, None)", 1.9175176483827665], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.017500704180037956], ["'stopcock' (unit, GLO, None)", 0.3871832768374941], ["'market for water, ultrapure' (kilogram, RER, None)", 2.7212191665821055], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.006756727508789616]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.00046627536311458635], ["'full box of vials' (unit, NO, None)", 0.11544258320473631], ["'production of gloves' (unit, MY, None)", 0.034295985537088784], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05621527828276029], ["'production of IV sets' (unit, RER, None)", 0.03336656382784251], ["'medical connector' (unit, GLO, None)", 0.0704374129533852], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014360599213977935], ["'stopcock' (unit, GLO, None)", 0.0056700915640517], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00014205548806691073], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0003577307868073302], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00018706538144172967], ["'packed box of penicillin' (unit, SE, None)", 0.012285311087763798]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.5588781786810806e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010135381647405134], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9810898900610848e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00031177563573621614], ["'packed box of penicillin' (unit, SE, None)", 0.02047551847960633], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.000596217978012217]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.8284420389323294e-05], ["'full box of vials' (unit, NO, None)", 0.014430322900592039], ["'production of gloves' (unit, MY, None)", 0.004286998192136098], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007026909785345036], ["'production of IV sets' (unit, RER, None)", 0.004170820478480314], ["'medical connector' (unit, GLO, None)", 0.00880467661917315], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0001795074901747242], ["'stopcock' (unit, GLO, None)", 0.0007087614455064625], ["'market for water, ultrapure' (kilogram, RER, None)", 1.775693600836384e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00022883686409748107]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006994130446718796], ["'full box of vials' (unit, NO, None)", 0.17316387480710446], ["'production of gloves' (unit, MY, None)", 0.05144397830563317], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.08432291742414043], ["'production of IV sets' (unit, RER, None)", 0.05004984574176377], ["'medical connector' (unit, GLO, None)", 0.1056561194300778], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00215408988209669], ["'stopcock' (unit, GLO, None)", 0.00850513734607755], ["'market for water, ultrapure' (kilogram, RER, None)", 0.2130832321003661], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0027460685556432753]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006299059569205519], ["'full box of vials' (unit, NO, None)", 0.31774419137321747], ["'production of gloves' (unit, MY, None)", 0.04673882086468028], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.07445385186885806], ["'production of IV sets' (unit, RER, None)", 0.04404912740200799], ["'medical connector' (unit, GLO, None)", 0.2540297889227065], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0018465954933511125], ["'stopcock' (unit, GLO, None)", 0.007373149965493437], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00018064524359823306], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00044106921216393403], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0002577045851748312], ["'packed box of penicillin' (unit, SE, None)", 0.015384705668429153]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.1475382097902604e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0012692382176454052], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.675576768032783e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004295076419580521], ["'packed box of penicillin' (unit, SE, None)", 0.025641176114048585], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007351153536065567]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.873824461506898e-05], ["'full box of vials' (unit, NO, None)", 0.03971802392165218], ["'production of gloves' (unit, MY, None)", 0.005842352608085035], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.009306731483607257], ["'production of IV sets' (unit, RER, None)", 0.005506140925250999], ["'medical connector' (unit, GLO, None)", 0.03175372361533831], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00023082443666888906], ["'stopcock' (unit, GLO, None)", 0.0009216437456866796], ["'market for water, ultrapure' (kilogram, RER, None)", 2.2580655449779132e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0002821476347125319]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009448589353808277], ["'full box of vials' (unit, NO, None)", 0.4766162870598261], ["'production of gloves' (unit, MY, None)", 0.07010823129702042], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.11168077780328707], ["'production of IV sets' (unit, RER, None)", 0.06607369110301198], ["'medical connector' (unit, GLO, None)", 0.3810446833840597], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0027698932400266685], ["'stopcock' (unit, GLO, None)", 0.011059724948240155], ["'market for water, ultrapure' (kilogram, RER, None)", 0.27096786539734957], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.003385803903531719]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.06007666505239478], ["'full box of vials' (unit, NO, None)", 13.990500284144094], ["'production of gloves' (unit, MY, None)", 3.72426622676011], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.7753700980847825], ["'production of IV sets' (unit, RER, None)", 4.766961356118672], ["'medical connector' (unit, GLO, None)", 7.762285875339966], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.08915769884321618], ["'stopcock' (unit, GLO, None)", 0.8829648863594669], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007371528155478812], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0018971225938269568], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.013287160535906119], ["'packed box of penicillin' (unit, SE, None)", 1.5570365275346656]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0011072633779921767], ["'packed box of penicillin' (unit, SE, None)", 0.12845551352160992], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00015809354948557972]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.022145267559843536], ["'packed box of penicillin' (unit, SE, None)", 2.5950608792244423], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0031618709897115946]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007509583131549347], ["'full box of vials' (unit, NO, None)", 1.7488125355180117], ["'production of gloves' (unit, MY, None)", 0.46553327834501373], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.09692126226059782], ["'production of IV sets' (unit, RER, None)", 0.595870169514834], ["'medical connector' (unit, GLO, None)", 0.9702857344174958], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.011144712355402023], ["'stopcock' (unit, GLO, None)", 0.11037061079493336], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0009214410194348515], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0012135706547774948]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.09011499757859216], ["'full box of vials' (unit, NO, None)", 20.98575042621614], ["'production of gloves' (unit, MY, None)", 5.586399340140165], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.1630551471271737], ["'production of IV sets' (unit, RER, None)", 7.150442034178008], ["'medical connector' (unit, GLO, None)", 11.64342881300995], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.13373654826482428], ["'stopcock' (unit, GLO, None)", 1.3244473295392003], ["'market for water, ultrapure' (kilogram, RER, None)", 11.057292233218217], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.014562986729779182]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0074566583971249715], ["'full box of vials' (unit, NO, None)", 0.7964145053865685], ["'production of gloves' (unit, MY, None)", 0.4419820642238384], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.005258948095400521], ["'production of IV sets' (unit, RER, None)", 0.7760658024320177], ["'medical connector' (unit, GLO, None)", 0.35008061936226176], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0034386307399323327], ["'stopcock' (unit, GLO, None)", 0.11605773015654564], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0005250682251057695], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00017734723045881832], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0009026596059621964], ["'packed box of penicillin' (unit, SE, None)", 0.1494773576457679]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.522163383018304e-05], ["'packed box of penicillin' (unit, SE, None)", 0.012331882005775851], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.477893587156819e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0015044326766036611], ["'packed box of penicillin' (unit, SE, None)", 0.24912892940961312], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00029557871743136384]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009320822996406214], ["'full box of vials' (unit, NO, None)", 0.09955181317332107], ["'production of gloves' (unit, MY, None)", 0.0552477580279798], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0006573685119250651], ["'production of IV sets' (unit, RER, None)", 0.09700822530400222], ["'medical connector' (unit, GLO, None)", 0.04376007742028272], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0004298288424915416], ["'stopcock' (unit, GLO, None)", 0.014507216269568204], ["'market for water, ultrapure' (kilogram, RER, None)", 6.563352813822119e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00011344727815229144]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.011184987595687458], ["'full box of vials' (unit, NO, None)", 1.1946217580798526], ["'production of gloves' (unit, MY, None)", 0.6629730963357576], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007888422143100782], ["'production of IV sets' (unit, RER, None)", 1.1640987036480266], ["'medical connector' (unit, GLO, None)", 0.5251209290433927], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.005157946109898498], ["'stopcock' (unit, GLO, None)", 0.17408659523481845], ["'market for water, ultrapure' (kilogram, RER, None)", 0.7876023376586542], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0013613803199322599]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.107320874613747e-06], ["'full box of vials' (unit, NO, None)", 0.001018459149559586], ["'production of gloves' (unit, MY, None)", 0.00024017999320846673], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0011863783778526661], ["'production of IV sets' (unit, RER, None)", 0.00023119707765011593], ["'medical connector' (unit, GLO, None)", 0.0003967319734916721], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 8.296458544382813e-06], ["'stopcock' (unit, GLO, None)", 5.713564588024439e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 3.672368678650032e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.816314212085183e-07], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.014937502908344e-06], ["'packed box of penicillin' (unit, SE, None)", 0.00017149813126947285]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.3457812524236206e-07], ["'packed box of penicillin' (unit, SE, None)", 1.414859582973151e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.013595176737652e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.691562504847241e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0002858302187824547], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.027190353475304e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.884151093267184e-07], ["'full box of vials' (unit, NO, None)", 0.00012730739369494826], ["'production of gloves' (unit, MY, None)", 3.002249915105834e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00014829729723158327], ["'production of IV sets' (unit, RER, None)", 2.889963470626449e-05], ["'medical connector' (unit, GLO, None)", 4.959149668645901e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0370573180478516e-06], ["'stopcock' (unit, GLO, None)", 7.141955735030549e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 4.59046084831254e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.0809488068895486e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.0660981311920621e-05], ["'full box of vials' (unit, NO, None)", 0.0015276887243393788], ["'production of gloves' (unit, MY, None)", 0.0003602699898127001], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001779567566778999], ["'production of IV sets' (unit, RER, None)", 0.00034679561647517386], ["'medical connector' (unit, GLO, None)", 0.0005950979602375082], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.244468781657422e-05], ["'stopcock' (unit, GLO, None)", 8.570346882036658e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.05508553017975048], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.697173824468251e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.238352869319857e-06], ["'full box of vials' (unit, NO, None)", 0.00014337276377373456], ["'production of gloves' (unit, MY, None)", 4.9676751494268754e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.616277805151544e-05], ["'production of IV sets' (unit, RER, None)", 4.2633085920499776e-05], ["'medical connector' (unit, GLO, None)", 3.1906308376073784e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.049069281675984e-06], ["'stopcock' (unit, GLO, None)", 6.9625751595357605e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 5.06175177881337e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.513296916577534e-07], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.7795395939442543e-07], ["'packed box of penicillin' (unit, SE, None)", 7.339694962897848e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.3162829949535454e-08], ["'packed box of penicillin' (unit, SE, None)", 6.0552483443907245e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.761080763814611e-08]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.632565989907091e-07], ["'packed box of penicillin' (unit, SE, None)", 0.0001223282493816308], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.522161527629224e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.7979410866498213e-07], ["'full box of vials' (unit, NO, None)", 1.792159547171682e-05], ["'production of gloves' (unit, MY, None)", 6.209593936783594e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -7.02034725643943e-06], ["'production of IV sets' (unit, RER, None)", 5.329135740062472e-06], ["'medical connector' (unit, GLO, None)", 3.988288547009223e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.31133660209498e-07], ["'stopcock' (unit, GLO, None)", 8.703218949419701e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 6.327189723516712e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8871116247724375e-07]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3575293039797856e-06], ["'full box of vials' (unit, NO, None)", 0.0002150591456606018], ["'production of gloves' (unit, MY, None)", 7.451512724140314e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.424416707727316e-05], ["'production of IV sets' (unit, RER, None)", 6.394962888074966e-05], ["'medical connector' (unit, GLO, None)", 4.7859462564110676e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.573603922513976e-06], ["'stopcock' (unit, GLO, None)", 1.044386273930364e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007592627668220055], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.464566987791993e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005348013664526453], ["'full box of vials' (unit, NO, None)", 0.29715312322075027], ["'production of gloves' (unit, MY, None)", 0.027660894319082828], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.2893785451596567], ["'production of IV sets' (unit, RER, None)", 0.03754814813233365], ["'medical connector' (unit, GLO, None)", 0.2031090767578283], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00256922258611881], ["'stopcock' (unit, GLO, None)", 0.00668420231992173], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00020081363955863879], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0005672565378511718], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.000976898589847641], ["'packed box of penicillin' (unit, SE, None)", 0.012380739626346003]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -8.140821582063674e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010214110191735452], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.727137815426432e-05]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.001628164316412735], ["'packed box of penicillin' (unit, SE, None)", 0.02063456604391], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0009454275630852864]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.685017080658066e-05], ["'full box of vials' (unit, NO, None)", 0.037144140402593784], ["'production of gloves' (unit, MY, None)", 0.0034576117898853535], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03617231814495709], ["'production of IV sets' (unit, RER, None)", 0.004693518516541706], ["'medical connector' (unit, GLO, None)", 0.025388634594728537], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00032115282326485126], ["'stopcock' (unit, GLO, None)", 0.0008355252899902162], ["'market for water, ultrapure' (kilogram, RER, None)", 2.5101704944829848e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0003628684252176764]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008022020496789679], ["'full box of vials' (unit, NO, None)", 0.4457296848311254], ["'production of gloves' (unit, MY, None)", 0.04149134147862424], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.4340678177394851], ["'production of IV sets' (unit, RER, None)", 0.05632222219850047], ["'medical connector' (unit, GLO, None)", 0.30466361513674245], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003853833879178215], ["'stopcock' (unit, GLO, None)", 0.010026303479882596], ["'market for water, ultrapure' (kilogram, RER, None)", 0.30122045933795816], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.004354462626710252]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015531966499988867], ["'full box of vials' (unit, NO, None)", 3.352691132610959], ["'production of gloves' (unit, MY, None)", 0.9721513688735409], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.929771172516528], ["'production of IV sets' (unit, RER, None)", 0.7511032970750456], ["'medical connector' (unit, GLO, None)", 2.111432387259558], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.02321906846553605], ["'stopcock' (unit, GLO, None)", 0.14842954509479103], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0020113294191369977], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.00856315646967041], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.005539861640102077], ["'packed box of penicillin' (unit, SE, None)", 0.2888116448580612]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004616551366751732], ["'packed box of penicillin' (unit, SE, None)", 0.02382696070079005], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.0007135963724725342]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.009233102733503465], ["'packed box of penicillin' (unit, SE, None)", 0.481352741430102], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 0.014271927449450683]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0019414958124986084], ["'full box of vials' (unit, NO, None)", 0.4190863915763699], ["'production of gloves' (unit, MY, None)", 0.12151892110919262], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.116221396564566], ["'production of IV sets' (unit, RER, None)", 0.0938879121343807], ["'medical connector' (unit, GLO, None)", 0.26392904840744474], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002902383558192006], ["'stopcock' (unit, GLO, None)", 0.01855369313684888], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0002514161773921247], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.005477766928544603]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.023297949749983303], ["'full box of vials' (unit, NO, None)", 5.029036698916438], ["'production of gloves' (unit, MY, None)", 1.4582270533103114], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.394656758774792], ["'production of IV sets' (unit, RER, None)", 1.1266549456125685], ["'medical connector' (unit, GLO, None)", 3.1671485808893367], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.034828602698304074], ["'stopcock' (unit, GLO, None)", 0.22264431764218656], ["'market for water, ultrapure' (kilogram, RER, None)", 3.0169941287054964], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.06573382997947033]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005551436473190816], ["'full box of vials' (unit, NO, None)", -0.013046401515440707], ["'production of gloves' (unit, MY, None)", 0.02841655367302413], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.03242506477312759], ["'production of IV sets' (unit, RER, None)", 0.06402832946756712], ["'medical connector' (unit, GLO, None)", 0.01512518363707054], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00358528310684167], ["'stopcock' (unit, GLO, None)", 0.005942075513126332], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00043563398806303996], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1072219893237218e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.00010005208006631807], ["'packed box of penicillin' (unit, SE, None)", 0.01168938715387065]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 8.337673338859841e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0009643744401943286], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -9.226849911031014e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", 0.00016675346677719682], ["'packed box of penicillin' (unit, SE, None)", 0.019482311923117748], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.845369982206203e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.93929559148852e-05], ["'full box of vials' (unit, NO, None)", -0.0016308001894300883], ["'production of gloves' (unit, MY, None)", 0.0035520692091280163], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.004053133096640949], ["'production of IV sets' (unit, RER, None)", 0.00800354118344589], ["'medical connector' (unit, GLO, None)", 0.0018906479546338176], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00044816038835520874], ["'stopcock' (unit, GLO, None)", 0.0007427594391407915], ["'market for water, ultrapure' (kilogram, RER, None)", 5.4454248507879995e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.082790110348516e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008327154709786224], ["'full box of vials' (unit, NO, None)", -0.019569602273161058], ["'production of gloves' (unit, MY, None)", 0.04262483050953619], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.04863759715969138], ["'production of IV sets' (unit, RER, None)", 0.09604249420135068], ["'medical connector' (unit, GLO, None)", 0.02268777545560581], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0053779246602625045], ["'stopcock' (unit, GLO, None)", 0.008913113269689498], ["'market for water, ultrapure' (kilogram, RER, None)", 0.6534509820945599], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.499429182862726e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.009304461740147074], ["'full box of vials' (unit, NO, None)", 0.39446937847231656], ["'production of gloves' (unit, MY, None)", 0.12963668088742136], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.8013352826828545], ["'production of IV sets' (unit, RER, None)", 0.022437698664482267], ["'medical connector' (unit, GLO, None)", 0.027594897844245122], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002189542180924148], ["'stopcock' (unit, GLO, None)", 0.004659233375942381], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00024339648305092326], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.406784215708508e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0003974633267935467], ["'packed box of penicillin' (unit, SE, None)", 0.10300381356298044]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.312194389946222e-05], ["'packed box of penicillin' (unit, SE, None)", 0.008497814618945885], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.672320179757089e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0006624388779892446], ["'packed box of penicillin' (unit, SE, None)", 0.17167302260496736], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.344640359514179e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0011630577175183842], ["'full box of vials' (unit, NO, None)", 0.04930867230903957], ["'production of gloves' (unit, MY, None)", 0.01620458511092767], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.10016691033535681], ["'production of IV sets' (unit, RER, None)", 0.0028047123330602833], ["'medical connector' (unit, GLO, None)", 0.0034493622305306402], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0002736927726155185], ["'stopcock' (unit, GLO, None)", 0.0005824041719927976], ["'market for water, ultrapure' (kilogram, RER, None)", 3.0424560381365408e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.8189764981568224e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.01395669261022061], ["'full box of vials' (unit, NO, None)", 0.5917040677084748], ["'production of gloves' (unit, MY, None)", 0.19445502133113204], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.2020029240242815], ["'production of IV sets' (unit, RER, None)", 0.0336565479967234], ["'medical connector' (unit, GLO, None)", 0.04139234676636768], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.003284313271386222], ["'stopcock' (unit, GLO, None)", 0.006988850063913572], ["'market for water, ultrapure' (kilogram, RER, None)", 0.36509472457638487], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0003382804056163018]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.2571410316521e-05], ["'full box of vials' (unit, NO, None)", 0.04678287219873159], ["'production of gloves' (unit, MY, None)", 0.0029250210763809366], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0008667861723458495], ["'production of IV sets' (unit, RER, None)", 0.0026626133652718617], ["'medical connector' (unit, GLO, None)", 0.03789984830182015], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.8059558961286447e-05], ["'stopcock' (unit, GLO, None)", 0.00041780434300849793], ["'market for water, ultrapure' (kilogram, RER, None)", 1.3921419900887148e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.188066689054835e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.091528765050557e-06], ["'packed box of penicillin' (unit, SE, None)", 0.001239672369213219]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.909607304208798e-07], ["'packed box of penicillin' (unit, SE, None)", 0.00010227297046009057], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.990055574212362e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1819214608417596e-05], ["'packed box of penicillin' (unit, SE, None)", 0.002066120615355365], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.1980111148424724e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.821426289565125e-06], ["'full box of vials' (unit, NO, None)", 0.005847859024841449], ["'production of gloves' (unit, MY, None)", 0.0003656276345476171], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00010834827154323119], ["'production of IV sets' (unit, RER, None)", 0.0003328266706589827], ["'medical connector' (unit, GLO, None)", 0.004737481037727519], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.507444870160806e-06], ["'stopcock' (unit, GLO, None)", 5.222554287606224e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 1.7401774876108936e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.598135527353406e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3857115474781495e-05], ["'full box of vials' (unit, NO, None)", 0.07017430829809737], ["'production of gloves' (unit, MY, None)", 0.004387531614571405], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0013001792585187744], ["'production of IV sets' (unit, RER, None)", 0.003993920047907792], ["'medical connector' (unit, GLO, None)", 0.05684977245273023], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.208933844192966e-05], ["'stopcock' (unit, GLO, None)", 0.000626706514512747], ["'market for water, ultrapure' (kilogram, RER, None)", 0.02088212985133072], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.517815250637489e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.969267530237154e-09], ["'full box of vials' (unit, NO, None)", 9.73837768141697e-07], ["'production of gloves' (unit, MY, None)", 2.3061957368089783e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 5.108074850208962e-07], ["'production of IV sets' (unit, RER, None)", 6.793595834610356e-07], ["'medical connector' (unit, GLO, None)", 3.451754912923749e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.389601062074863e-09], ["'stopcock' (unit, GLO, None)", 8.520446831553617e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.1025532827225806e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.2724808110423385e-09], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.7149250503111254e-09], ["'packed box of penicillin' (unit, SE, None)", 5.264142887284906e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4291042085926045e-10], ["'packed box of penicillin' (unit, SE, None)", 4.342917882010048e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.227067342535281e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.8582084171852096e-09], ["'packed box of penicillin' (unit, SE, None)", 8.773571478808176e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0454134685070563e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.461584412796443e-10], ["'full box of vials' (unit, NO, None)", 1.2172972101771213e-07], ["'production of gloves' (unit, MY, None)", 2.882744671011223e-08], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 6.385093562761202e-08], ["'production of IV sets' (unit, RER, None)", 8.491994793262945e-08], ["'medical connector' (unit, GLO, None)", 4.314693641154686e-08], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.987001327593579e-10], ["'stopcock' (unit, GLO, None)", 1.0650558539442022e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.3781916034032258e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.012444250943462e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.953901295355732e-09], ["'full box of vials' (unit, NO, None)", 1.4607566522125453e-06], ["'production of gloves' (unit, MY, None)", 3.4592936052134675e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 7.662112275313441e-07], ["'production of IV sets' (unit, RER, None)", 1.0190393751915534e-06], ["'medical connector' (unit, GLO, None)", 5.177632369385624e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.584401593112294e-09], ["'stopcock' (unit, GLO, None)", 1.2780670247330425e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 1.6538299240838707e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.8149790167085074e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.863851991057277e-05], ["'full box of vials' (unit, NO, None)", 0.005238293851688471], ["'production of gloves' (unit, MY, None)", 0.001605878551310761], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001351071661493251], ["'production of IV sets' (unit, RER, None)", 0.001565586710311578], ["'medical connector' (unit, GLO, None)", 0.0027103177703767774], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.6902326387916478e-05], ["'stopcock' (unit, GLO, None)", 0.0002968178712300465], ["'market for water, ultrapure' (kilogram, RER, None)", 3.3919356573920294e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.9376616343082842e-06], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.77426657435945e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0005898594032448282]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.478555478632876e-07], ["'packed box of penicillin' (unit, SE, None)", 4.866340076769833e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.44805136192357e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2957110957265753e-05], ["'packed box of penicillin' (unit, SE, None)", 0.000983099005408047], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.896102723847141e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.5798149888215963e-06], ["'full box of vials' (unit, NO, None)", 0.0006547867314610589], ["'production of gloves' (unit, MY, None)", 0.00020073481891384512], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00016888395768665637], ["'production of IV sets' (unit, RER, None)", 0.00019569833878894726], ["'medical connector' (unit, GLO, None)", 0.0003387897212970972], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3627907984895597e-06], ["'stopcock' (unit, GLO, None)", 3.710223390375581e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.239919571740037e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.879193239626459e-06]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.2957779865859156e-05], ["'full box of vials' (unit, NO, None)", 0.007857440777532705], ["'production of gloves' (unit, MY, None)", 0.0024088178269661416], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.002026607492239876], ["'production of IV sets' (unit, RER, None)", 0.0023483800654673674], ["'medical connector' (unit, GLO, None)", 0.0040654766555651665], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.035348958187471e-05], ["'stopcock' (unit, GLO, None)", 0.00044522680684506977], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0050879034860880435], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -2.2550533917111307e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.888232663516786e-05], ["'full box of vials' (unit, NO, None)", 0.008679938688769671], ["'production of gloves' (unit, MY, None)", 0.003053926850860307], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.002094663492693032], ["'production of IV sets' (unit, RER, None)", 0.0029466216442613465], ["'medical connector' (unit, GLO, None)", 0.004195195523337269], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.5295025916302935e-05], ["'stopcock' (unit, GLO, None)", 0.0004540297748355294], ["'market for water, ultrapure' (kilogram, RER, None)", 3.765200586184778e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5880421396274148e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.8871560637211565e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0010500116498451029]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.739296719767631e-07], ["'packed box of penicillin' (unit, SE, None)", 8.662596111222098e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3233684496895123e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1478593439535264e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0017500194164085045], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6467368993790248e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.860290829395982e-06], ["'full box of vials' (unit, NO, None)", 0.001084992336096209], ["'production of gloves' (unit, MY, None)", 0.00038174085635753836], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.000261832936586629], ["'production of IV sets' (unit, RER, None)", 0.0003683277055326683], ["'medical connector' (unit, GLO, None)", 0.0005243994404171586], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.161878239537867e-06], ["'stopcock' (unit, GLO, None)", 5.6753721854441175e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.7065007327309724e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0158549297092407e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.832348995275179e-05], ["'full box of vials' (unit, NO, None)", 0.013019908033154507], ["'production of gloves' (unit, MY, None)", 0.00458089027629046], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.003141995239039547], ["'production of IV sets' (unit, RER, None)", 0.00441993246639202], ["'medical connector' (unit, GLO, None)", 0.006292793285005904], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.79425388744544e-05], ["'stopcock' (unit, GLO, None)", 0.0006810446622532941], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005647800879277166], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012190375403769844]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.16598351795748e-05], ["'full box of vials' (unit, NO, None)", 0.008984480801586994], ["'production of gloves' (unit, MY, None)", 0.0032919139742218005], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0023240654903818937], ["'production of IV sets' (unit, RER, None)", 0.003140095024755643], ["'medical connector' (unit, GLO, None)", 0.004314934331607473], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.6558760773930834e-05], ["'stopcock' (unit, GLO, None)", 0.0004782887656126304], ["'market for water, ultrapure' (kilogram, RER, None)", 3.985572530052274e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.619216618396025e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.353411281245251e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0011134221054544138]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.127842734371043e-07], ["'packed box of penicillin' (unit, SE, None)", 9.185732369998915e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.3493471819966872e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2255685468742086e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0018557035090906895], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 2.6986943639933746e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.20747939744685e-06], ["'full box of vials' (unit, NO, None)", 0.0011230601001983743], ["'production of gloves' (unit, MY, None)", 0.00041148924677772506], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0002905081862977367], ["'production of IV sets' (unit, RER, None)", 0.0003925118780944554], ["'medical connector' (unit, GLO, None)", 0.0005393667914509341], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.3198450967413542e-06], ["'stopcock' (unit, GLO, None)", 5.97860957015788e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.981965662565343e-07], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.0357969370073836e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.24897527693622e-05], ["'full box of vials' (unit, NO, None)", 0.013476721202380491], ["'production of gloves' (unit, MY, None)", 0.0049378709613327005], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0034860982355728403], ["'production of IV sets' (unit, RER, None)", 0.004710142537133465], ["'medical connector' (unit, GLO, None)", 0.006472401497411209], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.983814116089625e-05], ["'stopcock' (unit, GLO, None)", 0.0007174331484189456], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0059783587950784116], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00012429681773369942]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0002355096826843272], ["'full box of vials' (unit, NO, None)", 0.02191604821936875], ["'production of gloves' (unit, MY, None)", 0.011539430655818637], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03643203750919684], ["'production of IV sets' (unit, RER, None)", 0.014568854639111152], ["'medical connector' (unit, GLO, None)", 0.008680797654974972], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00075797158358315], ["'stopcock' (unit, GLO, None)", 0.002776869677598553], ["'market for water, ultrapure' (kilogram, RER, None)", 7.301791039037902e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.8159479695310878e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.55661919267564e-05], ["'packed box of penicillin' (unit, SE, None)", 0.010415037777206562]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.6305159938963665e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0008592406166195413], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.5132899746092395e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -9.261031987792735e-05], ["'packed box of penicillin' (unit, SE, None)", 0.017358396295344268], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 3.0265799492184792e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.94387103355409e-05], ["'full box of vials' (unit, NO, None)", 0.0027395060274210937], ["'production of gloves' (unit, MY, None)", 0.0014424288319773296], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.004554004688649605], ["'production of IV sets' (unit, RER, None)", 0.001821106829888894], ["'medical connector' (unit, GLO, None)", 0.0010850997068718715], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.474644794789375e-05], ["'stopcock' (unit, GLO, None)", 0.00034710870969981915], ["'market for water, ultrapure' (kilogram, RER, None)", 9.127238798797377e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -1.1616440464082727e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003532645240264908], ["'full box of vials' (unit, NO, None)", 0.03287407232905312], ["'production of gloves' (unit, MY, None)", 0.017309145983727955], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05464805626379525], ["'production of IV sets' (unit, RER, None)", 0.021853281958666728], ["'medical connector' (unit, GLO, None)", 0.013021196482462458], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0011369573753747249], ["'stopcock' (unit, GLO, None)", 0.00416530451639783], ["'market for water, ultrapure' (kilogram, RER, None)", 0.10952686558556853], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.00013939861487234428]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.4742362924120766e-10], ["'full box of vials' (unit, NO, None)", 1.5712025448330373e-08], ["'production of gloves' (unit, MY, None)", 4.785460146508685e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 1.7461104794963274e-09], ["'production of IV sets' (unit, RER, None)", 5.928405576201929e-09], ["'medical connector' (unit, GLO, None)", 6.085649397585332e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.225782113661368e-11], ["'stopcock' (unit, GLO, None)", 9.907649237294664e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 3.375685045238994e-11], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 7.217645022204566e-12], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.55527686705317e-11], ["'packed box of penicillin' (unit, SE, None)", 2.8736044379876507e-09]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.9627307225443082e-12], ["'packed box of penicillin' (unit, SE, None)", 2.370723661339812e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.014704185170472e-13]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.925461445088618e-11], ["'packed box of penicillin' (unit, SE, None)", 4.789340729979418e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.2029408370340944e-11]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.8427953655150958e-11], ["'full box of vials' (unit, NO, None)", 1.9640031810412967e-09], ["'production of gloves' (unit, MY, None)", 5.981825183135856e-10], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.1826380993704092e-10], ["'production of IV sets' (unit, RER, None)", 7.410506970252411e-10], ["'medical connector' (unit, GLO, None)", 7.607061746981665e-10], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.03222764207671e-12], ["'stopcock' (unit, GLO, None)", 1.238456154661833e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 4.219606306548743e-12], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.617056496005904e-12]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.211354438618115e-10], ["'full box of vials' (unit, NO, None)", 2.356803817249556e-08], ["'production of gloves' (unit, MY, None)", 7.1781902197630266e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 2.619165719244491e-09], ["'production of IV sets' (unit, RER, None)", 8.892608364302893e-09], ["'medical connector' (unit, GLO, None)", 9.128474096377999e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.0838673170492051e-10], ["'stopcock' (unit, GLO, None)", 1.4861473855941995e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 5.063527567858491e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.5405206295386815e-11]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.8599836313478075e-08], ["'full box of vials' (unit, NO, None)", 7.70738948510662e-06], ["'production of gloves' (unit, MY, None)", 2.113967075670709e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -3.6325338292373032e-06], ["'production of IV sets' (unit, RER, None)", 2.7988444281857323e-06], ["'medical connector' (unit, GLO, None)", 4.06834906264713e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.329931469722308e-08], ["'stopcock' (unit, GLO, None)", 4.887824278684096e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 5.110453107966435e-09], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 6.556385217199382e-09], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.7892813783914808e-08], ["'packed box of penicillin' (unit, SE, None)", 9.758804297508198e-07]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4910678153262342e-09], ["'packed box of penicillin' (unit, SE, None)", 8.051013545444264e-08], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.463654347666151e-10]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.982135630652469e-08], ["'packed box of penicillin' (unit, SE, None)", 1.626467382918033e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 1.0927308695332302e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.824979539184759e-09], ["'full box of vials' (unit, NO, None)", 9.634236856383274e-07], ["'production of gloves' (unit, MY, None)", 2.6424588445883865e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -4.540667286546629e-07], ["'production of IV sets' (unit, RER, None)", 3.4985555352321654e-07], ["'medical connector' (unit, GLO, None)", 5.085436328308912e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.412414337152885e-09], ["'stopcock' (unit, GLO, None)", 6.10978034835512e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 6.388066384958043e-10], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -4.194055105821956e-09]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.789975447021711e-08], ["'full box of vials' (unit, NO, None)", 1.156108422765993e-05], ["'production of gloves' (unit, MY, None)", 3.1709506135060638e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.448800743855954e-06], ["'production of IV sets' (unit, RER, None)", 4.1982666422785985e-06], ["'medical connector' (unit, GLO, None)", 6.102523593970695e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.49489720458346e-08], ["'stopcock' (unit, GLO, None)", 7.331736418026143e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 7.665679661949651e-06], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -5.0329141207889753e-08]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0026630716537459705], ["'full box of vials' (unit, NO, None)", 0.24462450389672918], ["'production of gloves' (unit, MY, None)", 0.17214592197417367], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.030307633989163446], ["'production of IV sets' (unit, RER, None)", 0.2888641364072919], ["'medical connector' (unit, GLO, None)", 0.09727036165305632], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0009529260608890093], ["'stopcock' (unit, GLO, None)", 0.04195979694724079], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00015311996868760418], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 5.272890692432114e-05], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00029679669440164084], ["'packed box of penicillin' (unit, SE, None)", 0.05008885991556178]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.4733057866803402e-05], ["'packed box of penicillin' (unit, SE, None)", 0.004132330943033847], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 4.394075577026761e-06]]</t>
-  </si>
-  <si>
-    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0004946611573360681], ["'packed box of penicillin' (unit, SE, None)", 0.08348143319260296], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", 8.788151154053523e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003328839567182463], ["'full box of vials' (unit, NO, None)", 0.030578062987091148], ["'production of gloves' (unit, MY, None)", 0.021518240246771708], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.0037884542486454308], ["'production of IV sets' (unit, RER, None)", 0.03610801705091149], ["'medical connector' (unit, GLO, None)", 0.01215879520663204], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00011911575761112616], ["'stopcock' (unit, GLO, None)", 0.005244974618405099], ["'market for water, ultrapure' (kilogram, RER, None)", 1.9139996085950522e-05], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -3.373016288460626e-05]]</t>
-  </si>
-  <si>
-    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.003994607480618956], ["'full box of vials' (unit, NO, None)", 0.3669367558450938], ["'production of gloves' (unit, MY, None)", 0.2582188829612605], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", 0.04546145098374517], ["'production of IV sets' (unit, RER, None)", 0.4332962046109379], ["'medical connector' (unit, GLO, None)", 0.14590554247958448], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001429389091333514], ["'stopcock' (unit, GLO, None)", 0.0629396954208612], ["'market for water, ultrapure' (kilogram, RER, None)", 0.22967995303140626], ["'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)", -0.0004047658144567395]]</t>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.360253759430943e-05], ["'full box of vials' (unit, NO, None)", 0.009403044197164454], ["'production of gloves' (unit, MY, None)", 0.003677662426456993], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0021518028274530956], ["'production of IV sets' (unit, RER, None)", 0.0046251938987581075], ["'medical connector' (unit, GLO, None)", 0.004378783210132389], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 5.853147079324596e-05], ["'stopcock' (unit, GLO, None)", 0.0007538070420661665], ["'market for water, ultrapure' (kilogram, RER, None)", 6.796708342236194e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.285515741871067e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0011174061236857394]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.07126311822589e-07], ["'packed box of penicillin' (unit, SE, None)", 9.21860052040735e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.214252623645178e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0018623435394762322], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.700317199288678e-06], ["'full box of vials' (unit, NO, None)", 0.0011753805246455568], ["'production of gloves' (unit, MY, None)", 0.0004597078033071241], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00026897535343163695], ["'production of IV sets' (unit, RER, None)", 0.0005781492373447634], ["'medical connector' (unit, GLO, None)", 0.0005473479012665486], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.316433849155745e-06], ["'stopcock' (unit, GLO, None)", 9.422588025827082e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 8.495885427795242e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.040380639146414e-05], ["'full box of vials' (unit, NO, None)", 0.01410456629574668], ["'production of gloves' (unit, MY, None)", 0.005516493639685489], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0032277042411796436], ["'production of IV sets' (unit, RER, None)", 0.006937790848137161], ["'medical connector' (unit, GLO, None)", 0.0065681748151985835], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 8.779720618986894e-05], ["'stopcock' (unit, GLO, None)", 0.0011307105630992498], ["'market for water, ultrapure' (kilogram, RER, None)", 0.010195062513354291], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.016243721869015886], ["'full box of vials' (unit, NO, None)", 2.3126034878632615], ["'production of gloves' (unit, MY, None)", 0.8566263197824634], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -2.611970886766097], ["'production of IV sets' (unit, RER, None)", 1.6210885191777475], ["'medical connector' (unit, GLO, None)", 0.891276217753728], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.016314342352475336], ["'stopcock' (unit, GLO, None)", 0.25945516205233926], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0020865442688410736], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.008843540281201889], ["'packed box of penicillin' (unit, SE, None)", 0.4576302393340222]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0007369616901001575], ["'packed box of penicillin' (unit, SE, None)", 0.037754494745056835], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.01473923380200315], ["'packed box of penicillin' (unit, SE, None)", 0.7627170655567036], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0020304652336269858], ["'full box of vials' (unit, NO, None)", 0.2890754359829077], ["'production of gloves' (unit, MY, None)", 0.10707828997280792], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.3264963608457621], ["'production of IV sets' (unit, RER, None)", 0.20263606489721844], ["'medical connector' (unit, GLO, None)", 0.111409527219216], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.002039292794059417], ["'stopcock' (unit, GLO, None)", 0.03243189525654241], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0002608180336051342], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.024365582803523828], ["'full box of vials' (unit, NO, None)", 3.4689052317948925], ["'production of gloves' (unit, MY, None)", 1.284939479673695], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -3.917956330149145], ["'production of IV sets' (unit, RER, None)", 2.4316327787666214], ["'medical connector' (unit, GLO, None)", 1.336914326630592], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.024471513528713], ["'stopcock' (unit, GLO, None)", 0.38918274307850886], ["'market for water, ultrapure' (kilogram, RER, None)", 3.1298164032616103], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0005393962595220704], ["'full box of vials' (unit, NO, None)", 0.28156609036251873], ["'production of gloves' (unit, MY, None)", 0.03331407969873994], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.044073894567201524], ["'production of IV sets' (unit, RER, None)", 0.048127892842804346], ["'medical connector' (unit, GLO, None)", 0.20256850861870548], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0012932892455575547], ["'stopcock' (unit, GLO, None)", 0.008854287782252078], ["'market for water, ultrapure' (kilogram, RER, None)", 8.99820918332611e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00014922419926931938], ["'packed box of penicillin' (unit, SE, None)", 0.013137869871494234]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.2435349939109948e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0010838742643982744], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.000248706998782199], ["'packed box of penicillin' (unit, SE, None)", 0.021896449785823724], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.74245324402588e-05], ["'full box of vials' (unit, NO, None)", 0.03519576129531484], ["'production of gloves' (unit, MY, None)", 0.004164259962342492], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0055092368209001905], ["'production of IV sets' (unit, RER, None)", 0.006015986605350543], ["'medical connector' (unit, GLO, None)", 0.025321063577338185], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00016166115569469434], ["'stopcock' (unit, GLO, None)", 0.0011067859727815097], ["'market for water, ultrapure' (kilogram, RER, None)", 1.1247761479157637e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0008090943892831056], ["'full box of vials' (unit, NO, None)", 0.422349135543778], ["'production of gloves' (unit, MY, None)", 0.049971119548109906], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.06611084185080228], ["'production of IV sets' (unit, RER, None)", 0.07219183926420653], ["'medical connector' (unit, GLO, None)", 0.30385276292805824], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0019399338683363321], ["'stopcock' (unit, GLO, None)", 0.013281431673378117], ["'market for water, ultrapure' (kilogram, RER, None)", 0.13497313774989164], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0007161148869852838], ["'full box of vials' (unit, NO, None)", 0.4047036121474077], ["'production of gloves' (unit, MY, None)", 0.04505622058537801], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.06013849416364849], ["'production of IV sets' (unit, RER, None)", 0.0633248313237868], ["'medical connector' (unit, GLO, None)", 0.2997110614226578], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.001702857781259095], ["'stopcock' (unit, GLO, None)", 0.011420183554835994], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0001199171236568016], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00020361528568440098], ["'packed box of penicillin' (unit, SE, None)", 0.01624216062156693]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.6967940473700082e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0013399782512792716], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00033935880947400166], ["'packed box of penicillin' (unit, SE, None)", 0.027070267702611547], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.951436087316048e-05], ["'full box of vials' (unit, NO, None)", 0.05058795151842596], ["'production of gloves' (unit, MY, None)", 0.005632027573172251], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.007517311770456061], ["'production of IV sets' (unit, RER, None)", 0.00791560391547335], ["'medical connector' (unit, GLO, None)", 0.037463882677832225], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00021285722265738688], ["'stopcock' (unit, GLO, None)", 0.0014275229443544992], ["'market for water, ultrapure' (kilogram, RER, None)", 1.49896404571002e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0010741723304779258], ["'full box of vials' (unit, NO, None)", 0.6070554182211114], ["'production of gloves' (unit, MY, None)", 0.06758433087806702], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.09020774124547273], ["'production of IV sets' (unit, RER, None)", 0.0949872469856802], ["'medical connector' (unit, GLO, None)", 0.4495665921339867], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0025542866718886426], ["'stopcock' (unit, GLO, None)", 0.01713027533225399], ["'market for water, ultrapure' (kilogram, RER, None)", 0.1798756854852024], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.05248988669806299], ["'full box of vials' (unit, NO, None)", 14.301716050441314], ["'production of gloves' (unit, MY, None)", 3.0669948056336995], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -2.407424308235562], ["'production of IV sets' (unit, RER, None)", 4.467059966129237], ["'medical connector' (unit, GLO, None)", 7.309464752542567], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.06349039094969096], ["'stopcock' (unit, GLO, None)", 0.8200580336425907], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00442860413792772], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.008150992086336366], ["'packed box of penicillin' (unit, SE, None)", 1.2874322675041932]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0006792493405280306], ["'packed box of penicillin' (unit, SE, None)", 0.10621316206909594], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.013584986810560614], ["'packed box of penicillin' (unit, SE, None)", 2.145720445840322], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.006561235837257874], ["'full box of vials' (unit, NO, None)", 1.7877145063051643], ["'production of gloves' (unit, MY, None)", 0.38337435070421244], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.3009280385294453], ["'production of IV sets' (unit, RER, None)", 0.5583824957661546], ["'medical connector' (unit, GLO, None)", 0.9136830940678209], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00793629886871137], ["'stopcock' (unit, GLO, None)", 0.10250725420532383], ["'market for water, ultrapure' (kilogram, RER, None)", 0.000553575517240965], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.07873483004709449], ["'full box of vials' (unit, NO, None)", 21.45257407566197], ["'production of gloves' (unit, MY, None)", 4.600492208450549], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -3.611136462353343], ["'production of IV sets' (unit, RER, None)", 6.700589949193855], ["'medical connector' (unit, GLO, None)", 10.96419712881385], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.09523558642453644], ["'stopcock' (unit, GLO, None)", 1.2300870504638861], ["'market for water, ultrapure' (kilogram, RER, None)", 6.642906206891579], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007265599675244371], ["'full box of vials' (unit, NO, None)", 0.6318714209494971], ["'production of gloves' (unit, MY, None)", 0.44173734239298523], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.26106890866192106], ["'production of IV sets' (unit, RER, None)", 0.7612535721808621], ["'medical connector' (unit, GLO, None)", 0.2579064451856883], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.004372110496392368], ["'stopcock' (unit, GLO, None)", 0.11463912745703492], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0005381387328113461], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.000883920039693387], ["'packed box of penicillin' (unit, SE, None)", 0.12863278284857052]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.366000330778225e-05], ["'packed box of penicillin' (unit, SE, None)", 0.010612204585007067], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0014732000661556452], ["'packed box of penicillin' (unit, SE, None)", 0.21438797141428417], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0009081999594055464], ["'full box of vials' (unit, NO, None)", 0.07898392761868714], ["'production of gloves' (unit, MY, None)", 0.055217167799123154], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03263361358274013], ["'production of IV sets' (unit, RER, None)", 0.09515669652260776], ["'medical connector' (unit, GLO, None)", 0.032238305648211035], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.000546513812049046], ["'stopcock' (unit, GLO, None)", 0.014329890932129365], ["'market for water, ultrapure' (kilogram, RER, None)", 6.726734160141826e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.010898399512866556], ["'full box of vials' (unit, NO, None)", 0.9478071314242456], ["'production of gloves' (unit, MY, None)", 0.6626060135894778], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.3916033629928816], ["'production of IV sets' (unit, RER, None)", 1.141880358271293], ["'medical connector' (unit, GLO, None)", 0.3868596677785324], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.006558165744588553], ["'stopcock' (unit, GLO, None)", 0.17195869118555238], ["'market for water, ultrapure' (kilogram, RER, None)", 0.8072080992170191], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.926130773056059e-06], ["'full box of vials' (unit, NO, None)", 0.0008904861720126011], ["'production of gloves' (unit, MY, None)", 0.00021531010213613963], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0007126424694177193], ["'production of IV sets' (unit, RER, None)", 0.0004056313380458711], ["'medical connector' (unit, GLO, None)", 0.0005045982297318514], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.3793822652265658e-05], ["'stopcock' (unit, GLO, None)", 7.287994353215466e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 3.739199914138213e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.412845571366149e-06], ["'packed box of penicillin' (unit, SE, None)", 9.831030984381686e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.0107046428051243e-07], ["'packed box of penicillin' (unit, SE, None)", 8.11060056211489e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.021409285610249e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0001638505164063614], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 7.407663466320073e-07], ["'full box of vials' (unit, NO, None)", 0.00011131077150157514], ["'production of gloves' (unit, MY, None)", 2.6913762767017454e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.908030867721491e-05], ["'production of IV sets' (unit, RER, None)", 5.0703917255733884e-05], ["'medical connector' (unit, GLO, None)", 6.307477871648142e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.7242278315332072e-06], ["'stopcock' (unit, GLO, None)", 9.109992941519333e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 4.673999892672767e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.889196159584089e-06], ["'full box of vials' (unit, NO, None)", 0.0013357292580189015], ["'production of gloves' (unit, MY, None)", 0.00032296515320420945], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001068963704126579], ["'production of IV sets' (unit, RER, None)", 0.0006084470070688066], ["'medical connector' (unit, GLO, None)", 0.000756897344597777], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.0690733978398486e-05], ["'stopcock' (unit, GLO, None)", 0.00010931991529823198], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0560879987120732], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.2314469764526185e-06], ["'full box of vials' (unit, NO, None)", 0.00020231913355328712], ["'production of gloves' (unit, MY, None)", 5.0437018020273375e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.660737112964869e-05], ["'production of IV sets' (unit, RER, None)", 5.544355067113481e-05], ["'medical connector' (unit, GLO, None)", 2.84814081542703e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.4991507231685535e-06], ["'stopcock' (unit, GLO, None)", 8.591940214211016e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 5.122959029676409e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.916597039483499e-07], ["'packed box of penicillin' (unit, SE, None)", 8.731206160125783e-05]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.5971641995695826e-08], ["'packed box of penicillin' (unit, SE, None)", 7.2032450821037715e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.1943283991391655e-07], ["'packed box of penicillin' (unit, SE, None)", 0.00014552010266876303], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.789308720565773e-07], ["'full box of vials' (unit, NO, None)", 2.528989169416089e-05], ["'production of gloves' (unit, MY, None)", 6.304627252534172e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -7.075921391206086e-06], ["'production of IV sets' (unit, RER, None)", 6.930443833891851e-06], ["'medical connector' (unit, GLO, None)", 3.5601760192837875e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.8739384039606918e-07], ["'stopcock' (unit, GLO, None)", 1.073992526776377e-06], ["'market for water, ultrapure' (kilogram, RER, None)", 6.403698787095511e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.3471704646789277e-06], ["'full box of vials' (unit, NO, None)", 0.00030347870032993064], ["'production of gloves' (unit, MY, None)", 7.565552703041006e-05], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.491105669447302e-05], ["'production of IV sets' (unit, RER, None)", 8.316532600670222e-05], ["'medical connector' (unit, GLO, None)", 4.272211223140545e-05], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.24872608475283e-06], ["'stopcock' (unit, GLO, None)", 1.2887910321316524e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 0.007684438544514613], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0007189294479343736], ["'full box of vials' (unit, NO, None)", 0.2634185120750589], ["'production of gloves' (unit, MY, None)", 0.04509355762045226], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.28647389842256993], ["'production of IV sets' (unit, RER, None)", 0.07236007607417651], ["'medical connector' (unit, GLO, None)", 0.14160733842832027], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0031051834728215637], ["'stopcock' (unit, GLO, None)", 0.012310559558702512], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0004366066016723249], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.000969935566244426], ["'packed box of penicillin' (unit, SE, None)", 0.018337636092071813]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -8.082796385370218e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0015128549775959247], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0016165592770740437], ["'packed box of penicillin' (unit, SE, None)", 0.030562726820119686], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.98661809917967e-05], ["'full box of vials' (unit, NO, None)", 0.03292731400938236], ["'production of gloves' (unit, MY, None)", 0.005636694702556532], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03580923730282124], ["'production of IV sets' (unit, RER, None)", 0.009045009509272063], ["'medical connector' (unit, GLO, None)", 0.017700917303540033], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00038814793410269546], ["'stopcock' (unit, GLO, None)", 0.001538819944837814], ["'market for water, ultrapure' (kilogram, RER, None)", 5.457582520904061e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0010783941719015604], ["'full box of vials' (unit, NO, None)", 0.39512776811258826], ["'production of gloves' (unit, MY, None)", 0.06764033643067839], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.42971084763385486], ["'production of IV sets' (unit, RER, None)", 0.10854011411126477], ["'medical connector' (unit, GLO, None)", 0.2124110076424804], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.004657775209232345], ["'stopcock' (unit, GLO, None)", 0.018465839338053767], ["'market for water, ultrapure' (kilogram, RER, None)", 0.6549099025084874], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.015255465349334188], ["'full box of vials' (unit, NO, None)", 4.933055594757961], ["'production of gloves' (unit, MY, None)", 0.8667009128310944], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.0335719665711034], ["'production of IV sets' (unit, RER, None)", 1.0650179752846562], ["'medical connector' (unit, GLO, None)", 3.564986642230404], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.029573314241841724], ["'stopcock' (unit, GLO, None)", 0.18991657738460235], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0024146999598289214], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0034994399806140106], ["'packed box of penicillin' (unit, SE, None)", 0.2624053654595364]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0002916199983845009], ["'packed box of penicillin' (unit, SE, None)", 0.021648442650411756], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.005832399967690019], ["'packed box of penicillin' (unit, SE, None)", 0.437342275765894], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0019069331686667735], ["'full box of vials' (unit, NO, None)", 0.6166319493447451], ["'production of gloves' (unit, MY, None)", 0.1083376141038868], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.12919649582138792], ["'production of IV sets' (unit, RER, None)", 0.13312724691058203], ["'medical connector' (unit, GLO, None)", 0.4456233302788005], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0036966642802302154], ["'stopcock' (unit, GLO, None)", 0.023739572173075294], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0003018374949786152], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.02288319802400128], ["'full box of vials' (unit, NO, None)", 7.3995833921369405], ["'production of gloves' (unit, MY, None)", 1.3000513692466416], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.550357949856655], ["'production of IV sets' (unit, RER, None)", 1.5975269629269844], ["'medical connector' (unit, GLO, None)", 5.347479963345606], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.04435997136276258], ["'stopcock' (unit, GLO, None)", 0.28487486607690354], ["'market for water, ultrapure' (kilogram, RER, None)", 3.622049939743382], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0012393423168671784], ["'full box of vials' (unit, NO, None)", 0.12028623938441502], ["'production of gloves' (unit, MY, None)", 0.057113719689893296], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.03873342079275866], ["'production of IV sets' (unit, RER, None)", 0.09471384149905027], ["'medical connector' (unit, GLO, None)", 0.03746162316014347], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.008570651856405993], ["'stopcock' (unit, GLO, None)", 0.016409668769635007], ["'market for water, ultrapure' (kilogram, RER, None)", 0.0010587858837099653], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0001311425670897643], ["'packed box of penicillin' (unit, SE, None)", 0.029811234935928056]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.092854725748036e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0024594268822140646], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0002185709451496072], ["'packed box of penicillin' (unit, SE, None)", 0.04968539155988009], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0001549177896083973], ["'full box of vials' (unit, NO, None)", 0.015035779923051877], ["'production of gloves' (unit, MY, None)", 0.007139214961236662], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.004841677599094833], ["'production of IV sets' (unit, RER, None)", 0.011839230187381283], ["'medical connector' (unit, GLO, None)", 0.004682702895017933], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0010713314820507492], ["'stopcock' (unit, GLO, None)", 0.002051208596204376], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00013234823546374566], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0018590134753007676], ["'full box of vials' (unit, NO, None)", 0.1804293590766225], ["'production of gloves' (unit, MY, None)", 0.08567057953483995], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.05810013118913799], ["'production of IV sets' (unit, RER, None)", 0.1420707622485754], ["'medical connector' (unit, GLO, None)", 0.0561924347402152], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.01285597778460899], ["'stopcock' (unit, GLO, None)", 0.02461450315445251], ["'market for water, ultrapure' (kilogram, RER, None)", 1.5881788255649478], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0057150065988474255], ["'full box of vials' (unit, NO, None)", 0.2204166483002501], ["'production of gloves' (unit, MY, None)", 0.08021278198816323], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.010380880143892452], ["'production of IV sets' (unit, RER, None)", 0.04978759177123174], ["'medical connector' (unit, GLO, None)", 0.01921834111323926], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0005222598997224458], ["'stopcock' (unit, GLO, None)", 0.00563027820627378], ["'market for water, ultrapure' (kilogram, RER, None)", 5.736706269591079e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.514730200513857e-05], ["'packed box of penicillin' (unit, SE, None)", 0.048062569173514764]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.9289418337615475e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0039651619568149684], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.8578836675230956e-05], ["'packed box of penicillin' (unit, SE, None)", 0.08010428195585793], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0007143758248559282], ["'full box of vials' (unit, NO, None)", 0.027552081037531262], ["'production of gloves' (unit, MY, None)", 0.010026597748520404], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0012976100179865565], ["'production of IV sets' (unit, RER, None)", 0.006223448971403967], ["'medical connector' (unit, GLO, None)", 0.0024022926391549077], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.528248746530573e-05], ["'stopcock' (unit, GLO, None)", 0.0007037847757842225], ["'market for water, ultrapure' (kilogram, RER, None)", 7.1708828369888485e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.008572509898271139], ["'full box of vials' (unit, NO, None)", 0.33062497245037514], ["'production of gloves' (unit, MY, None)", 0.12031917298224484], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.015571320215838676], ["'production of IV sets' (unit, RER, None)", 0.0746813876568476], ["'medical connector' (unit, GLO, None)", 0.02882751166985889], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0007833898495836687], ["'stopcock' (unit, GLO, None)", 0.008445417309410671], ["'market for water, ultrapure' (kilogram, RER, None)", 0.08605059404386618], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.004980466779173156], ["'full box of vials' (unit, NO, None)", 0.06619960654200355], ["'production of gloves' (unit, MY, None)", 0.06159646494000734], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.041004539978497186], ["'production of IV sets' (unit, RER, None)", 0.03908468082406645], ["'medical connector' (unit, GLO, None)", 0.02927672389114695], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0009786759132296508], ["'stopcock' (unit, GLO, None)", 0.004439377917735501], ["'market for water, ultrapure' (kilogram, RER, None)", 5.5813153194693824e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00013883206093980572], ["'packed box of penicillin' (unit, SE, None)", 0.007421566468744033]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1569338411650477e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0006122792336713828], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00023138676823300958], ["'packed box of penicillin' (unit, SE, None)", 0.01236927744790672], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0006225583473966445], ["'full box of vials' (unit, NO, None)", 0.008274950817750443], ["'production of gloves' (unit, MY, None)", 0.007699558117500917], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.005125567497312148], ["'production of IV sets' (unit, RER, None)", 0.004885585103008306], ["'medical connector' (unit, GLO, None)", 0.0036595904863933686], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00012233448915370635], ["'stopcock' (unit, GLO, None)", 0.0005549222397169376], ["'market for water, ultrapure' (kilogram, RER, None)", 6.976644149336728e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.007470700168759734], ["'full box of vials' (unit, NO, None)", 0.09929940981300531], ["'production of gloves' (unit, MY, None)", 0.09239469741001101], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.061506809967745775], ["'production of IV sets' (unit, RER, None)", 0.058627021236099676], ["'medical connector' (unit, GLO, None)", 0.04391508583672042], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0014680138698444762], ["'stopcock' (unit, GLO, None)", 0.006659066876603252], ["'market for water, ultrapure' (kilogram, RER, None)", 0.08371972979204073], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.609296160629044e-09], ["'full box of vials' (unit, NO, None)", 9.561837904817012e-07], ["'production of gloves' (unit, MY, None)", 2.4452631005451826e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -6.928140394396146e-07], ["'production of IV sets' (unit, RER, None)", 4.887379292264024e-07], ["'medical connector' (unit, GLO, None)", 2.446289098922051e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.659571691348572e-09], ["'stopcock' (unit, GLO, None)", 6.615674283758356e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.022454299070009e-09], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.3457110093925205e-09], ["'packed box of penicillin' (unit, SE, None)", 5.180384736096028e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.9547591744937672e-10], ["'packed box of penicillin' (unit, SE, None)", 4.2738174072792236e-08], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.909518348987535e-09], ["'packed box of penicillin' (unit, SE, None)", 8.633974560160046e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 8.261620200786305e-10], ["'full box of vials' (unit, NO, None)", 1.1952297381021265e-07], ["'production of gloves' (unit, MY, None)", 3.056578875681478e-08], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.660175492995183e-08], ["'production of IV sets' (unit, RER, None)", 6.10922411533003e-08], ["'medical connector' (unit, GLO, None)", 3.057861373652564e-08], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.574464614185715e-10], ["'stopcock' (unit, GLO, None)", 8.269592854697945e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 1.2780678738375112e-10], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 9.913944240943567e-09], ["'full box of vials' (unit, NO, None)", 1.4342756857225517e-06], ["'production of gloves' (unit, MY, None)", 3.6678946508177736e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.0392210591594218e-06], ["'production of IV sets' (unit, RER, None)", 7.331068938396036e-07], ["'medical connector' (unit, GLO, None)", 3.6694336483830766e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.1489357537022858e-08], ["'stopcock' (unit, GLO, None)", 9.923511425637534e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 1.5336814486050133e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 2.6924641401424786e-05], ["'full box of vials' (unit, NO, None)", 0.004045681043455386], ["'production of gloves' (unit, MY, None)", 0.0015762351636249825], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0009835393702132794], ["'production of IV sets' (unit, RER, None)", 0.002117382928041582], ["'medical connector' (unit, GLO, None)", 0.0018895950306343713], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.3885491155877883e-05], ["'stopcock' (unit, GLO, None)", 0.0003629713952149555], ["'market for water, ultrapure' (kilogram, RER, None)", 2.817275637972366e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.3300409643936893e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0004103405518701191]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.775034136994741e-07], ["'packed box of penicillin' (unit, SE, None)", 3.385309552928482e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.550068273989484e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0006839009197835318], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.365580175178098e-06], ["'full box of vials' (unit, NO, None)", 0.0005057101304319232], ["'production of gloves' (unit, MY, None)", 0.00019702939545312282], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00012294242127665992], ["'production of IV sets' (unit, RER, None)", 0.00026467286600519776], ["'medical connector' (unit, GLO, None)", 0.00023619937882929642], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 2.9856863944847354e-06], ["'stopcock' (unit, GLO, None)", 4.537142440186944e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 3.5215945474654575e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.038696210213718e-05], ["'full box of vials' (unit, NO, None)", 0.006068521565183078], ["'production of gloves' (unit, MY, None)", 0.002364352745437474], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001475309055319919], ["'production of IV sets' (unit, RER, None)", 0.003176074392062373], ["'medical connector' (unit, GLO, None)", 0.002834392545951557], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.5828236733816825e-05], ["'stopcock' (unit, GLO, None)", 0.0005444570928224333], ["'market for water, ultrapure' (kilogram, RER, None)", 0.004225913456958549], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.240978956877486e-05], ["'full box of vials' (unit, NO, None)", 0.007369874401762008], ["'production of gloves' (unit, MY, None)", 0.003221757065340166], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.001934474897621679], ["'production of IV sets' (unit, RER, None)", 0.0034814331541133158], ["'medical connector' (unit, GLO, None)", 0.0026425039170971925], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.184140242641487e-05], ["'stopcock' (unit, GLO, None)", 0.0005728754440301466], ["'market for water, ultrapure' (kilogram, RER, None)", 3.776941649502609e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -6.549692715806278e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0010308940648632117]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.458077263171898e-07], ["'packed box of penicillin' (unit, SE, None)", 8.504876035121496e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.0916154526343798e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0017181567747720193], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.301223696096857e-06], ["'full box of vials' (unit, NO, None)", 0.000921234300220251], ["'production of gloves' (unit, MY, None)", 0.00040271963316752075], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.00024180936220270988], ["'production of IV sets' (unit, RER, None)", 0.00043517914426416447], ["'medical connector' (unit, GLO, None)", 0.00033031298963714906], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.980175303301859e-06], ["'stopcock' (unit, GLO, None)", 7.160943050376832e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.7211770618782613e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.361468435316228e-05], ["'full box of vials' (unit, NO, None)", 0.011054811602643011], ["'production of gloves' (unit, MY, None)", 0.004832635598010249], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0029017123464325184], ["'production of IV sets' (unit, RER, None)", 0.005222149731169974], ["'medical connector' (unit, GLO, None)", 0.003963755875645789], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.77621036396223e-05], ["'stopcock' (unit, GLO, None)", 0.0008593131660452199], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005665412474253913], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.499457108567507e-05], ["'full box of vials' (unit, NO, None)", 0.007585624671381673], ["'production of gloves' (unit, MY, None)", 0.003454020051750726], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.002074633869746332], ["'production of IV sets' (unit, RER, None)", 0.0036998477359973677], ["'medical connector' (unit, GLO, None)", 0.0027154717807734994], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 3.288640543856772e-05], ["'stopcock' (unit, GLO, None)", 0.0006136156913807194], ["'market for water, ultrapure' (kilogram, RER, None)", 3.9159626136592695e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -7.024239167107667e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0010833697612988562]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.85353263925639e-07], ["'packed box of penicillin' (unit, SE, None)", 8.937800530715565e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.170706527851278e-05], ["'packed box of penicillin' (unit, SE, None)", 0.001805616268831427], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.624321385709384e-06], ["'full box of vials' (unit, NO, None)", 0.0009482030839227092], ["'production of gloves' (unit, MY, None)", 0.00043175250646884075], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0002593292337182915], ["'production of IV sets' (unit, RER, None)", 0.00046248096699967096], ["'medical connector' (unit, GLO, None)", 0.0003394339725966874], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.110800679820965e-06], ["'stopcock' (unit, GLO, None)", 7.670196142258992e-05], ["'market for water, ultrapure' (kilogram, RER, None)", 4.894953267074087e-07], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 6.74918566285126e-05], ["'full box of vials' (unit, NO, None)", 0.01137843700707251], ["'production of gloves' (unit, MY, None)", 0.005181030077626089], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.003111950804619498], ["'production of IV sets' (unit, RER, None)", 0.005549771603996051], ["'medical connector' (unit, GLO, None)", 0.0040732076711602495], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.9329608157851574e-05], ["'stopcock' (unit, GLO, None)", 0.0009204235370710791], ["'market for water, ultrapure' (kilogram, RER, None)", 0.005873943920488903], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.00024747280232208035], ["'full box of vials' (unit, NO, None)", 0.021171185225376747], ["'production of gloves' (unit, MY, None)", 0.012235507206657835], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.008862464279184181], ["'production of IV sets' (unit, RER, None)", 0.01817229977304952], ["'medical connector' (unit, GLO, None)", 0.008714958728842476], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0008640461783271962], ["'stopcock' (unit, GLO, None)", 0.002943669366128355], ["'market for water, ultrapure' (kilogram, RER, None)", 8.463821061110885e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.000629151386954e-05], ["'packed box of penicillin' (unit, SE, None)", 0.009531146138618031]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.5005242928224614e-06], ["'packed box of penicillin' (unit, SE, None)", 0.0007863195564359875], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -5.001048585644924e-05], ["'packed box of penicillin' (unit, SE, None)", 0.015885243564363383], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.093410029026004e-05], ["'full box of vials' (unit, NO, None)", 0.0026463981531720934], ["'production of gloves' (unit, MY, None)", 0.0015294384008322293], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.0011078080348980227], ["'production of IV sets' (unit, RER, None)", 0.00227153747163119], ["'medical connector' (unit, GLO, None)", 0.0010893698411053095], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00010800577229089952], ["'stopcock' (unit, GLO, None)", 0.00036795867076604437], ["'market for water, ultrapure' (kilogram, RER, None)", 1.0579776326388606e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0003712092034831205], ["'full box of vials' (unit, NO, None)", 0.03175677783806512], ["'production of gloves' (unit, MY, None)", 0.01835326080998675], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.013293696418776271], ["'production of IV sets' (unit, RER, None)", 0.02725844965957428], ["'medical connector' (unit, GLO, None)", 0.013072438093263715], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0012960692674907942], ["'stopcock' (unit, GLO, None)", 0.004415504049192533], ["'market for water, ultrapure' (kilogram, RER, None)", 0.12695731591666326], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.1836383231866645e-10], ["'full box of vials' (unit, NO, None)", 1.2401375433522093e-08], ["'production of gloves' (unit, MY, None)", 4.54298776030763e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -8.67189033811057e-09], ["'production of IV sets' (unit, RER, None)", 6.802726838276058e-09], ["'medical connector' (unit, GLO, None)", 4.538560454930221e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.801019144807236e-11], ["'stopcock' (unit, GLO, None)", 1.0811216984447698e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 3.347358788182371e-11], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.936105141994099e-11], ["'packed box of penicillin' (unit, SE, None)", 2.1763101234868413e-09]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.446754284995082e-12], ["'packed box of penicillin' (unit, SE, None)", 1.7954558518766442e-10], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -4.893508569990165e-11], ["'packed box of penicillin' (unit, SE, None)", 3.6271835391447353e-09], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.4795479039833307e-11], ["'full box of vials' (unit, NO, None)", 1.5501719291902617e-09], ["'production of gloves' (unit, MY, None)", 5.678734700384537e-10], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.0839862922638212e-09], ["'production of IV sets' (unit, RER, None)", 8.503408547845072e-10], ["'medical connector' (unit, GLO, None)", 5.673200568662777e-10], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 9.751273931009045e-12], ["'stopcock' (unit, GLO, None)", 1.3514021230559622e-10], ["'market for water, ultrapure' (kilogram, RER, None)", 4.184198485227964e-12], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 1.7754574847799968e-10], ["'full box of vials' (unit, NO, None)", 1.860206315028314e-08], ["'production of gloves' (unit, MY, None)", 6.814481640461445e-09], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -1.3007835507165854e-08], ["'production of IV sets' (unit, RER, None)", 1.0204090257414086e-08], ["'medical connector' (unit, GLO, None)", 6.807840682395332e-09], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 1.1701528717210852e-10], ["'stopcock' (unit, GLO, None)", 1.6216825476671547e-09], ["'market for water, ultrapure' (kilogram, RER, None)", 5.021038182273556e-08], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 3.846193187093252e-08], ["'full box of vials' (unit, NO, None)", 6.742979700458225e-06], ["'production of gloves' (unit, MY, None)", 2.163394169229731e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -4.250881215692507e-06], ["'production of IV sets' (unit, RER, None)", 3.362395957388424e-06], ["'medical connector' (unit, GLO, None)", 3.3195909927222776e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 4.922082971516586e-08], ["'stopcock' (unit, GLO, None)", 5.602501104117258e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 5.9070398658390536e-09], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.4392518488337541e-08], ["'packed box of penicillin' (unit, SE, None)", 8.259205022586074e-07]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -1.1993765406947953e-09], ["'packed box of penicillin' (unit, SE, None)", 6.813844143633511e-08], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -2.3987530813895905e-08], ["'packed box of penicillin' (unit, SE, None)", 1.3765341704310122e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 4.807741483866565e-09], ["'full box of vials' (unit, NO, None)", 8.428724625572781e-07], ["'production of gloves' (unit, MY, None)", 2.7042427115371635e-07], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -5.313601519615633e-07], ["'production of IV sets' (unit, RER, None)", 4.20299494673553e-07], ["'medical connector' (unit, GLO, None)", 4.149488740902847e-07], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 6.152603714395733e-09], ["'stopcock' (unit, GLO, None)", 7.003126380146573e-08], ["'market for water, ultrapure' (kilogram, RER, None)", 7.383799832298817e-10], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 5.769289780639879e-08], ["'full box of vials' (unit, NO, None)", 1.0114469550687335e-05], ["'production of gloves' (unit, MY, None)", 3.245091253844596e-06], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -6.376321823538759e-06], ["'production of IV sets' (unit, RER, None)", 5.043593936082636e-06], ["'medical connector' (unit, GLO, None)", 4.979386489083416e-06], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 7.383124457274878e-08], ["'stopcock' (unit, GLO, None)", 8.403751656175887e-07], ["'market for water, ultrapure' (kilogram, RER, None)", 8.86055979875858e-06], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.003699539466949684], ["'full box of vials' (unit, NO, None)", 0.20277919446628237], ["'production of gloves' (unit, MY, None)", 0.182947688861069], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.10752300726897454], ["'production of IV sets' (unit, RER, None)", 0.2786955655888599], ["'medical connector' (unit, GLO, None)", 0.07648056823388771], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.0011586911890819002], ["'stopcock' (unit, GLO, None)", 0.04005615458827425], ["'market for water, ultrapure' (kilogram, RER, None)", 0.00012641492610225878], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0], ["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.00036404848565249343], ["'packed box of penicillin' (unit, SE, None)", 0.04499605965045185]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -3.033737380437446e-05], ["'packed box of penicillin' (unit, SE, None)", 0.0037121749211622775], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)", -0.0006067474760874892], ["'packed box of penicillin' (unit, SE, None)", 0.07499343275075307], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", -0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0004624424333687105], ["'full box of vials' (unit, NO, None)", 0.025347399308285296], ["'production of gloves' (unit, MY, None)", 0.022868461107633624], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.013440375908621818], ["'production of IV sets' (unit, RER, None)", 0.034836945698607485], ["'medical connector' (unit, GLO, None)", 0.009560071029235964], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00014483639863523752], ["'stopcock' (unit, GLO, None)", 0.0050070193235342815], ["'market for water, ultrapure' (kilogram, RER, None)", 1.5801865762782347e-05], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
+  </si>
+  <si>
+    <t>[["'production of alchohol wipes' (unit, DK, None)", 0.0055493092004245265], ["'full box of vials' (unit, NO, None)", 0.3041687916994235], ["'production of gloves' (unit, MY, None)", 0.27442153329160346], ["'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)", -0.1612845109034618], ["'production of IV sets' (unit, RER, None)", 0.4180433483832898], ["'medical connector' (unit, GLO, None)", 0.11472085235083157], ["'market for sodium chlorate, powder' (kilogram, RER, None)", 0.00173803678362285], ["'stopcock' (unit, GLO, None)", 0.06008423188241138], ["'market for water, ultrapure' (kilogram, RER, None)", 0.18962238915338814], ["'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)", 0.0]]</t>
   </si>
 </sst>
 </file>

--- a/results/LCIA/LCIA_results.xlsx
+++ b/results/LCIA/LCIA_results.xlsx
@@ -85,130 +85,130 @@
     <t>Penicillin V, Defined daily dose</t>
   </si>
   <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.03687377350639722, "'full box of vials' (unit, NO, None)": 0.002438811269004143, "'production of gloves' (unit, MY, None)": 2.5487657719362628e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0002160601095711479, "'production of IV sets' (unit, RER, None)": 0.007510064787632834, "'medical connector' (unit, GLO, None)": 0.0017344477131681203, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8090856463642605e-08, "'stopcock' (unit, GLO, None)": 0.0013791234080418571, "'market for water, ultrapure' (kilogram, RER, None)": 2.826776424295117e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0001239026682776555}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.0951510731399976e-05, "'packed box of penicillin' (unit, SE, None)": 0.0008129370896680477, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.708351511736244e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 9.157606061618091, "'full box of vials' (unit, NO, None)": 0.6797642657932736, "'production of gloves' (unit, MY, None)": 0.007824541303926095, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.043977797442494006, "'production of IV sets' (unit, RER, None)": 2.6021887356279105, "'medical connector' (unit, GLO, None)": 0.6079081935896292, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.482256131159481e-06, "'stopcock' (unit, GLO, None)": 0.3212348689127178, "'market for water, ultrapure' (kilogram, RER, None)": 0.00972956859064599, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.15039954351287288}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0027198090003005735, "'packed box of penicillin' (unit, SE, None)": 0.22658808859775792, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.0594192711933484e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.1027289922082144, "'full box of vials' (unit, NO, None)": 0.05388705068225301, "'production of gloves' (unit, MY, None)": 0.000337432919605203, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.009995236525857041, "'production of IV sets' (unit, RER, None)": 0.1359491112893313, "'medical connector' (unit, GLO, None)": 0.018047960158005204, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8204624103297398e-07, "'stopcock' (unit, GLO, None)": 0.012492779924667078, "'market for water, ultrapure' (kilogram, RER, None)": 0.00033203580675661166, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0025378130132093627}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00032751051068583974, "'packed box of penicillin' (unit, SE, None)": 0.01796235022741767, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.881234444008943e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.5745809800413217, "'full box of vials' (unit, NO, None)": 0.07095240600829245, "'production of gloves' (unit, MY, None)": 0.0004496893111358022, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.014788492908451925, "'production of IV sets' (unit, RER, None)": 0.16855450425410312, "'medical connector' (unit, GLO, None)": 0.023746812174586407, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.416887787840655e-07, "'stopcock' (unit, GLO, None)": 0.01689608276567772, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004282569023378724, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.003462826564810457}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0004676505510722726, "'packed box of penicillin' (unit, SE, None)": 0.023650802002764152, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.1835822669094316e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 56.83593116548929, "'full box of vials' (unit, NO, None)": 2.6454328532142863, "'production of gloves' (unit, MY, None)": 0.016607272715656627, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.360667253371816, "'production of IV sets' (unit, RER, None)": 11.566964195939653, "'medical connector' (unit, GLO, None)": 1.6751475067156671, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.7715337048192276e-05, "'stopcock' (unit, GLO, None)": 1.1501230564879843, "'market for water, ultrapure' (kilogram, RER, None)": 0.03075217754184183, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.13862157733378083}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.016880271556150322, "'packed box of penicillin' (unit, SE, None)": 0.8818109510714289, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.371034178760824e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.4760114102259623, "'full box of vials' (unit, NO, None)": 0.1821712711072902, "'production of gloves' (unit, MY, None)": 0.002018020334749927, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.012725749065683542, "'production of IV sets' (unit, RER, None)": 0.6837967361585064, "'medical connector' (unit, GLO, None)": 0.28547008943019353, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.452139893165589e-06, "'stopcock' (unit, GLO, None)": 0.16565150319386726, "'market for water, ultrapure' (kilogram, RER, None)": 0.004298967286016907, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.015032573624970104}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.000735375388837111, "'packed box of penicillin' (unit, SE, None)": 0.06072375703576341, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.3114295210618075e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.003483205819891305, "'full box of vials' (unit, NO, None)": 0.0005747426092024944, "'production of gloves' (unit, MY, None)": 0.00014021999691295897, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.489813809894416e-05, "'production of IV sets' (unit, RER, None)": 0.0007085002074647097, "'medical connector' (unit, GLO, None)": 0.00015211175147422895, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.000069133869748e-09, "'stopcock' (unit, GLO, None)": 8.074128794356362e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.7329978977877557e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.1034569967112516e-05}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.0345121285077176e-06, "'packed box of penicillin' (unit, SE, None)": 0.0001915808697341648, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.6905903187490804e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0010037883972532416, "'full box of vials' (unit, NO, None)": 6.2464613468254e-05, "'production of gloves' (unit, MY, None)": 1.921109637292979e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.4053438864662445e-06, "'production of IV sets' (unit, RER, None)": 0.0005893145726141097, "'medical connector' (unit, GLO, None)": 2.0791331489972104e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 7.53113354539674e-10, "'stopcock' (unit, GLO, None)": 1.89138817186539e-05, "'market for water, ultrapure' (kilogram, RER, None)": 3.2219775859022905e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.259501398776277e-06}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 2.981251539842128e-07, "'packed box of penicillin' (unit, SE, None)": 2.0821537822751333e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.056360565355121e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.0085092464862693, "'full box of vials' (unit, NO, None)": 0.1293826461137576, "'production of gloves' (unit, MY, None)": 0.00163727486533218, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.006987260151454363, "'production of IV sets' (unit, RER, None)": 0.11385661981675224, "'medical connector' (unit, GLO, None)": 0.027135028072205268, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.42638688178418e-07, "'stopcock' (unit, GLO, None)": 0.016910083754528685, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004616459876258445, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.016495414906957998}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00029952724620642196, "'packed box of penicillin' (unit, SE, None)": 0.04312754870458588, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.309307445554298e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 19.124255465019452, "'full box of vials' (unit, NO, None)": 1.2322214079751332, "'production of gloves' (unit, MY, None)": 0.00905512597768007, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.17590535184680844, "'production of IV sets' (unit, RER, None)": 2.188784540613683, "'medical connector' (unit, GLO, None)": 0.39938174456537434, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.148719601293815e-06, "'stopcock' (unit, GLO, None)": 0.3250128429457947, "'market for water, ultrapure' (kilogram, RER, None)": 0.007121871856965159, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.05951396844437705}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.005679903873110778, "'packed box of penicillin' (unit, SE, None)": 0.4107404693250445, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.3833091573253948e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.9543242997057164, "'full box of vials' (unit, NO, None)": 0.3571104943760466, "'production of gloves' (unit, MY, None)": 0.003970447074241809, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0018484501766666355, "'production of IV sets' (unit, RER, None)": 0.20871337205959184, "'medical connector' (unit, GLO, None)": 0.035517690500554644, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.1827803179068245e-07, "'stopcock' (unit, GLO, None)": 0.021417644848113586, "'market for water, ultrapure' (kilogram, RER, None)": 0.000615362580615432, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.002230303873870607}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002834343170125978, "'packed box of penicillin' (unit, SE, None)": 0.11903683145868221, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0450216699404443e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.886700903000281, "'full box of vials' (unit, NO, None)": 0.021760828160990366, "'production of gloves' (unit, MY, None)": 0.00021512651686035866, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0009482808379063375, "'production of IV sets' (unit, RER, None)": 0.33259128836154267, "'medical connector' (unit, GLO, None)": 0.018670347067374398, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.9288147257864155e-06, "'stopcock' (unit, GLO, None)": 0.03007979304831096, "'market for water, ultrapure' (kilogram, RER, None)": 0.00021113544250004932, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005977399525779672}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002633501681910835, "'packed box of penicillin' (unit, SE, None)": 0.007253609386996789, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.66212992376464e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.25416546117760835, "'full box of vials' (unit, NO, None)": 0.04077816330719616, "'production of gloves' (unit, MY, None)": 0.0002092993481978399, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0014445867303929784, "'production of IV sets' (unit, RER, None)": 0.06299082557386283, "'medical connector' (unit, GLO, None)": 0.014656755286088938, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.6809075379619639e-06, "'stopcock' (unit, GLO, None)": 0.0230986742704935, "'market for water, ultrapure' (kilogram, RER, None)": 0.0001664766728635228, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0023610768777571497}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.54871419697497e-05, "'packed box of penicillin' (unit, SE, None)": 0.01359272110239872, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.508758844567146e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.5315639414904654e-06, "'full box of vials' (unit, NO, None)": 3.191488205692017e-07, "'production of gloves' (unit, MY, None)": 3.834203679632982e-09, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.2070601951951626e-08, "'production of IV sets' (unit, RER, None)": 3.4392664008051865e-06, "'medical connector' (unit, GLO, None)": 1.83276723357176e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.2306374543392183e-12, "'stopcock' (unit, GLO, None)": 9.16973660450892e-08, "'market for water, ultrapure' (kilogram, RER, None)": 2.480877864385071e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.98928318147166e-08}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.3458744906226682e-09, "'packed box of penicillin' (unit, SE, None)": 1.063829401897339e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0091624084794008e-11}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.01570647054979859, "'full box of vials' (unit, NO, None)": 0.0009952287948037596, "'production of gloves' (unit, MY, None)": 1.0564784242098315e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 9.323734263665946e-05, "'production of IV sets' (unit, RER, None)": 0.0028193371897081657, "'medical connector' (unit, GLO, None)": 0.0007940185977603063, "'market for sodium chlorate, powder' (kilogram, RER, None)": 9.087066473931986e-09, "'stopcock' (unit, GLO, None)": 0.0005910881849974128, "'market for water, ultrapure' (kilogram, RER, None)": 1.3611427406045218e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.6633047758711216e-05}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 4.664821753290181e-06, "'packed box of penicillin' (unit, SE, None)": 0.0003317429316012532, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.7806512125202764e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.028468239812098402, "'full box of vials' (unit, NO, None)": 0.0013267250993028426, "'production of gloves' (unit, MY, None)": 1.4163531981861828e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013038775065437092, "'production of IV sets' (unit, RER, None)": 0.005326359857987854, "'medical connector' (unit, GLO, None)": 0.0013055374310446998, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.43133039828799e-08, "'stopcock' (unit, GLO, None)": 0.0012081588968752607, "'market for water, ultrapure' (kilogram, RER, None)": 2.148282919471022e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011138873801415913}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.455067224193225e-06, "'packed box of penicillin' (unit, SE, None)": 0.00044224169976761425, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.727841617626033e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.029319164480471484, "'full box of vials' (unit, NO, None)": 0.001370266892586484, "'production of gloves' (unit, MY, None)": 1.4684860725651736e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013398816811632376, "'production of IV sets' (unit, RER, None)": 0.005619212119632552, "'medical connector' (unit, GLO, None)": 0.001387442899209297, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.5185667755584578e-08, "'stopcock' (unit, GLO, None)": 0.001295257516709964, "'market for water, ultrapure' (kilogram, RER, None)": 2.3010588474039736e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011945921291183066}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.707791850700031e-06, "'packed box of penicillin' (unit, SE, None)": 0.00045675563086216143, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.865055342991537e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.09846959749397198, "'full box of vials' (unit, NO, None)": 0.0360019241349114, "'production of gloves' (unit, MY, None)": 0.00031739329180492616, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00043001785193021565, "'production of IV sets' (unit, RER, None)": 0.06341294965705647, "'medical connector' (unit, GLO, None)": 0.006814612420672324, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.352207093722833e-08, "'stopcock' (unit, GLO, None)": 0.00458831520443211, "'market for water, ultrapure' (kilogram, RER, None)": 0.00011038760143956678, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.000510308361458836}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 2.924547045570968e-05, "'packed box of penicillin' (unit, SE, None)": 0.012000641378303801, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.353791440305657e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.9024541089205705e-08, "'full box of vials' (unit, NO, None)": 3.250424631822603e-09, "'production of gloves' (unit, MY, None)": 1.2552595632407548e-10, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.2394391948019352e-10, "'production of IV sets' (unit, RER, None)": 1.3275643024918078e-08, "'medical connector' (unit, GLO, None)": 2.551022562941903e-09, "'market for sodium chlorate, powder' (kilogram, RER, None)": 3.9947793408828877e-14, "'stopcock' (unit, GLO, None)": 1.7036204046426842e-09, "'market for water, ultrapure' (kilogram, RER, None)": 4.054206389503784e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.993349475283916e-10}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.4560288703494096e-11, "'packed box of penicillin' (unit, SE, None)": 1.083474877274201e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.3038431704496666e-13}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.6331989940519182e-05, "'full box of vials' (unit, NO, None)": 2.050867904215491e-06, "'production of gloves' (unit, MY, None)": 2.2151400772758927e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.637969189098489e-07, "'production of IV sets' (unit, RER, None)": 5.212872849674814e-06, "'medical connector' (unit, GLO, None)": 1.2608984822087683e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2980902016512886e-11, "'stopcock' (unit, GLO, None)": 8.112728106451089e-07, "'market for water, ultrapure' (kilogram, RER, None)": 2.100937926796612e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.4476941816577837e-07}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.820601012334199e-09, "'packed box of penicillin' (unit, SE, None)": 6.836226347384971e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.83024868339015e-11}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.7961888513131341, "'full box of vials' (unit, NO, None)": 0.048278799751043315, "'production of gloves' (unit, MY, None)": 0.00047405600821686636, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.003773742559756964, "'production of IV sets' (unit, RER, None)": 0.2386394669772794, "'medical connector' (unit, GLO, None)": 0.10451083709719641, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2485945719127488e-06, "'stopcock' (unit, GLO, None)": 0.0686053832681468, "'market for water, ultrapure' (kilogram, RER, None)": 0.0015021057998050832, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.006191267786717013}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00023646808884000083, "'packed box of penicillin' (unit, SE, None)": 0.01609293325034777, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.2477154136267921e-06}</t>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.03687599128885077, "'full box of vials' (unit, NO, None)": 0.002438811219158838, "'production of gloves' (unit, MY, None)": 2.5487655181193988e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00021606011111678373, "'production of IV sets' (unit, RER, None)": 0.007513724073311152, "'medical connector' (unit, GLO, None)": 0.0017344477281822704, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.809085650704119e-08, "'stopcock' (unit, GLO, None)": 0.001379123421163791, "'market for water, ultrapure' (kilogram, RER, None)": 2.82677643401405e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00012390267267150542}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.095216941278868e-05, "'packed box of penicillin' (unit, SE, None)": 0.0008129370730529461, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.708350843690258e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 9.15819746391152, "'full box of vials' (unit, NO, None)": 0.6797642589426867, "'production of gloves' (unit, MY, None)": 0.007824541001041022, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.04397779769519084, "'production of IV sets' (unit, RER, None)": 2.6031645089523616, "'medical connector' (unit, GLO, None)": 0.6079081961884432, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.4822561328596534e-06, "'stopcock' (unit, GLO, None)": 0.3212348706867777, "'market for water, ultrapure' (kilogram, RER, None)": 0.009729568609049168, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.15039954374451905}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.002719984646781722, "'packed box of penicillin' (unit, SE, None)": 0.2265880863142289, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.0594191914739972e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.1027918266733838, "'full box of vials' (unit, NO, None)": 0.05388704819491359, "'production of gloves' (unit, MY, None)": 0.0003374327632707171, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.009995236595088717, "'production of IV sets' (unit, RER, None)": 0.13605279430910955, "'medical connector' (unit, GLO, None)": 0.018047960751005683, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8204624235459882e-07, "'stopcock' (unit, GLO, None)": 0.012492780408536224, "'market for water, ultrapure' (kilogram, RER, None)": 0.00033203580697507915, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0025378132414232233}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.000327529172521995, "'packed box of penicillin' (unit, SE, None)": 0.01796234939830453, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.881230329285274e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.5746661470927679, "'full box of vials' (unit, NO, None)": 0.07095240280146164, "'production of gloves' (unit, MY, None)": 0.00044968911016173864, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.01478849299863757, "'production of IV sets' (unit, RER, None)": 0.1686950375460201, "'medical connector' (unit, GLO, None)": 0.023746812954197526, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.416887805880026e-07, "'stopcock' (unit, GLO, None)": 0.016896083394812668, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004282569029177262, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0034628268610128335}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0004676758456865521, "'packed box of penicillin' (unit, SE, None)": 0.023650800933820552, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.1835817379456963e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 56.839779366368276, "'full box of vials' (unit, NO, None)": 2.6454326399879715, "'production of gloves' (unit, MY, None)": 0.016607258349745812, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.3606672604604086, "'production of IV sets' (unit, RER, None)": 11.573314103223865, "'medical connector' (unit, GLO, None)": 1.6751475800286304, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.7715337264655672e-05, "'stopcock' (unit, GLO, None)": 1.150123107100565, "'market for water, ultrapure' (kilogram, RER, None)": 0.03075217784152998, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.13862159996276088}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.01688141447181138, "'packed box of penicillin' (unit, SE, None)": 0.8818108799959905, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.371030397653098e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.4761450202313835, "'full box of vials' (unit, NO, None)": 0.18217126914294418, "'production of gloves' (unit, MY, None)": 0.0020180202531192015, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.012725749116188194, "'production of IV sets' (unit, RER, None)": 0.6840171844921856, "'medical connector' (unit, GLO, None)": 0.2854700899924798, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.4521398891490502e-06, "'stopcock' (unit, GLO, None)": 0.1656515035528201, "'market for water, ultrapure' (kilogram, RER, None)": 0.004298967287758422, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.015032573610983896}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0007354150710087209, "'packed box of penicillin' (unit, SE, None)": 0.0607237563809814, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.311429306209739e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.003486442859530362, "'full box of vials' (unit, NO, None)": 0.0005747426059833386, "'production of gloves' (unit, MY, None)": 0.0001402199966880572, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.4898138270273555e-05, "'production of IV sets' (unit, RER, None)": 0.0007138413112786659, "'medical connector' (unit, GLO, None)": 0.00015211175360090154, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.000069144812745e-09, "'stopcock' (unit, GLO, None)": 8.074128916414129e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.73299791267522e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.103457038626477e-05}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.0354735292805177e-06, "'packed box of penicillin' (unit, SE, None)": 0.0001915808686611129, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.690590312829666e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0010147729344861668, "'full box of vials' (unit, NO, None)": 6.246461306720517e-05, "'production of gloves' (unit, MY, None)": 1.921109635646681e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.4053438981334531e-06, "'production of IV sets' (unit, RER, None)": 0.0006074390570590995, "'medical connector' (unit, GLO, None)": 2.079133161330272e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 7.531133548021007e-10, "'stopcock' (unit, GLO, None)": 1.8913881794348918e-05, "'market for water, ultrapure' (kilogram, RER, None)": 3.22197759040506e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.259501418017439e-06}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 3.013875615423916e-07, "'packed box of penicillin' (unit, SE, None)": 2.0821537689068392e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.056360561022065e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.008614349969602, "'full box of vials' (unit, NO, None)": 0.12938264326667515, "'production of gloves' (unit, MY, None)": 0.0016372747483247695, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0069872602674408285, "'production of IV sets' (unit, RER, None)": 0.11403002376828243, "'medical connector' (unit, GLO, None)": 0.027135029208152847, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.426386943287326e-07, "'stopcock' (unit, GLO, None)": 0.016910084457867687, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004616459876020485, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.016495415120892556}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00029955846194097186, "'packed box of penicillin' (unit, SE, None)": 0.04312754775555839, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.309307137590793e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 19.130447432366296, "'full box of vials' (unit, NO, None)": 1.2322213718268222, "'production of gloves' (unit, MY, None)": 0.009055123633314255, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.17590535300444554, "'production of IV sets' (unit, RER, None)": 2.1990013469576892, "'medical connector' (unit, GLO, None)": 0.39938175571307044, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.148719634703583e-06, "'stopcock' (unit, GLO, None)": 0.3250128508974576, "'market for water, ultrapure' (kilogram, RER, None)": 0.0071218718989447885, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.059513972203317125}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.005681742887412791, "'packed box of penicillin' (unit, SE, None)": 0.4107404572756075, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.383308540288312e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.9544240647015759, "'full box of vials' (unit, NO, None)": 0.3571104942253917, "'production of gloves' (unit, MY, None)": 0.00397044706317054, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0018484501955930203, "'production of IV sets' (unit, RER, None)": 0.20887798199967178, "'medical connector' (unit, GLO, None)": 0.03551769074884779, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.1827803350125506e-07, "'stopcock' (unit, GLO, None)": 0.02141764497794181, "'market for water, ultrapure' (kilogram, RER, None)": 0.0006153625812945318, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00223030389672603}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002834639472163681, "'packed box of penicillin' (unit, SE, None)": 0.11903683140846391, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0450216670264861e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.8867178454987492, "'full box of vials' (unit, NO, None)": 0.02176082778009882, "'production of gloves' (unit, MY, None)": 0.00021512640371472653, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.000948280859940274, "'production of IV sets' (unit, RER, None)": 0.33261922330544524, "'medical connector' (unit, GLO, None)": 0.018670347089575857, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.9288147293366414e-06, "'stopcock' (unit, GLO, None)": 0.030079793081911083, "'market for water, ultrapure' (kilogram, RER, None)": 0.00021113546013968885, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005977400582210082}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00026335520011312854, "'packed box of penicillin' (unit, SE, None)": 0.00725360926003294, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.662126945771603e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.25418916593008745, "'full box of vials' (unit, NO, None)": 0.040778162362854455, "'production of gloves' (unit, MY, None)": 0.00020929931702298992, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.001444586756887401, "'production of IV sets' (unit, RER, None)": 0.06302993413100622, "'medical connector' (unit, GLO, None)": 0.01465675552791771, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.6809075394952411e-06, "'stopcock' (unit, GLO, None)": 0.02309867442366211, "'market for water, ultrapure' (kilogram, RER, None)": 0.00016647667404630034, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.002361076938021631}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.549418228123598e-05, "'packed box of penicillin' (unit, SE, None)": 0.013592720787618152, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.508758024045095e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.534613583951555e-06, "'full box of vials' (unit, NO, None)": 3.1914881829874047e-07, "'production of gloves' (unit, MY, None)": 3.8342036009936194e-09, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.2070602024453945e-08, "'production of IV sets' (unit, RER, None)": 3.4442983011362307e-06, "'medical connector' (unit, GLO, None)": 1.832767242754516e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.2306374555740777e-12, "'stopcock' (unit, GLO, None)": 9.169736687692799e-08, "'market for water, ultrapure' (kilogram, RER, None)": 2.480877871327275e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.989283198447722e-08}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.346780234433612e-09, "'packed box of penicillin' (unit, SE, None)": 1.0638293943291351e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0091623877815206e-11}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.01570731896700782, "'full box of vials' (unit, NO, None)": 0.0009952287770433926, "'production of gloves' (unit, MY, None)": 1.0564783297296858e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 9.323734333854125e-05, "'production of IV sets' (unit, RER, None)": 0.002820737018573794, "'medical connector' (unit, GLO, None)": 0.0007940186047471415, "'market for sodium chlorate, powder' (kilogram, RER, None)": 9.087066504422402e-09, "'stopcock' (unit, GLO, None)": 0.0005910881915482605, "'market for water, ultrapure' (kilogram, RER, None)": 1.3611427443396664e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.663304958430372e-05}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 4.6650737332013236e-06, "'packed box of penicillin' (unit, SE, None)": 0.0003317429256811309, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.780650963848533e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.028469902593481512, "'full box of vials' (unit, NO, None)": 0.0013267250712529284, "'production of gloves' (unit, MY, None)": 1.4163530975786153e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013038775144206985, "'production of IV sets' (unit, RER, None)": 0.005329103349090954, "'medical connector' (unit, GLO, None)": 0.0013055374386428968, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.4313303962684281e-08, "'stopcock' (unit, GLO, None)": 0.0012081589085005972, "'market for water, ultrapure' (kilogram, RER, None)": 2.1482829273697714e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011138873995824629}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.45556107026401e-06, "'packed box of penicillin' (unit, SE, None)": 0.0004422416904176429, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.727841352826915e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.029320884509801824, "'full box of vials' (unit, NO, None)": 0.001370266861425661, "'production of gloves' (unit, MY, None)": 1.4684859631314947e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013398816890110104, "'production of IV sets' (unit, RER, None)": 0.0056220500711255126, "'medical connector' (unit, GLO, None)": 0.0013874429068758327, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.5185667717271498e-08, "'stopcock' (unit, GLO, None)": 0.00129525752812853, "'market for water, ultrapure' (kilogram, RER, None)": 2.301058855254493e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011945921458723627}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.708302699411142e-06, "'packed box of penicillin' (unit, SE, None)": 0.00045675562047522034, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.865055054962094e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0984780181258722, "'full box of vials' (unit, NO, None)": 0.03600192407055957, "'production of gloves' (unit, MY, None)": 0.0003173932895559447, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0004300178534555128, "'production of IV sets' (unit, RER, None)": 0.06342684359841966, "'medical connector' (unit, GLO, None)": 0.006814612431333982, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.352207092016413e-08, "'stopcock' (unit, GLO, None)": 0.0045883152102746995, "'market for water, ultrapure' (kilogram, RER, None)": 0.00011038760144267684, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005103083642199823}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 2.924797138338405e-05, "'packed box of penicillin' (unit, SE, None)": 0.01200064135685319, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.353791381112465e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.902932398442658e-08, "'full box of vials' (unit, NO, None)": 3.250424588023479e-09, "'production of gloves' (unit, MY, None)": 1.255259533483824e-10, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.2394392106546851e-10, "'production of IV sets' (unit, RER, None)": 1.3283534486921163e-08, "'medical connector' (unit, GLO, None)": 2.5510225773413464e-09, "'market for sodium chlorate, powder' (kilogram, RER, None)": 3.994779346027959e-14, "'stopcock' (unit, GLO, None)": 1.7036204159597961e-09, "'market for water, ultrapure' (kilogram, RER, None)": 4.054206414751791e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.99334950990401e-10}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.4561709223374696e-11, "'packed box of penicillin' (unit, SE, None)": 1.083474862674493e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.303843092129425e-13}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.633485617414525e-05, "'full box of vials' (unit, NO, None)": 2.050867868836324e-06, "'production of gloves' (unit, MY, None)": 2.215139896920989e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.6379692023869563e-07, "'production of IV sets' (unit, RER, None)": 5.217602017801188e-06, "'medical connector' (unit, GLO, None)": 1.2608984953567032e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2980902065251225e-11, "'stopcock' (unit, GLO, None)": 8.112728205819187e-07, "'market for water, ultrapure' (kilogram, RER, None)": 2.1009379318096128e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.4476942110326793e-07}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.82145228372114e-09, "'packed box of penicillin' (unit, SE, None)": 6.836226229454415e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.830248208696044e-11}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.7962346041941827, "'full box of vials' (unit, NO, None)": 0.048278798871591394, "'production of gloves' (unit, MY, None)": 0.00047405597484428193, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0037737425754329895, "'production of IV sets' (unit, RER, None)": 0.23871495679333327, "'medical connector' (unit, GLO, None)": 0.10451083724522091, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2485945693722554e-06, "'stopcock' (unit, GLO, None)": 0.06860538337334873, "'market for water, ultrapure' (kilogram, RER, None)": 0.0015021057997467893, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.006191267771795764}</t>
+  </si>
+  <si>
+    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002364816774456723, "'packed box of penicillin' (unit, SE, None)": 0.01609293295719713, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.2477153257901502e-06}</t>
   </si>
 </sst>
 </file>

--- a/results/LCIA/LCIA_results.xlsx
+++ b/results/LCIA/LCIA_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="penicillin" sheetId="1" r:id="rId1"/>
+    <sheet name="penicillin_cut_off" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -85,130 +85,130 @@
     <t>Penicillin V, Defined daily dose</t>
   </si>
   <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.03687599128885077, "'full box of vials' (unit, NO, None)": 0.002438811219158838, "'production of gloves' (unit, MY, None)": 2.5487655181193988e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00021606011111678373, "'production of IV sets' (unit, RER, None)": 0.007513724073311152, "'medical connector' (unit, GLO, None)": 0.0017344477281822704, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.809085650704119e-08, "'stopcock' (unit, GLO, None)": 0.001379123421163791, "'market for water, ultrapure' (kilogram, RER, None)": 2.82677643401405e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00012390267267150542}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.095216941278868e-05, "'packed box of penicillin' (unit, SE, None)": 0.0008129370730529461, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.708350843690258e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 9.15819746391152, "'full box of vials' (unit, NO, None)": 0.6797642589426867, "'production of gloves' (unit, MY, None)": 0.007824541001041022, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.04397779769519084, "'production of IV sets' (unit, RER, None)": 2.6031645089523616, "'medical connector' (unit, GLO, None)": 0.6079081961884432, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.4822561328596534e-06, "'stopcock' (unit, GLO, None)": 0.3212348706867777, "'market for water, ultrapure' (kilogram, RER, None)": 0.009729568609049168, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.15039954374451905}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.002719984646781722, "'packed box of penicillin' (unit, SE, None)": 0.2265880863142289, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.0594191914739972e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.1027918266733838, "'full box of vials' (unit, NO, None)": 0.05388704819491359, "'production of gloves' (unit, MY, None)": 0.0003374327632707171, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.009995236595088717, "'production of IV sets' (unit, RER, None)": 0.13605279430910955, "'medical connector' (unit, GLO, None)": 0.018047960751005683, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8204624235459882e-07, "'stopcock' (unit, GLO, None)": 0.012492780408536224, "'market for water, ultrapure' (kilogram, RER, None)": 0.00033203580697507915, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0025378132414232233}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.000327529172521995, "'packed box of penicillin' (unit, SE, None)": 0.01796234939830453, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.881230329285274e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.5746661470927679, "'full box of vials' (unit, NO, None)": 0.07095240280146164, "'production of gloves' (unit, MY, None)": 0.00044968911016173864, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.01478849299863757, "'production of IV sets' (unit, RER, None)": 0.1686950375460201, "'medical connector' (unit, GLO, None)": 0.023746812954197526, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.416887805880026e-07, "'stopcock' (unit, GLO, None)": 0.016896083394812668, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004282569029177262, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0034628268610128335}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0004676758456865521, "'packed box of penicillin' (unit, SE, None)": 0.023650800933820552, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.1835817379456963e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 56.839779366368276, "'full box of vials' (unit, NO, None)": 2.6454326399879715, "'production of gloves' (unit, MY, None)": 0.016607258349745812, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.3606672604604086, "'production of IV sets' (unit, RER, None)": 11.573314103223865, "'medical connector' (unit, GLO, None)": 1.6751475800286304, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.7715337264655672e-05, "'stopcock' (unit, GLO, None)": 1.150123107100565, "'market for water, ultrapure' (kilogram, RER, None)": 0.03075217784152998, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.13862159996276088}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.01688141447181138, "'packed box of penicillin' (unit, SE, None)": 0.8818108799959905, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.371030397653098e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.4761450202313835, "'full box of vials' (unit, NO, None)": 0.18217126914294418, "'production of gloves' (unit, MY, None)": 0.0020180202531192015, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.012725749116188194, "'production of IV sets' (unit, RER, None)": 0.6840171844921856, "'medical connector' (unit, GLO, None)": 0.2854700899924798, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.4521398891490502e-06, "'stopcock' (unit, GLO, None)": 0.1656515035528201, "'market for water, ultrapure' (kilogram, RER, None)": 0.004298967287758422, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.015032573610983896}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0007354150710087209, "'packed box of penicillin' (unit, SE, None)": 0.0607237563809814, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.311429306209739e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.003486442859530362, "'full box of vials' (unit, NO, None)": 0.0005747426059833386, "'production of gloves' (unit, MY, None)": 0.0001402199966880572, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.4898138270273555e-05, "'production of IV sets' (unit, RER, None)": 0.0007138413112786659, "'medical connector' (unit, GLO, None)": 0.00015211175360090154, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.000069144812745e-09, "'stopcock' (unit, GLO, None)": 8.074128916414129e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.73299791267522e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.103457038626477e-05}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.0354735292805177e-06, "'packed box of penicillin' (unit, SE, None)": 0.0001915808686611129, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.690590312829666e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0010147729344861668, "'full box of vials' (unit, NO, None)": 6.246461306720517e-05, "'production of gloves' (unit, MY, None)": 1.921109635646681e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.4053438981334531e-06, "'production of IV sets' (unit, RER, None)": 0.0006074390570590995, "'medical connector' (unit, GLO, None)": 2.079133161330272e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 7.531133548021007e-10, "'stopcock' (unit, GLO, None)": 1.8913881794348918e-05, "'market for water, ultrapure' (kilogram, RER, None)": 3.22197759040506e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.259501418017439e-06}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 3.013875615423916e-07, "'packed box of penicillin' (unit, SE, None)": 2.0821537689068392e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.056360561022065e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.008614349969602, "'full box of vials' (unit, NO, None)": 0.12938264326667515, "'production of gloves' (unit, MY, None)": 0.0016372747483247695, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0069872602674408285, "'production of IV sets' (unit, RER, None)": 0.11403002376828243, "'medical connector' (unit, GLO, None)": 0.027135029208152847, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.426386943287326e-07, "'stopcock' (unit, GLO, None)": 0.016910084457867687, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004616459876020485, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.016495415120892556}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00029955846194097186, "'packed box of penicillin' (unit, SE, None)": 0.04312754775555839, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.309307137590793e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 19.130447432366296, "'full box of vials' (unit, NO, None)": 1.2322213718268222, "'production of gloves' (unit, MY, None)": 0.009055123633314255, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.17590535300444554, "'production of IV sets' (unit, RER, None)": 2.1990013469576892, "'medical connector' (unit, GLO, None)": 0.39938175571307044, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.148719634703583e-06, "'stopcock' (unit, GLO, None)": 0.3250128508974576, "'market for water, ultrapure' (kilogram, RER, None)": 0.0071218718989447885, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.059513972203317125}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.005681742887412791, "'packed box of penicillin' (unit, SE, None)": 0.4107404572756075, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.383308540288312e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.9544240647015759, "'full box of vials' (unit, NO, None)": 0.3571104942253917, "'production of gloves' (unit, MY, None)": 0.00397044706317054, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0018484501955930203, "'production of IV sets' (unit, RER, None)": 0.20887798199967178, "'medical connector' (unit, GLO, None)": 0.03551769074884779, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.1827803350125506e-07, "'stopcock' (unit, GLO, None)": 0.02141764497794181, "'market for water, ultrapure' (kilogram, RER, None)": 0.0006153625812945318, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00223030389672603}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002834639472163681, "'packed box of penicillin' (unit, SE, None)": 0.11903683140846391, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0450216670264861e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.8867178454987492, "'full box of vials' (unit, NO, None)": 0.02176082778009882, "'production of gloves' (unit, MY, None)": 0.00021512640371472653, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.000948280859940274, "'production of IV sets' (unit, RER, None)": 0.33261922330544524, "'medical connector' (unit, GLO, None)": 0.018670347089575857, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.9288147293366414e-06, "'stopcock' (unit, GLO, None)": 0.030079793081911083, "'market for water, ultrapure' (kilogram, RER, None)": 0.00021113546013968885, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005977400582210082}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.00026335520011312854, "'packed box of penicillin' (unit, SE, None)": 0.00725360926003294, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.662126945771603e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.25418916593008745, "'full box of vials' (unit, NO, None)": 0.040778162362854455, "'production of gloves' (unit, MY, None)": 0.00020929931702298992, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.001444586756887401, "'production of IV sets' (unit, RER, None)": 0.06302993413100622, "'medical connector' (unit, GLO, None)": 0.01465675552791771, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.6809075394952411e-06, "'stopcock' (unit, GLO, None)": 0.02309867442366211, "'market for water, ultrapure' (kilogram, RER, None)": 0.00016647667404630034, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.002361076938021631}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.549418228123598e-05, "'packed box of penicillin' (unit, SE, None)": 0.013592720787618152, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.508758024045095e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.534613583951555e-06, "'full box of vials' (unit, NO, None)": 3.1914881829874047e-07, "'production of gloves' (unit, MY, None)": 3.8342036009936194e-09, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.2070602024453945e-08, "'production of IV sets' (unit, RER, None)": 3.4442983011362307e-06, "'medical connector' (unit, GLO, None)": 1.832767242754516e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.2306374555740777e-12, "'stopcock' (unit, GLO, None)": 9.169736687692799e-08, "'market for water, ultrapure' (kilogram, RER, None)": 2.480877871327275e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.989283198447722e-08}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.346780234433612e-09, "'packed box of penicillin' (unit, SE, None)": 1.0638293943291351e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0091623877815206e-11}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.01570731896700782, "'full box of vials' (unit, NO, None)": 0.0009952287770433926, "'production of gloves' (unit, MY, None)": 1.0564783297296858e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 9.323734333854125e-05, "'production of IV sets' (unit, RER, None)": 0.002820737018573794, "'medical connector' (unit, GLO, None)": 0.0007940186047471415, "'market for sodium chlorate, powder' (kilogram, RER, None)": 9.087066504422402e-09, "'stopcock' (unit, GLO, None)": 0.0005910881915482605, "'market for water, ultrapure' (kilogram, RER, None)": 1.3611427443396664e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.663304958430372e-05}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 4.6650737332013236e-06, "'packed box of penicillin' (unit, SE, None)": 0.0003317429256811309, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.780650963848533e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.028469902593481512, "'full box of vials' (unit, NO, None)": 0.0013267250712529284, "'production of gloves' (unit, MY, None)": 1.4163530975786153e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013038775144206985, "'production of IV sets' (unit, RER, None)": 0.005329103349090954, "'medical connector' (unit, GLO, None)": 0.0013055374386428968, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.4313303962684281e-08, "'stopcock' (unit, GLO, None)": 0.0012081589085005972, "'market for water, ultrapure' (kilogram, RER, None)": 2.1482829273697714e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011138873995824629}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.45556107026401e-06, "'packed box of penicillin' (unit, SE, None)": 0.0004422416904176429, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.727841352826915e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.029320884509801824, "'full box of vials' (unit, NO, None)": 0.001370266861425661, "'production of gloves' (unit, MY, None)": 1.4684859631314947e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.00013398816890110104, "'production of IV sets' (unit, RER, None)": 0.0056220500711255126, "'medical connector' (unit, GLO, None)": 0.0013874429068758327, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.5185667717271498e-08, "'stopcock' (unit, GLO, None)": 0.00129525752812853, "'market for water, ultrapure' (kilogram, RER, None)": 2.301058855254493e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011945921458723627}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 8.708302699411142e-06, "'packed box of penicillin' (unit, SE, None)": 0.00045675562047522034, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.865055054962094e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0984780181258722, "'full box of vials' (unit, NO, None)": 0.03600192407055957, "'production of gloves' (unit, MY, None)": 0.0003173932895559447, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0004300178534555128, "'production of IV sets' (unit, RER, None)": 0.06342684359841966, "'medical connector' (unit, GLO, None)": 0.006814612431333982, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.352207092016413e-08, "'stopcock' (unit, GLO, None)": 0.0045883152102746995, "'market for water, ultrapure' (kilogram, RER, None)": 0.00011038760144267684, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005103083642199823}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 2.924797138338405e-05, "'packed box of penicillin' (unit, SE, None)": 0.01200064135685319, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.353791381112465e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.902932398442658e-08, "'full box of vials' (unit, NO, None)": 3.250424588023479e-09, "'production of gloves' (unit, MY, None)": 1.255259533483824e-10, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 2.2394392106546851e-10, "'production of IV sets' (unit, RER, None)": 1.3283534486921163e-08, "'medical connector' (unit, GLO, None)": 2.5510225773413464e-09, "'market for sodium chlorate, powder' (kilogram, RER, None)": 3.994779346027959e-14, "'stopcock' (unit, GLO, None)": 1.7036204159597961e-09, "'market for water, ultrapure' (kilogram, RER, None)": 4.054206414751791e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.99334950990401e-10}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 1.4561709223374696e-11, "'packed box of penicillin' (unit, SE, None)": 1.083474862674493e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.303843092129425e-13}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.633485617414525e-05, "'full box of vials' (unit, NO, None)": 2.050867868836324e-06, "'production of gloves' (unit, MY, None)": 2.215139896920989e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 1.6379692023869563e-07, "'production of IV sets' (unit, RER, None)": 5.217602017801188e-06, "'medical connector' (unit, GLO, None)": 1.2608984953567032e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2980902065251225e-11, "'stopcock' (unit, GLO, None)": 8.112728205819187e-07, "'market for water, ultrapure' (kilogram, RER, None)": 2.1009379318096128e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.4476942110326793e-07}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 7.82145228372114e-09, "'packed box of penicillin' (unit, SE, None)": 6.836226229454415e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.830248208696044e-11}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.7962346041941827, "'full box of vials' (unit, NO, None)": 0.048278798871591394, "'production of gloves' (unit, MY, None)": 0.00047405597484428193, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": 0.0037737425754329895, "'production of IV sets' (unit, RER, None)": 0.23871495679333327, "'medical connector' (unit, GLO, None)": 0.10451083724522091, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2485945693722554e-06, "'stopcock' (unit, GLO, None)": 0.06860538337334873, "'market for water, ultrapure' (kilogram, RER, None)": 0.0015021057997467893, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.006191267771795764}</t>
-  </si>
-  <si>
-    <t>{"'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": 0.0002364816774456723, "'packed box of penicillin' (unit, SE, None)": 0.01609293295719713, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.2477153257901502e-06}</t>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.024388112839793738, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.548765915624195e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0016420437097753881, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0016700908863142114, "'production of IV sets' (unit, RER, None)": 0.008454665850606434, "'medical connector' (unit, GLO, None)": 0.0017344477364648202, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.3883780810126298e-06, "'stopcock' (unit, GLO, None)": 2.0100951733444598e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.8267764292293542e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00012390267575063623}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0008129370946597914, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -7.56983476940386e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.321859044128822e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 6.797642744924298, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.0007824541369516421, "'production of a pair of gloves' (unit, MY, None)": 0.334228589000505, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.7091342106453968, "'production of IV sets' (unit, RER, None)": 2.475546646547223, "'medical connector' (unit, GLO, None)": 0.6079081956249768, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0003964233839754639, "'stopcock' (unit, GLO, None)": 0.006091395717158148, "'market for water, ultrapure' (kilogram, RER, None)": 0.009729568585083915, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.15039954421117394}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.2265880914974766, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.323888786746377e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0008796896462493291}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.5388704942220609, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.374330432330913e-05, "'production of a pair of gloves' (unit, MY, None)": 0.07596319064128952, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.03946832670683045, "'production of IV sets' (unit, RER, None)": 0.1459841640314835, "'medical connector' (unit, GLO, None)": 0.018047961482087045, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.3411141316876487e-05, "'stopcock' (unit, GLO, None)": 0.0002022736050311023, "'market for water, ultrapure' (kilogram, RER, None)": 0.00033203580738642746, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0025378134464491137}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.017962349807402033, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.0021761384022811e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00019993511776787403}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.7095240446617761, "'packaging of glass vials with penicillin G' (unit, NO, None)": 4.496894699166291e-05, "'production of a pair of gloves' (unit, MY, None)": 0.11239164794124026, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.05109291850979622, "'production of IV sets' (unit, RER, None)": 0.18231620677928956, "'medical connector' (unit, GLO, None)": 0.023746813887832785, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8036422689467295e-05, "'stopcock' (unit, GLO, None)": 0.0002685430926629082, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004282569032831853, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.003462827122704726}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.02365080148872587, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.3355777256523883e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0002958148173813444}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 26.45432784299862, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.001660728443221792, "'production of a pair of gloves' (unit, MY, None)": 2.7410492691807877, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -2.629682145382761, "'production of IV sets' (unit, RER, None)": 11.664008279678415, "'medical connector' (unit, GLO, None)": 1.6751476452045957, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0011500389037977557, "'stopcock' (unit, GLO, None)": 0.01968370828069925, "'market for water, ultrapure' (kilogram, RER, None)": 0.03075217768355013, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.1386216181064803}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.881810928099954, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.932363476368722e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.007214441676483834}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.821712731969444, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00020180203363117557, "'production of a pair of gloves' (unit, MY, None)": 0.09671491966461047, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.17326802795323423, "'production of IV sets' (unit, RER, None)": 0.6085899750643082, "'medical connector' (unit, GLO, None)": 0.28547008978087873, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.00021874585199251615, "'stopcock' (unit, GLO, None)": 0.002724599880413149, "'market for water, ultrapure' (kilogram, RER, None)": 0.004298967283073772, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.015032573771397403}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0607237577323148, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -5.993520398845915e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0002545536685572548}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.00574742611515957, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4021999709873185e-05, "'production of a pair of gloves' (unit, MY, None)": 0.00018922433751518717, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00021567686243347206, "'production of IV sets' (unit, RER, None)": 0.0011125325403913585, "'medical connector' (unit, GLO, None)": 0.00015211175421089626, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.1452973084879706e-07, "'stopcock' (unit, GLO, None)": 2.222299054210985e-06, "'market for water, ultrapure' (kilogram, RER, None)": 2.732997898108185e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.1034570663069486e-05}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.000191580870505319, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.164533913832336e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.980384563399727e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0006246461383110954, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.9211096379213993e-06, "'production of a pair of gloves' (unit, MY, None)": 1.0680528176019501e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00012983417071484144, "'production of IV sets' (unit, RER, None)": 0.0006357027536749809, "'medical connector' (unit, GLO, None)": 2.0791331621824976e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.652238343114176e-08, "'stopcock' (unit, GLO, None)": 8.367926170619175e-07, "'market for water, ultrapure' (kilogram, RER, None)": 3.221977583310162e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.2595014347319692e-06}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 2.0821537943703183e-05, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -5.705695624626555e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.811115015928333e-08}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.2938265065462826, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00016372748895885543, "'production of a pair of gloves' (unit, MY, None)": 0.05310275329465476, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.029119097358752406, "'production of IV sets' (unit, RER, None)": 0.13167305838088722, "'medical connector' (unit, GLO, None)": 0.027135028888640812, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8729109246335604e-05, "'stopcock' (unit, GLO, None)": 0.00026959855560932565, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004616459759680086, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.016495415108423565}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.04312755021820942, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.862706422078006e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00013976644667153132}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 12.322213950685356, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.0009055127891084376, "'production of a pair of gloves' (unit, MY, None)": 1.336869991085971, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.60508780310318, "'production of IV sets' (unit, RER, None)": 2.659367113894098, "'medical connector' (unit, GLO, None)": 0.39938176713543566, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0003306303359861266, "'stopcock' (unit, GLO, None)": 0.005720799627692931, "'market for water, ultrapure' (kilogram, RER, None)": 0.007121871899215062, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.05951397515972752}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.4107404650228452, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.68937298365206e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0035186418165382757}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.5711049594139617, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00039704470944142015, "'production of a pair of gloves' (unit, MY, None)": 0.014048109233323083, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.09425926094275014, "'production of IV sets' (unit, RER, None)": 0.47695633783002966, "'medical connector' (unit, GLO, None)": 0.03551769075980439, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.9581954635774115e-05, "'stopcock' (unit, GLO, None)": 0.000464753372131344, "'market for water, ultrapure' (kilogram, RER, None)": 0.0006153625809124813, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0022303039216704933}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.1190368319804654, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.1792227870410178e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.697462350210635e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.21760830117477667, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.151265093169469e-05, "'production of a pair of gloves' (unit, MY, None)": 0.007206876909437653, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.07358582375551662, "'production of IV sets' (unit, RER, None)": 0.3441222366986121, "'medical connector' (unit, GLO, None)": 0.01867034693696131, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.132522978566995e-05, "'stopcock' (unit, GLO, None)": 0.0021431274781735987, "'market for water, ultrapure' (kilogram, RER, None)": 0.00021113547721983515, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.000597740172076272}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0072536100391592225, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.389257326713324e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.89685000256399e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.40778163777727716, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.0929934841080258e-05, "'production of a pair of gloves' (unit, MY, None)": 0.010978771539946868, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.013004013519171173, "'production of IV sets' (unit, RER, None)": 0.061287112432552526, "'medical connector' (unit, GLO, None)": 0.014656755502129009, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.17841627341382e-06, "'stopcock' (unit, GLO, None)": 0.0018676750452771623, "'market for water, ultrapure' (kilogram, RER, None)": 0.00016647667143573455, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0023610769331310682}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.013592721259242572, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.216190647800837e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.889612669314016e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.191488238990637e-06, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.8342037086440855e-10, "'production of a pair of gloves' (unit, MY, None)": 9.173584167505032e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -4.784810839071028e-07, "'production of IV sets' (unit, RER, None)": 3.423098271384921e-06, "'medical connector' (unit, GLO, None)": 1.832767241169912e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.679671987789016e-11, "'stopcock' (unit, GLO, None)": 2.478486066524837e-09, "'market for water, ultrapure' (kilogram, RER, None)": 2.480877861057824e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.989283214660891e-08}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 1.0638294129968791e-07, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.1387585014672934e-12, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.4144873528873244e-10}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.009952288119191757, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.0564784720953878e-06, "'production of a pair of gloves' (unit, MY, None)": 0.000708598141510353, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0006573703490751319, "'production of IV sets' (unit, RER, None)": 0.0032287110653313, "'medical connector' (unit, GLO, None)": 0.0007940186068696452, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.056776235331688e-07, "'stopcock' (unit, GLO, None)": 1.0096740593826251e-05, "'market for water, ultrapure' (kilogram, RER, None)": 1.3611427403493864e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.663305084383919e-05}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0003317429373063919, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.1377410621233016e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.865030308455249e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.013267251309552093, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4163531581966652e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0009909389824058704, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0011905610474030625, "'production of IV sets' (unit, RER, None)": 0.0054121406006530535, "'medical connector' (unit, GLO, None)": 0.001305537435978577, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.1983734411714549e-06, "'stopcock' (unit, GLO, None)": 1.5903671116318822e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.1482829243264233e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011138874214759248}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0004422417103184032, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.206568879844096e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.608151401692251e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.013702669236096346, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4684860272501623e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0010183019361641738, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.001255722252517463, "'production of IV sets' (unit, RER, None)": 0.005645151610380906, "'medical connector' (unit, GLO, None)": 0.0013874429037551259, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2920439862929296e-06, "'stopcock' (unit, GLO, None)": 1.6872964181181785e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.3010588520399164e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011945921703611581}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.00045675564120321155, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.361403500932982e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.6801706959841056e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.36001924167002103, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.17393292549663e-05, "'production of a pair of gloves' (unit, MY, None)": 0.0032681095434796466, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.008938155779947513, "'production of IV sets' (unit, RER, None)": 0.06669587453670975, "'medical connector' (unit, GLO, None)": 0.0068146124300296675, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.739050439188589e-06, "'stopcock' (unit, GLO, None)": 9.280230109423735e-05, "'market for water, ultrapure' (kilogram, RER, None)": 0.00011038760116389587, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005103083655294562}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0120006413890007, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -9.426580788724992e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.60166431843843e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.2504246804574604e-08, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.2552595704719405e-11, "'production of a pair of gloves' (unit, MY, None)": 1.7019601865468382e-09, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -3.362140150295813e-09, "'production of IV sets' (unit, RER, None)": 1.350678088406866e-08, "'medical connector' (unit, GLO, None)": 2.5510225775175463e-09, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.0388603300629357e-12, "'stopcock' (unit, GLO, None)": 4.4386437253703525e-11, "'market for water, ultrapure' (kilogram, RER, None)": 4.0542064206491157e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.993349548382644e-10}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 1.08347489348582e-09, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.728120924301663e-14, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.479559210991278e-12}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.0508679353033688e-05, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.215140165251004e-09, "'production of a pair of gloves' (unit, MY, None)": 1.2448466369579436e-06, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -1.327754741714953e-06, "'production of IV sets' (unit, RER, None)": 5.528568489056439e-06, "'medical connector' (unit, GLO, None)": 1.260898497704189e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.978371595674199e-10, "'stopcock' (unit, GLO, None)": 1.4423224579857376e-08, "'market for water, ultrapure' (kilogram, RER, None)": 2.100937923156657e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.447694229653816e-07}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 6.83622645101123e-07, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.578966290795481e-12, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.2764363484733075e-09}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.48278800341591116, "'packaging of glass vials with penicillin G' (unit, NO, None)": 4.740560014392543e-05, "'production of a pair of gloves' (unit, MY, None)": 0.028680214153030546, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.058473024972178454, "'production of IV sets' (unit, RER, None)": 0.19276334332556483, "'medical connector' (unit, GLO, None)": 0.10451083715028212, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.459359061438786e-05, "'stopcock' (unit, GLO, None)": 0.0013873273007062794, "'market for water, ultrapure' (kilogram, RER, None)": 0.001502105798808324, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.006191267833945877}</t>
+  </si>
+  <si>
+    <t>{"'packed box of penicillin' (unit, SE, None)": 0.01609293344719704, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.4079463242745854e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -7.54863236507764e-05}</t>
   </si>
 </sst>
 </file>

--- a/results/LCIA/LCIA_results.xlsx
+++ b/results/LCIA/LCIA_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="penicillin_cut_off" sheetId="1" r:id="rId1"/>
+    <sheet name="penicillin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -79,136 +79,136 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>Penicillin G, Defined daily dose</t>
-  </si>
-  <si>
-    <t>Penicillin V, Defined daily dose</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.024388112839793738, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.548765915624195e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0016420437097753881, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0016700908863142114, "'production of IV sets' (unit, RER, None)": 0.008454665850606434, "'medical connector' (unit, GLO, None)": 0.0017344477364648202, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.3883780810126298e-06, "'stopcock' (unit, GLO, None)": 2.0100951733444598e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.8267764292293542e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00012390267575063623}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0008129370946597914, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -7.56983476940386e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.321859044128822e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 6.797642744924298, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.0007824541369516421, "'production of a pair of gloves' (unit, MY, None)": 0.334228589000505, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.7091342106453968, "'production of IV sets' (unit, RER, None)": 2.475546646547223, "'medical connector' (unit, GLO, None)": 0.6079081956249768, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0003964233839754639, "'stopcock' (unit, GLO, None)": 0.006091395717158148, "'market for water, ultrapure' (kilogram, RER, None)": 0.009729568585083915, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.15039954421117394}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.2265880914974766, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.323888786746377e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0008796896462493291}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.5388704942220609, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.374330432330913e-05, "'production of a pair of gloves' (unit, MY, None)": 0.07596319064128952, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.03946832670683045, "'production of IV sets' (unit, RER, None)": 0.1459841640314835, "'medical connector' (unit, GLO, None)": 0.018047961482087045, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.3411141316876487e-05, "'stopcock' (unit, GLO, None)": 0.0002022736050311023, "'market for water, ultrapure' (kilogram, RER, None)": 0.00033203580738642746, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0025378134464491137}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.017962349807402033, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.0021761384022811e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00019993511776787403}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.7095240446617761, "'packaging of glass vials with penicillin G' (unit, NO, None)": 4.496894699166291e-05, "'production of a pair of gloves' (unit, MY, None)": 0.11239164794124026, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.05109291850979622, "'production of IV sets' (unit, RER, None)": 0.18231620677928956, "'medical connector' (unit, GLO, None)": 0.023746813887832785, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8036422689467295e-05, "'stopcock' (unit, GLO, None)": 0.0002685430926629082, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004282569032831853, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.003462827122704726}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.02365080148872587, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.3355777256523883e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0002958148173813444}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 26.45432784299862, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.001660728443221792, "'production of a pair of gloves' (unit, MY, None)": 2.7410492691807877, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -2.629682145382761, "'production of IV sets' (unit, RER, None)": 11.664008279678415, "'medical connector' (unit, GLO, None)": 1.6751476452045957, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0011500389037977557, "'stopcock' (unit, GLO, None)": 0.01968370828069925, "'market for water, ultrapure' (kilogram, RER, None)": 0.03075217768355013, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.1386216181064803}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.881810928099954, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.932363476368722e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.007214441676483834}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.821712731969444, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00020180203363117557, "'production of a pair of gloves' (unit, MY, None)": 0.09671491966461047, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.17326802795323423, "'production of IV sets' (unit, RER, None)": 0.6085899750643082, "'medical connector' (unit, GLO, None)": 0.28547008978087873, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.00021874585199251615, "'stopcock' (unit, GLO, None)": 0.002724599880413149, "'market for water, ultrapure' (kilogram, RER, None)": 0.004298967283073772, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.015032573771397403}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0607237577323148, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -5.993520398845915e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0002545536685572548}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.00574742611515957, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4021999709873185e-05, "'production of a pair of gloves' (unit, MY, None)": 0.00018922433751518717, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00021567686243347206, "'production of IV sets' (unit, RER, None)": 0.0011125325403913585, "'medical connector' (unit, GLO, None)": 0.00015211175421089626, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.1452973084879706e-07, "'stopcock' (unit, GLO, None)": 2.222299054210985e-06, "'market for water, ultrapure' (kilogram, RER, None)": 2.732997898108185e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.1034570663069486e-05}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.000191580870505319, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.164533913832336e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.980384563399727e-07}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.0006246461383110954, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.9211096379213993e-06, "'production of a pair of gloves' (unit, MY, None)": 1.0680528176019501e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00012983417071484144, "'production of IV sets' (unit, RER, None)": 0.0006357027536749809, "'medical connector' (unit, GLO, None)": 2.0791331621824976e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.652238343114176e-08, "'stopcock' (unit, GLO, None)": 8.367926170619175e-07, "'market for water, ultrapure' (kilogram, RER, None)": 3.221977583310162e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.2595014347319692e-06}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 2.0821537943703183e-05, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -5.705695624626555e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.811115015928333e-08}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.2938265065462826, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00016372748895885543, "'production of a pair of gloves' (unit, MY, None)": 0.05310275329465476, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.029119097358752406, "'production of IV sets' (unit, RER, None)": 0.13167305838088722, "'medical connector' (unit, GLO, None)": 0.027135028888640812, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.8729109246335604e-05, "'stopcock' (unit, GLO, None)": 0.00026959855560932565, "'market for water, ultrapure' (kilogram, RER, None)": 0.0004616459759680086, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.016495415108423565}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.04312755021820942, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.862706422078006e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00013976644667153132}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 12.322213950685356, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.0009055127891084376, "'production of a pair of gloves' (unit, MY, None)": 1.336869991085971, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.60508780310318, "'production of IV sets' (unit, RER, None)": 2.659367113894098, "'medical connector' (unit, GLO, None)": 0.39938176713543566, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0003306303359861266, "'stopcock' (unit, GLO, None)": 0.005720799627692931, "'market for water, ultrapure' (kilogram, RER, None)": 0.007121871899215062, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.05951397515972752}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.4107404650228452, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.68937298365206e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0035186418165382757}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.5711049594139617, "'packaging of glass vials with penicillin G' (unit, NO, None)": 0.00039704470944142015, "'production of a pair of gloves' (unit, MY, None)": 0.014048109233323083, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.09425926094275014, "'production of IV sets' (unit, RER, None)": 0.47695633783002966, "'medical connector' (unit, GLO, None)": 0.03551769075980439, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.9581954635774115e-05, "'stopcock' (unit, GLO, None)": 0.000464753372131344, "'market for water, ultrapure' (kilogram, RER, None)": 0.0006153625809124813, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0022303039216704933}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.1190368319804654, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.1792227870410178e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.697462350210635e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.21760830117477667, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.151265093169469e-05, "'production of a pair of gloves' (unit, MY, None)": 0.007206876909437653, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.07358582375551662, "'production of IV sets' (unit, RER, None)": 0.3441222366986121, "'medical connector' (unit, GLO, None)": 0.01867034693696131, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.132522978566995e-05, "'stopcock' (unit, GLO, None)": 0.0021431274781735987, "'market for water, ultrapure' (kilogram, RER, None)": 0.00021113547721983515, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.000597740172076272}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0072536100391592225, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.389257326713324e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.89685000256399e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.40778163777727716, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.0929934841080258e-05, "'production of a pair of gloves' (unit, MY, None)": 0.010978771539946868, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.013004013519171173, "'production of IV sets' (unit, RER, None)": 0.061287112432552526, "'medical connector' (unit, GLO, None)": 0.014656755502129009, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.17841627341382e-06, "'stopcock' (unit, GLO, None)": 0.0018676750452771623, "'market for water, ultrapure' (kilogram, RER, None)": 0.00016647667143573455, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0023610769331310682}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.013592721259242572, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.216190647800837e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.889612669314016e-05}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.191488238990637e-06, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.8342037086440855e-10, "'production of a pair of gloves' (unit, MY, None)": 9.173584167505032e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -4.784810839071028e-07, "'production of IV sets' (unit, RER, None)": 3.423098271384921e-06, "'medical connector' (unit, GLO, None)": 1.832767241169912e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.679671987789016e-11, "'stopcock' (unit, GLO, None)": 2.478486066524837e-09, "'market for water, ultrapure' (kilogram, RER, None)": 2.480877861057824e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.989283214660891e-08}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 1.0638294129968791e-07, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.1387585014672934e-12, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.4144873528873244e-10}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.009952288119191757, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.0564784720953878e-06, "'production of a pair of gloves' (unit, MY, None)": 0.000708598141510353, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0006573703490751319, "'production of IV sets' (unit, RER, None)": 0.0032287110653313, "'medical connector' (unit, GLO, None)": 0.0007940186068696452, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.056776235331688e-07, "'stopcock' (unit, GLO, None)": 1.0096740593826251e-05, "'market for water, ultrapure' (kilogram, RER, None)": 1.3611427403493864e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -5.663305084383919e-05}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0003317429373063919, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.1377410621233016e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.865030308455249e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.013267251309552093, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4163531581966652e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0009909389824058704, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0011905610474030625, "'production of IV sets' (unit, RER, None)": 0.0054121406006530535, "'medical connector' (unit, GLO, None)": 0.001305537435978577, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.1983734411714549e-06, "'stopcock' (unit, GLO, None)": 1.5903671116318822e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.1482829243264233e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011138874214759248}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0004422417103184032, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.206568879844096e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.608151401692251e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.013702669236096346, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.4684860272501623e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0010183019361641738, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.001255722252517463, "'production of IV sets' (unit, RER, None)": 0.005645151610380906, "'medical connector' (unit, GLO, None)": 0.0013874429037551259, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.2920439862929296e-06, "'stopcock' (unit, GLO, None)": 1.6872964181181785e-05, "'market for water, ultrapure' (kilogram, RER, None)": 2.3010588520399164e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00011945921703611581}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.00045675564120321155, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.361403500932982e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.6801706959841056e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.36001924167002103, "'packaging of glass vials with penicillin G' (unit, NO, None)": 3.17393292549663e-05, "'production of a pair of gloves' (unit, MY, None)": 0.0032681095434796466, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.008938155779947513, "'production of IV sets' (unit, RER, None)": 0.06669587453670975, "'medical connector' (unit, GLO, None)": 0.0068146124300296675, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.739050439188589e-06, "'stopcock' (unit, GLO, None)": 9.280230109423735e-05, "'market for water, ultrapure' (kilogram, RER, None)": 0.00011038760116389587, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0005103083655294562}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.0120006413890007, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -9.426580788724992e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.60166431843843e-06}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 3.2504246804574604e-08, "'packaging of glass vials with penicillin G' (unit, NO, None)": 1.2552595704719405e-11, "'production of a pair of gloves' (unit, MY, None)": 1.7019601865468382e-09, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -3.362140150295813e-09, "'production of IV sets' (unit, RER, None)": 1.350678088406866e-08, "'medical connector' (unit, GLO, None)": 2.5510225775175463e-09, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.0388603300629357e-12, "'stopcock' (unit, GLO, None)": 4.4386437253703525e-11, "'market for water, ultrapure' (kilogram, RER, None)": 4.0542064206491157e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.993349548382644e-10}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 1.08347489348582e-09, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.728120924301663e-14, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.479559210991278e-12}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.0508679353033688e-05, "'packaging of glass vials with penicillin G' (unit, NO, None)": 2.215140165251004e-09, "'production of a pair of gloves' (unit, MY, None)": 1.2448466369579436e-06, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -1.327754741714953e-06, "'production of IV sets' (unit, RER, None)": 5.528568489056439e-06, "'medical connector' (unit, GLO, None)": 1.260898497704189e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.978371595674199e-10, "'stopcock' (unit, GLO, None)": 1.4423224579857376e-08, "'market for water, ultrapure' (kilogram, RER, None)": 2.100937923156657e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.447694229653816e-07}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 6.83622645101123e-07, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -6.578966290795481e-12, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.2764363484733075e-09}</t>
-  </si>
-  <si>
-    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.48278800341591116, "'packaging of glass vials with penicillin G' (unit, NO, None)": 4.740560014392543e-05, "'production of a pair of gloves' (unit, MY, None)": 0.028680214153030546, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.058473024972178454, "'production of IV sets' (unit, RER, None)": 0.19276334332556483, "'medical connector' (unit, GLO, None)": 0.10451083715028212, "'market for sodium chlorate, powder' (kilogram, RER, None)": 8.459359061438786e-05, "'stopcock' (unit, GLO, None)": 0.0013873273007062794, "'market for water, ultrapure' (kilogram, RER, None)": 0.001502105798808324, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.006191267833945877}</t>
-  </si>
-  <si>
-    <t>{"'packed box of penicillin' (unit, SE, None)": 0.01609293344719704, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.4079463242745854e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -7.54863236507764e-05}</t>
+    <t>Penicillin G, defined system</t>
+  </si>
+  <si>
+    <t>Penicillin V, defined system</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.008129370972636682, "'packaging of glass vials with penicillin G' (unit, IN, None)": 8.495885753322083e-07, "'production of a pair of gloves' (unit, MY, None)": 0.000547347900190256, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0006298407497724817, "'production of IV sets' (unit, RER, None)": 0.005136090472990991, "'medical connector' (unit, GLO, None)": 0.0005781492426853665, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.6279269244049986e-07, "'stopcock' (unit, GLO, None)": 6.700317213379794e-06, "'market for water, ultrapure' (kilogram, RER, None)": 9.422588096255795e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.130088990243369e-05}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.00027097903242122274, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.5232780687366585e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.4406196733007536e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 2.2658809058505716, "'packaging of glass vials with penicillin G' (unit, IN, None)": 0.0002608180408341938, "'production of a pair of gloves' (unit, MY, None)": 0.11140952915898013, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.19460502639662758, "'production of IV sets' (unit, RER, None)": 1.7011604409487096, "'medical connector' (unit, GLO, None)": 0.2026360653104243, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.00013214112775169077, "'stopcock' (unit, GLO, None)": 0.002030465233637712, "'market for water, ultrapure' (kilogram, RER, None)": 0.0032431895269971985, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.05013318119941326}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.07552936352835238, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -7.746295812775556e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0002932298807464357}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.17962350178009434, "'packaging of glass vials with penicillin G' (unit, IN, None)": 1.1247762746533288e-05, "'production of a pair of gloves' (unit, MY, None)": 0.025321063357635957, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.009042581533120321, "'production of IV sets' (unit, RER, None)": 0.08435702023067994, "'medical connector' (unit, GLO, None)": 0.006015986912217879, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.470380348811535e-06, "'stopcock' (unit, GLO, None)": 6.742453353728148e-05, "'market for water, ultrapure' (kilogram, RER, None)": 0.000110678603183899, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0008459376966175331}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.005987450059336478, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.3405855357203864e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.664503875729784e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.23650801949621134, "'packaging of glass vials with penicillin G' (unit, IN, None)": 1.4989642118651324e-05, "'production of a pair of gloves' (unit, MY, None)": 0.03746388240302675, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.011547323121655125, "'production of IV sets' (unit, RER, None)": 0.11079066907475572, "'medical connector' (unit, GLO, None)": 0.007915604310731645, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.0121407804507364e-06, "'stopcock' (unit, GLO, None)": 8.95143623177333e-05, "'market for water, ultrapure' (kilogram, RER, None)": 0.00014275230196970367, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0011542755546525701}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.007883600649873711, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.4519237092394436e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -9.860493848476639e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 8.818109447498323, "'packaging of glass vials with penicillin G' (unit, IN, None)": 0.0005535756368384016, "'production of a pair of gloves' (unit, MY, None)": 0.9136830724441687, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.5674534346420885, "'production of IV sets' (unit, RER, None)": 5.436466919093481, "'medical connector' (unit, GLO, None)": 0.5583825223940457, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0003833462924437766, "'stopcock' (unit, GLO, None)": 0.006561235946916553, "'market for water, ultrapure' (kilogram, RER, None)": 0.01025072591238782, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.046207194761836254}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.2939369815832774, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.644119641410053e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.002404813846673052}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.6072375731801687, "'packaging of glass vials with penicillin G' (unit, IN, None)": 6.726734345535405e-05, "'production of a pair of gloves' (unit, MY, None)": 0.03223830643204972, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.046680838806303054, "'production of IV sets' (unit, RER, None)": 0.4513670394486844, "'medical connector' (unit, GLO, None)": 0.09515669665830574, "'market for sodium chlorate, powder' (kilogram, RER, None)": 7.291528394147176e-05, "'stopcock' (unit, GLO, None)": 0.0009081999587447116, "'market for water, ultrapure' (kilogram, RER, None)": 0.0014329890938965138, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.005010857872658788}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.020241252439338955, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.9978401006240152e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.485122252915484e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.001915808705581232, "'packaging of glass vials with penicillin G' (unit, IN, None)": 4.673999895845508e-06, "'production of a pair of gloves' (unit, MY, None)": 6.307477875489506e-05, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00012133453812819161, "'production of IV sets' (unit, RER, None)": 0.000833942016943935, "'medical connector' (unit, GLO, None)": 5.070391779006241e-05, "'market for sodium chlorate, powder' (kilogram, RER, None)": 3.817657675958852e-08, "'stopcock' (unit, GLO, None)": 7.407663486193835e-07, "'market for water, ultrapure' (kilogram, RER, None)": 9.109993014683579e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.367819004262379e-05}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 6.386029018604106e-05, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.3881779690661158e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.6601281768288378e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.00020821537966196383, "'packaging of glass vials with penicillin G' (unit, IN, None)": 6.40369879045464e-07, "'production of a pair of gloves' (unit, MY, None)": 3.560176036849539e-06, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -2.8997362177343712e-05, "'production of IV sets' (unit, RER, None)": 0.00020473446324260962, "'medical connector' (unit, GLO, None)": 6.9304438778099376e-06, "'market for sodium chlorate, powder' (kilogram, RER, None)": 5.507461138357365e-09, "'stopcock' (unit, GLO, None)": 2.7893087211395146e-07, "'market for water, ultrapure' (kilogram, RER, None)": 1.0739925271963077e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0865004693276542e-06}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 6.940512655398794e-06, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.901898540765028e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -9.370383328987986e-09}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.43127550495986056, "'packaging of glass vials with penicillin G' (unit, IN, None)": 5.457582907107153e-05, "'production of a pair of gloves' (unit, MY, None)": 0.017700917550738958, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.010334357714082972, "'production of IV sets' (unit, RER, None)": 0.08416753873276021, "'medical connector' (unit, GLO, None)": 0.009045009649851813, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.243036332345413e-06, "'stopcock' (unit, GLO, None)": 8.986618378972741e-05, "'market for water, ultrapure' (kilogram, RER, None)": 0.00015388198834901355, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00549847166103222}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.014375850165328686, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.6209021234108245e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -4.6588814993544936e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 4.107404694017821, "'packaging of glass vials with penicillin G' (unit, IN, None)": 0.00030183751470825616, "'production of a pair of gloves' (unit, MY, None)": 0.4456233274222009, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.2231767483407485, "'production of IV sets' (unit, RER, None)": 1.8909335736587471, "'medical connector' (unit, GLO, None)": 0.13312725178424814, "'market for sodium chlorate, powder' (kilogram, RER, None)": 0.0001102101105911199, "'stopcock' (unit, GLO, None)": 0.00190693318648175, "'market for water, ultrapure' (kilogram, RER, None)": 0.0023739573097525096, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.01983798990081556}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.13691348980059403, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -8.964574186835208e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0011728805977752326}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.190368315571515, "'packaging of glass vials with penicillin G' (unit, IN, None)": 0.00013234823582005924, "'production of a pair of gloves' (unit, MY, None)": 0.00468270300076952, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.006507536628656838, "'production of IV sets' (unit, RER, None)": 0.05036291804505987, "'medical connector' (unit, GLO, None)": 0.011839230223863417, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.527318161672829e-06, "'stopcock' (unit, GLO, None)": 0.0001549177900959045, "'market for water, ultrapure' (kilogram, RER, None)": 0.00020512085986885625, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0007434346313197927}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.03967894385238383, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.9307426038557597e-07, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.2324874298025375e-05}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.07253607387665503, "'packaging of glass vials with penicillin G' (unit, IN, None)": 7.170881685406234e-06, "'production of a pair of gloves' (unit, MY, None)": 0.002402292252623914, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.011540298274333755, "'production of IV sets' (unit, RER, None)": 0.18397279147232262, "'medical connector' (unit, GLO, None)": 0.006223449175478697, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.3775076902697707e-05, "'stopcock' (unit, GLO, None)": 0.0007143758259281868, "'market for water, ultrapure' (kilogram, RER, None)": 7.037848976740371e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00019924662501837737}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.002417869129221834, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.1297518605656514e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.322833208906141e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.1359272155795362, "'packaging of glass vials with penicillin G' (unit, IN, None)": 6.9766449293997065e-06, "'production of a pair of gloves' (unit, MY, None)": 0.0036595904663989758, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.002375287216543314, "'production of IV sets' (unit, RER, None)": 0.021991598340342332, "'medical connector' (unit, GLO, None)": 0.004885585184842223, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.0594720883010303e-06, "'stopcock' (unit, GLO, None)": 0.0006225583481733938, "'market for water, ultrapure' (kilogram, RER, None)": 5.5492223698863934e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0007870256336907004}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.004530907185984539, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.0720635440317127e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -9.632042107562104e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.063829407047704e-06, "'packaging of glass vials with penicillin G' (unit, IN, None)": 1.2780678912005989e-10, "'production of a pair of gloves' (unit, MY, None)": 3.057861371430306e-08, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -1.7536562935440088e-07, "'production of IV sets' (unit, RER, None)": 8.827786542256732e-07, "'medical connector' (unit, GLO, None)": 6.109224133348839e-08, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.8932239914927096e-11, "'stopcock' (unit, GLO, None)": 8.261620202945394e-10, "'market for water, ultrapure' (kilogram, RER, None)": 8.269592868305048e-10, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.3297610620465763e-08}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 3.5460980234923466e-08, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.795861636865778e-13, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.048291129604565e-11}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.003317429361948087, "'packaging of glass vials with penicillin G' (unit, IN, None)": 3.5215946948689754e-07, "'production of a pair of gloves' (unit, MY, None)": 0.0002361993791231943, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0003839239487271081, "'production of IV sets' (unit, RER, None)": 0.0030631154334980824, "'medical connector' (unit, GLO, None)": 0.00026467286786420756, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.018925406122281e-07, "'stopcock' (unit, GLO, None)": 3.3655801827049532e-06, "'market for water, ultrapure' (kilogram, RER, None)": 4.537142459649598e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.8877682785428354e-05}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.0001105809787316029, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.0459136243760857e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -6.216767658522473e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.004422417093423903, "'packaging of glass vials with penicillin G' (unit, IN, None)": 4.721177280217548e-07, "'production of a pair of gloves' (unit, MY, None)": 0.0003303129932298605, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.0004170886833005271, "'production of IV sets' (unit, RER, None)": 0.003987861003135543, "'medical connector' (unit, GLO, None)": 0.00043517914536720027, "'market for sodium chlorate, powder' (kilogram, RER, None)": 3.9945781423413607e-07, "'stopcock' (unit, GLO, None)": 5.301223686629886e-06, "'market for water, ultrapure' (kilogram, RER, None)": 7.160943048069818e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.712957942395197e-05}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.0001474139031141301, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.4021896522246119e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.693837981809927e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.004567556400594843, "'packaging of glass vials with penicillin G' (unit, IN, None)": 4.894953505084131e-07, "'production of a pair of gloves' (unit, MY, None)": 0.0003394339778001359, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.00042683531378710294, "'production of IV sets' (unit, RER, None)": 0.004131581807415125, "'medical connector' (unit, GLO, None)": 0.00046248096813523846, "'market for sodium chlorate, powder' (kilogram, RER, None)": 4.3068132926949734e-07, "'stopcock' (unit, GLO, None)": 5.62432137359436e-06, "'market for water, ultrapure' (kilogram, RER, None)": 7.670196139819002e-06, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -3.981973768494832e-05}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.00015225188001982812, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.453801191009987e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.933902295699576e-07}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.12000641392158283, "'packaging of glass vials with penicillin G' (unit, IN, None)": 1.057977638265564e-05, "'production of a pair of gloves' (unit, MY, None)": 0.0010893698439454393, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.003248902574505599, "'production of IV sets' (unit, RER, None)": 0.013542601483680887, "'medical connector' (unit, GLO, None)": 0.0022715374764114564, "'market for sodium chlorate, powder' (kilogram, RER, None)": 1.5796834779213603e-06, "'stopcock' (unit, GLO, None)": 3.0934100336001876e-05, "'market for water, ultrapure' (kilogram, RER, None)": 3.679586707410119e-05, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.00017010278741940447}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.0040002137973860945, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -3.142193585648725e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.8672214292643962e-06}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 1.0834748683301442e-08, "'packaging of glass vials with penicillin G' (unit, IN, None)": 4.184198509764753e-12, "'production of a pair of gloves' (unit, MY, None)": 5.673200589091939e-10, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -9.312699565735518e-10, "'production of IV sets' (unit, RER, None)": 8.708565242940111e-09, "'medical connector' (unit, GLO, None)": 8.503408599468337e-10, "'market for sodium chlorate, powder' (kilogram, RER, None)": 6.796201115796255e-13, "'stopcock' (unit, GLO, None)": 1.479547905430438e-11, "'market for water, ultrapure' (kilogram, RER, None)": 1.3514021372529458e-11, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.6644498255044074e-10}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 3.611582894433814e-10, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -1.2427069574001317e-14, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.4931863950489983e-12}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 6.836226454768461e-06, "'packaging of glass vials with penicillin G' (unit, IN, None)": 7.383800166701074e-10, "'production of a pair of gloves' (unit, MY, None)": 4.1494887625604805e-07, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -5.148507791588543e-07, "'production of IV sets' (unit, RER, None)": 4.249121502930794e-06, "'medical connector' (unit, GLO, None)": 4.2029949781458677e-07, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.992790520110462e-10, "'stopcock' (unit, GLO, None)": 4.807741502052848e-09, "'market for water, ultrapure' (kilogram, RER, None)": 7.003126394311234e-09, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -8.158980638741453e-08}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 2.278742151589487e-07, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -2.192988649510219e-12, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -1.0921454423059183e-09}</t>
+  </si>
+  <si>
+    <t>{"'production of alchohol wipes' (unit, DK, None)": 0.16092933361083064, "'packaging of glass vials with penicillin G' (unit, IN, None)": 1.580186648482065e-05, "'production of a pair of gloves' (unit, MY, None)": 0.009560071346919552, "'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)": -0.008765010168469225, "'production of IV sets' (unit, RER, None)": 0.1113728225514604, "'medical connector' (unit, GLO, None)": 0.03483694575232352, "'market for sodium chlorate, powder' (kilogram, RER, None)": 2.81978635272119e-05, "'stopcock' (unit, GLO, None)": 0.0004624424330911274, "'market for water, ultrapure' (kilogram, RER, None)": 0.0005007019325776087, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -0.0020637559262294968}</t>
+  </si>
+  <si>
+    <t>{"'packaging of a medicine strip' (unit, IN, None)": 0.005364311120361022, "'treatment of hazardous waste, hazardous waste incineration' (kilogram, CH, None)": -4.6931543459917334e-08, "'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)": -2.516210778509226e-05}</t>
   </si>
 </sst>
 </file>
